--- a/Data Plots.xlsx
+++ b/Data Plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliawolken/Library/Mobile Documents/com~apple~CloudDocs/SCHOOL/CAL POLY/CP QUARTERS/Poly Winter '24/ME 405 Lab/ME405-Term-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1684195D-F1C0-694D-8B53-58805969F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C939F89E-16F1-4F49-B55E-2A93F3BFF8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="6140" windowWidth="28040" windowHeight="17440" xr2:uid="{67320AA8-6281-8748-86BD-E46B7DC5E4AF}"/>
+    <workbookView xWindow="980" yWindow="760" windowWidth="26960" windowHeight="17440" xr2:uid="{67320AA8-6281-8748-86BD-E46B7DC5E4AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Kp = 5, p=16.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time </t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Kp = 10</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -46,15 +69,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -62,12 +91,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,6 +144,2146 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Kp = 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1124</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1184</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1304</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1364</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1427</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1484</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1544</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1604</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1664</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1724</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1784</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1844</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1904</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2144</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2204</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2264</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2324</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2384</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2444</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2504</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2564</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2624</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2684</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2744</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2804</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2864</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2928</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2984</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3044</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3104</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3164</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3224</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3284</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3344</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3404</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3464</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3524</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3644</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3704</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3764</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3824</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3884</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3944</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4004</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4064</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4124</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4244</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4304</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4364</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4429</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4484</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4544</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4604</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4664</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4724</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4784</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4844</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4904</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4964</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5024</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5084</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5144</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5204</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5264</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5324</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5384</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5444</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5504</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5564</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5624</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5684</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5744</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5804</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5864</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>14.83521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.83521</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.84665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.90616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.99771</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.098420000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.1854</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.27237</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.37994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.45548</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.512700000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.57907</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.6546</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.702669999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.720980000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.737</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.72556</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.732419999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.737</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.737</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.773619999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.83084</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.9018</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.97275</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.947570000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.688940000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.64316</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.659179999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.70725</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.79651</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.84229</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.91324</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.97733</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.036840000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.041409999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.052859999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16.082609999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15.84915</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.7782</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.80109</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15.867459999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15.947570000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.029969999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16.089479999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.130680000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16.183319999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.270299999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.364139999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.441960000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.517489999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.512910000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16.501470000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16.483160000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16.483160000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16.483160000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16.483160000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.066590000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16.052859999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16.089479999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16.171880000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16.254270000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16.364139999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16.448820000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16.554110000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.547239999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16.464849999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.425940000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16.483160000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.542670000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.517489999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16.464849999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16.460270000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16.517489999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16.542670000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16.494599999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16.453399999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>16.464849999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>16.535799999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>16.547239999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>16.476289999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16.441960000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16.490020000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16.535799999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16.517489999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16.464849999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>16.464849999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>16.517489999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>16.542670000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>16.512910000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>16.453399999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>16.460270000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>16.528929999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>16.554110000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>16.501470000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>16.448820000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>16.460270000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>16.547239999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>16.542670000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>16.464849999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>16.448820000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2488-FE41-B3DE-4F0ADC2FD964}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>KP = 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1124</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1184</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1304</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1364</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1427</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1484</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1544</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1604</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1664</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1724</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1784</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1844</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1904</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2144</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2204</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2264</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2324</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2384</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2444</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2504</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2564</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2624</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2684</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2744</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2804</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2864</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2928</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2984</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3044</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3104</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3164</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3224</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3284</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3344</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3404</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3464</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3524</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3644</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3704</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3764</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3824</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3884</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3944</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4004</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4064</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4124</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4244</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4304</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4364</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4429</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4484</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4544</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4604</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4664</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4724</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4784</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4844</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4904</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4964</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5024</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5084</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5144</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5204</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5264</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5324</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5384</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5444</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5504</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5564</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5624</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5684</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5744</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5804</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5864</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>14.71161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.71161</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.71161</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.70703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.70703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.71161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.723050000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.75281</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.81232</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.869540000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.94049</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.00916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.0618</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.12589</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.1854</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.256349999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.325010000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.39597</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.44403</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.48981</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.53787</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.57221</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.617979999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.6546</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.70725</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.7782</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.84915</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.92468</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.007079999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.094059999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.176449999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16.265720000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.348120000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.4328</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.517489999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.528929999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16.435089999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16.40991</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.476289999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16.558689999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16.565550000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.460270000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.425940000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16.506039999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.528929999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16.490020000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.453399999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.490020000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.542670000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.506039999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.448820000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16.460270000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16.542670000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16.558689999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16.471710000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16.435089999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.506039999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16.535799999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16.506039999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16.441960000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16.453399999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16.542670000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16.542670000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16.464849999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.435089999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16.494599999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.547239999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16.535799999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.441960000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.42136</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16.471710000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16.558689999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16.570129999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16.512910000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16.42136</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16.414490000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>16.490020000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>16.528929999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>16.528929999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>16.460270000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16.4328</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16.494599999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16.535799999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16.517489999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16.453399999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>16.441960000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>16.506039999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>16.528929999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>16.517489999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>16.441960000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>16.425940000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>16.494599999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>16.535799999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>16.517489999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>16.460270000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>16.448820000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>16.506039999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>16.528929999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>16.517489999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>16.448820000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2488-FE41-B3DE-4F0ADC2FD964}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="194810080"/>
+        <c:axId val="194508096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="194810080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="194508096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="194508096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="194810080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91577560-7B4E-C107-C570-53917D5A92C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,815 +2603,1155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8091119-6192-0845-ACD3-5EE477BCCD31}">
-  <dimension ref="A2:B101"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>7710</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>45</v>
-      </c>
-      <c r="B3">
-        <v>7712</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>7720</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14.83521</v>
+      </c>
+      <c r="D4">
+        <v>14.71161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>7733</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14.83521</v>
+      </c>
+      <c r="D5">
+        <v>14.71161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>225</v>
+        <v>104</v>
       </c>
       <c r="B6">
-        <v>7753</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14.84665</v>
+      </c>
+      <c r="D6">
+        <v>14.71161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>285</v>
+        <v>164</v>
       </c>
       <c r="B7">
-        <v>7776</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14.90616</v>
+      </c>
+      <c r="D7">
+        <v>14.70703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>345</v>
+        <v>224</v>
       </c>
       <c r="B8">
-        <v>7794</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14.99771</v>
+      </c>
+      <c r="D8">
+        <v>14.70703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>405</v>
+        <v>284</v>
       </c>
       <c r="B9">
-        <v>7810</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.098420000000001</v>
+      </c>
+      <c r="D9">
+        <v>14.71161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>465</v>
+        <v>344</v>
       </c>
       <c r="B10">
-        <v>7824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.1854</v>
+      </c>
+      <c r="D10">
+        <v>14.723050000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>525</v>
+        <v>404</v>
       </c>
       <c r="B11">
-        <v>7837</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.27237</v>
+      </c>
+      <c r="D11">
+        <v>14.75281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>585</v>
+        <v>464</v>
       </c>
       <c r="B12">
-        <v>7846</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.37994</v>
+      </c>
+      <c r="D12">
+        <v>14.81232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>645</v>
+        <v>524</v>
       </c>
       <c r="B13">
-        <v>7856</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.45548</v>
+      </c>
+      <c r="D13">
+        <v>14.869540000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>705</v>
+        <v>584</v>
       </c>
       <c r="B14">
-        <v>7861</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.512700000000001</v>
+      </c>
+      <c r="D14">
+        <v>14.94049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>765</v>
+        <v>644</v>
       </c>
       <c r="B15">
-        <v>7879</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.57907</v>
+      </c>
+      <c r="D15">
+        <v>15.00916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>825</v>
+        <v>704</v>
       </c>
       <c r="B16">
-        <v>7887</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.6546</v>
+      </c>
+      <c r="D16">
+        <v>15.0618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>885</v>
+        <v>764</v>
       </c>
       <c r="B17">
-        <v>7897</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.702669999999999</v>
+      </c>
+      <c r="D17">
+        <v>15.12589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>945</v>
+        <v>824</v>
       </c>
       <c r="B18">
-        <v>7905</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.720980000000001</v>
+      </c>
+      <c r="D18">
+        <v>15.1854</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1005</v>
+        <v>884</v>
       </c>
       <c r="B19">
-        <v>7918</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.737</v>
+      </c>
+      <c r="D19">
+        <v>15.256349999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1065</v>
+        <v>944</v>
       </c>
       <c r="B20">
-        <v>7933</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.72556</v>
+      </c>
+      <c r="D20">
+        <v>15.325010000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1125</v>
+        <v>1004</v>
       </c>
       <c r="B21">
-        <v>7951</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.732419999999999</v>
+      </c>
+      <c r="D21">
+        <v>15.39597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1185</v>
+        <v>1064</v>
       </c>
       <c r="B22">
-        <v>7969</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.737</v>
+      </c>
+      <c r="D22">
+        <v>15.44403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1245</v>
+        <v>1124</v>
       </c>
       <c r="B23">
-        <v>7987</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.737</v>
+      </c>
+      <c r="D23">
+        <v>15.48981</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1305</v>
+        <v>1184</v>
       </c>
       <c r="B24">
-        <v>8012</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.773619999999999</v>
+      </c>
+      <c r="D24">
+        <v>15.53787</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1365</v>
+        <v>1244</v>
       </c>
       <c r="B25">
-        <v>8040</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.83084</v>
+      </c>
+      <c r="D25">
+        <v>15.57221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1428</v>
+        <v>1304</v>
       </c>
       <c r="B26">
-        <v>8071</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.9018</v>
+      </c>
+      <c r="D26">
+        <v>15.617979999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1485</v>
+        <v>1364</v>
       </c>
       <c r="B27">
-        <v>8099</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.97275</v>
+      </c>
+      <c r="D27">
+        <v>15.6546</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1545</v>
+        <v>1427</v>
       </c>
       <c r="B28">
-        <v>8130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.947570000000001</v>
+      </c>
+      <c r="D28">
+        <v>15.70725</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1605</v>
+        <v>1484</v>
       </c>
       <c r="B29">
-        <v>8151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.688940000000001</v>
+      </c>
+      <c r="D29">
+        <v>15.7782</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1665</v>
+        <v>1544</v>
       </c>
       <c r="B30">
-        <v>8171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.64316</v>
+      </c>
+      <c r="D30">
+        <v>15.84915</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1725</v>
+        <v>1604</v>
       </c>
       <c r="B31">
-        <v>8194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.659179999999999</v>
+      </c>
+      <c r="D31">
+        <v>15.92468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1785</v>
+        <v>1664</v>
       </c>
       <c r="B32">
-        <v>8209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.70725</v>
+      </c>
+      <c r="D32">
+        <v>16.007079999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1845</v>
+        <v>1724</v>
       </c>
       <c r="B33">
-        <v>8227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.79651</v>
+      </c>
+      <c r="D33">
+        <v>16.094059999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1905</v>
+        <v>1784</v>
       </c>
       <c r="B34">
-        <v>8245</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.84229</v>
+      </c>
+      <c r="D34">
+        <v>16.176449999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1965</v>
+        <v>1844</v>
       </c>
       <c r="B35">
-        <v>8273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.91324</v>
+      </c>
+      <c r="D35">
+        <v>16.265720000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2025</v>
+        <v>1904</v>
       </c>
       <c r="B36">
-        <v>8291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.97733</v>
+      </c>
+      <c r="D36">
+        <v>16.348120000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2085</v>
+        <v>1964</v>
       </c>
       <c r="B37">
-        <v>8306</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.036840000000002</v>
+      </c>
+      <c r="D37">
+        <v>16.4328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2145</v>
+        <v>2024</v>
       </c>
       <c r="B38">
-        <v>8324</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.041409999999999</v>
+      </c>
+      <c r="D38">
+        <v>16.517489999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2205</v>
+        <v>2084</v>
       </c>
       <c r="B39">
-        <v>8337</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.052859999999999</v>
+      </c>
+      <c r="D39">
+        <v>16.528929999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2265</v>
+        <v>2144</v>
       </c>
       <c r="B40">
-        <v>8355</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.082609999999999</v>
+      </c>
+      <c r="D40">
+        <v>16.435089999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2325</v>
+        <v>2204</v>
       </c>
       <c r="B41">
-        <v>8373</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.84915</v>
+      </c>
+      <c r="D41">
+        <v>16.40991</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2385</v>
+        <v>2264</v>
       </c>
       <c r="B42">
-        <v>8393</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.7782</v>
+      </c>
+      <c r="D42">
+        <v>16.476289999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2445</v>
+        <v>2324</v>
       </c>
       <c r="B43">
-        <v>8406</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.80109</v>
+      </c>
+      <c r="D43">
+        <v>16.558689999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2505</v>
+        <v>2384</v>
       </c>
       <c r="B44">
-        <v>8427</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.867459999999999</v>
+      </c>
+      <c r="D44">
+        <v>16.565550000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2565</v>
+        <v>2444</v>
       </c>
       <c r="B45">
-        <v>8447</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15.947570000000001</v>
+      </c>
+      <c r="D45">
+        <v>16.460270000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>2625</v>
+        <v>2504</v>
       </c>
       <c r="B46">
-        <v>8465</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.029969999999999</v>
+      </c>
+      <c r="D46">
+        <v>16.425940000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>2685</v>
+        <v>2564</v>
       </c>
       <c r="B47">
-        <v>8478</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.089479999999998</v>
+      </c>
+      <c r="D47">
+        <v>16.506039999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2745</v>
+        <v>2624</v>
       </c>
       <c r="B48">
-        <v>8493</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.130680000000002</v>
+      </c>
+      <c r="D48">
+        <v>16.528929999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>2805</v>
+        <v>2684</v>
       </c>
       <c r="B49">
-        <v>8507</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.183319999999998</v>
+      </c>
+      <c r="D49">
+        <v>16.490020000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>2865</v>
+        <v>2744</v>
       </c>
       <c r="B50">
-        <v>8522</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.270299999999999</v>
+      </c>
+      <c r="D50">
+        <v>16.453399999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>2929</v>
+        <v>2804</v>
       </c>
       <c r="B51">
-        <v>8537</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.364139999999999</v>
+      </c>
+      <c r="D51">
+        <v>16.490020000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>2985</v>
+        <v>2864</v>
       </c>
       <c r="B52">
-        <v>8553</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.441960000000002</v>
+      </c>
+      <c r="D52">
+        <v>16.542670000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>3045</v>
+        <v>2928</v>
       </c>
       <c r="B53">
-        <v>8568</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.517489999999999</v>
+      </c>
+      <c r="D53">
+        <v>16.506039999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>3105</v>
+        <v>2984</v>
       </c>
       <c r="B54">
-        <v>8578</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.512910000000002</v>
+      </c>
+      <c r="D54">
+        <v>16.448820000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>3165</v>
+        <v>3044</v>
       </c>
       <c r="B55">
-        <v>8586</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.501470000000001</v>
+      </c>
+      <c r="D55">
+        <v>16.460270000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>3225</v>
+        <v>3104</v>
       </c>
       <c r="B56">
-        <v>8588</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.483160000000002</v>
+      </c>
+      <c r="D56">
+        <v>16.542670000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>3285</v>
+        <v>3164</v>
       </c>
       <c r="B57">
-        <v>8594</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.483160000000002</v>
+      </c>
+      <c r="D57">
+        <v>16.558689999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>3345</v>
+        <v>3224</v>
       </c>
       <c r="B58">
-        <v>8596</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.483160000000002</v>
+      </c>
+      <c r="D58">
+        <v>16.471710000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>3405</v>
+        <v>3284</v>
       </c>
       <c r="B59">
-        <v>8599</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.483160000000002</v>
+      </c>
+      <c r="D59">
+        <v>16.435089999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>3465</v>
+        <v>3344</v>
       </c>
       <c r="B60">
-        <v>8601</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.066590000000001</v>
+      </c>
+      <c r="D60">
+        <v>16.506039999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>3525</v>
+        <v>3404</v>
       </c>
       <c r="B61">
-        <v>8604</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.052859999999999</v>
+      </c>
+      <c r="D61">
+        <v>16.535799999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>3585</v>
+        <v>3464</v>
       </c>
       <c r="B62">
-        <v>8606</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.089479999999998</v>
+      </c>
+      <c r="D62">
+        <v>16.506039999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>3645</v>
+        <v>3524</v>
       </c>
       <c r="B63">
-        <v>8609</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.171880000000002</v>
+      </c>
+      <c r="D63">
+        <v>16.441960000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>3705</v>
+        <v>3584</v>
       </c>
       <c r="B64">
-        <v>8619</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.254270000000002</v>
+      </c>
+      <c r="D64">
+        <v>16.453399999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>3765</v>
+        <v>3644</v>
       </c>
       <c r="B65">
-        <v>8647</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.364139999999999</v>
+      </c>
+      <c r="D65">
+        <v>16.542670000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>3825</v>
+        <v>3704</v>
       </c>
       <c r="B66">
-        <v>8665</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.448820000000001</v>
+      </c>
+      <c r="D66">
+        <v>16.542670000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>3885</v>
+        <v>3764</v>
       </c>
       <c r="B67">
-        <v>8688</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.554110000000001</v>
+      </c>
+      <c r="D67">
+        <v>16.464849999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>3945</v>
+        <v>3824</v>
       </c>
       <c r="B68">
-        <v>8696</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.547239999999999</v>
+      </c>
+      <c r="D68">
+        <v>16.435089999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>4005</v>
+        <v>3884</v>
       </c>
       <c r="B69">
-        <v>8719</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.464849999999998</v>
+      </c>
+      <c r="D69">
+        <v>16.494599999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>4065</v>
+        <v>3944</v>
       </c>
       <c r="B70">
-        <v>8742</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.425940000000001</v>
+      </c>
+      <c r="D70">
+        <v>16.547239999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>4125</v>
+        <v>4004</v>
       </c>
       <c r="B71">
-        <v>8747</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.483160000000002</v>
+      </c>
+      <c r="D71">
+        <v>16.535799999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>4185</v>
+        <v>4064</v>
       </c>
       <c r="B72">
-        <v>8757</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.542670000000001</v>
+      </c>
+      <c r="D72">
+        <v>16.441960000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>4245</v>
+        <v>4124</v>
       </c>
       <c r="B73">
-        <v>8781</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.517489999999999</v>
+      </c>
+      <c r="D73">
+        <v>16.42136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>4305</v>
+        <v>4184</v>
       </c>
       <c r="B74">
-        <v>8813</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.464849999999998</v>
+      </c>
+      <c r="D74">
+        <v>16.471710000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>4365</v>
+        <v>4244</v>
       </c>
       <c r="B75">
-        <v>8840</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.460270000000001</v>
+      </c>
+      <c r="D75">
+        <v>16.558689999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>4430</v>
+        <v>4304</v>
       </c>
       <c r="B76">
-        <v>8866</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.517489999999999</v>
+      </c>
+      <c r="D76">
+        <v>16.570129999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>4485</v>
+        <v>4364</v>
       </c>
       <c r="B77">
-        <v>8868</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.542670000000001</v>
+      </c>
+      <c r="D77">
+        <v>16.512910000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>4545</v>
+        <v>4429</v>
       </c>
       <c r="B78">
-        <v>8883</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.494599999999998</v>
+      </c>
+      <c r="D78">
+        <v>16.42136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>4605</v>
+        <v>4484</v>
       </c>
       <c r="B79">
-        <v>8907</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.453399999999998</v>
+      </c>
+      <c r="D79">
+        <v>16.414490000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>4665</v>
+        <v>4544</v>
       </c>
       <c r="B80">
-        <v>8927</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.464849999999998</v>
+      </c>
+      <c r="D80">
+        <v>16.490020000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>4725</v>
+        <v>4604</v>
       </c>
       <c r="B81">
-        <v>8937</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.535799999999998</v>
+      </c>
+      <c r="D81">
+        <v>16.528929999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>4785</v>
+        <v>4664</v>
       </c>
       <c r="B82">
-        <v>8937</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.547239999999999</v>
+      </c>
+      <c r="D82">
+        <v>16.528929999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>4845</v>
+        <v>4724</v>
       </c>
       <c r="B83">
-        <v>8930</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.476289999999999</v>
+      </c>
+      <c r="D83">
+        <v>16.460270000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>4905</v>
+        <v>4784</v>
       </c>
       <c r="B84">
-        <v>8924</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.441960000000002</v>
+      </c>
+      <c r="D84">
+        <v>16.4328</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>4965</v>
+        <v>4844</v>
       </c>
       <c r="B85">
-        <v>8924</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.490020000000001</v>
+      </c>
+      <c r="D85">
+        <v>16.494599999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>5025</v>
+        <v>4904</v>
       </c>
       <c r="B86">
-        <v>8922</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.535799999999998</v>
+      </c>
+      <c r="D86">
+        <v>16.535799999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>5085</v>
+        <v>4964</v>
       </c>
       <c r="B87">
-        <v>8919</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.517489999999999</v>
+      </c>
+      <c r="D87">
+        <v>16.517489999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>5145</v>
+        <v>5024</v>
       </c>
       <c r="B88">
-        <v>8914</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.464849999999998</v>
+      </c>
+      <c r="D88">
+        <v>16.453399999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>5205</v>
+        <v>5084</v>
       </c>
       <c r="B89">
-        <v>8912</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.464849999999998</v>
+      </c>
+      <c r="D89">
+        <v>16.441960000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>5265</v>
+        <v>5144</v>
       </c>
       <c r="B90">
-        <v>8909</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.517489999999999</v>
+      </c>
+      <c r="D90">
+        <v>16.506039999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>5325</v>
+        <v>5204</v>
       </c>
       <c r="B91">
-        <v>8909</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.542670000000001</v>
+      </c>
+      <c r="D91">
+        <v>16.528929999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>5385</v>
+        <v>5264</v>
       </c>
       <c r="B92">
-        <v>8907</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.512910000000002</v>
+      </c>
+      <c r="D92">
+        <v>16.517489999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>5445</v>
+        <v>5324</v>
       </c>
       <c r="B93">
-        <v>8904</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.453399999999998</v>
+      </c>
+      <c r="D93">
+        <v>16.441960000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>5505</v>
+        <v>5384</v>
       </c>
       <c r="B94">
-        <v>8904</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.460270000000001</v>
+      </c>
+      <c r="D94">
+        <v>16.425940000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>5565</v>
+        <v>5444</v>
       </c>
       <c r="B95">
-        <v>8901</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.528929999999999</v>
+      </c>
+      <c r="D95">
+        <v>16.494599999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>5625</v>
+        <v>5504</v>
       </c>
       <c r="B96">
-        <v>8901</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.554110000000001</v>
+      </c>
+      <c r="D96">
+        <v>16.535799999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>5685</v>
+        <v>5564</v>
       </c>
       <c r="B97">
-        <v>8896</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.501470000000001</v>
+      </c>
+      <c r="D97">
+        <v>16.517489999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>5745</v>
+        <v>5624</v>
       </c>
       <c r="B98">
-        <v>8896</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.448820000000001</v>
+      </c>
+      <c r="D98">
+        <v>16.460270000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>5805</v>
+        <v>5684</v>
       </c>
       <c r="B99">
-        <v>8894</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.460270000000001</v>
+      </c>
+      <c r="D99">
+        <v>16.448820000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>5865</v>
+        <v>5744</v>
       </c>
       <c r="B100">
-        <v>8894</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16.547239999999999</v>
+      </c>
+      <c r="D100">
+        <v>16.506039999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>5930</v>
+        <v>5804</v>
       </c>
       <c r="B101">
-        <v>8891</v>
+        <v>16.542670000000001</v>
+      </c>
+      <c r="D101">
+        <v>16.528929999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>5864</v>
+      </c>
+      <c r="B102">
+        <v>16.464849999999998</v>
+      </c>
+      <c r="D102">
+        <v>16.517489999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>5929</v>
+      </c>
+      <c r="B103">
+        <v>16.448820000000001</v>
+      </c>
+      <c r="D103">
+        <v>16.448820000000001</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data Plots.xlsx
+++ b/Data Plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliawolken/Library/Mobile Documents/com~apple~CloudDocs/SCHOOL/CAL POLY/CP QUARTERS/Poly Winter '24/ME 405 Lab/ME405-Term-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C939F89E-16F1-4F49-B55E-2A93F3BFF8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590170C0-624A-7647-B0AD-53FC4BC92C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="760" windowWidth="26960" windowHeight="17440" xr2:uid="{67320AA8-6281-8748-86BD-E46B7DC5E4AF}"/>
   </bookViews>
@@ -2249,16 +2249,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>112184</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>302684</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2605,8 +2605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8091119-6192-0845-ACD3-5EE477BCCD31}">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data Plots.xlsx
+++ b/Data Plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliawolken/Library/Mobile Documents/com~apple~CloudDocs/SCHOOL/CAL POLY/CP QUARTERS/Poly Winter '24/ME 405 Lab/ME405-Term-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590170C0-624A-7647-B0AD-53FC4BC92C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F79A6C-6B29-5147-BB8C-923AB01C1FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="760" windowWidth="26960" windowHeight="17440" xr2:uid="{67320AA8-6281-8748-86BD-E46B7DC5E4AF}"/>
+    <workbookView xWindow="980" yWindow="760" windowWidth="23060" windowHeight="17440" xr2:uid="{67320AA8-6281-8748-86BD-E46B7DC5E4AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2606,7 +2606,7 @@
   <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data Plots.xlsx
+++ b/Data Plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliawolken/Library/Mobile Documents/com~apple~CloudDocs/SCHOOL/CAL POLY/CP QUARTERS/Poly Winter '24/ME 405 Lab/ME405-Term-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F79A6C-6B29-5147-BB8C-923AB01C1FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C96BA2-B8B7-1C41-9B5F-7A13E423B125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="760" windowWidth="23060" windowHeight="17440" xr2:uid="{67320AA8-6281-8748-86BD-E46B7DC5E4AF}"/>
   </bookViews>

--- a/Data Plots.xlsx
+++ b/Data Plots.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliawolken/Library/Mobile Documents/com~apple~CloudDocs/SCHOOL/CAL POLY/CP QUARTERS/Poly Winter '24/ME 405 Lab/ME405-Term-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andyjwaideh/Documents/Documents - Andy’s MacBook Pro (5)/Cal Poly Winter 2024/Cal poly/ME 405/Python Programs/ME405Lab/ME405-Term-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C96BA2-B8B7-1C41-9B5F-7A13E423B125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E8DBDA0-05AA-EE4D-9C63-EFF8A674D930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="760" windowWidth="23060" windowHeight="17440" xr2:uid="{67320AA8-6281-8748-86BD-E46B7DC5E4AF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{67320AA8-6281-8748-86BD-E46B7DC5E4AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Pressure</t>
   </si>
@@ -55,11 +55,20 @@
   <si>
     <t>Kp = 10</t>
   </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Kp = 10, p=16.5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -121,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -129,6 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,6 +171,38 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Pressure Vs. Time (Preliminary Testing)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1534,6 +1576,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1596,6 +1698,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pressure</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (psi)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1689,7 +1851,863 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pressure</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Vs. Time (Demo Day)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$E:$E</c:f>
+              <c:strCache>
+                <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>Test 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kp = 10, p=16.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Time </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1053</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1231</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1409</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1587</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1676</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1765</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1854</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2299</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2388</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2477</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2566</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2655</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2744</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2833</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2922</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3011</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3189</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3278</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3367</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3456</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3545</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3634</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3722</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3811</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4078</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4167</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4256</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4345</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4434</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4523</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4612</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4701</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4790</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4879</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4968</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5057</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5146</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5235</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5324</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5413</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F:$F</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0">
+                  <c:v>16.082609999999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0">
+                  <c:v>16.078040000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0">
+                  <c:v>16.018529999999998</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0">
+                  <c:v>15.785069999999999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0">
+                  <c:v>15.58365</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0">
+                  <c:v>15.44403</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0">
+                  <c:v>15.29068</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0">
+                  <c:v>15.203709999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0">
+                  <c:v>15.11444</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0">
+                  <c:v>15.045780000000001</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0">
+                  <c:v>14.99771</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0">
+                  <c:v>14.95651</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0">
+                  <c:v>14.933630000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0">
+                  <c:v>14.922180000000001</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0">
+                  <c:v>14.90616</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0">
+                  <c:v>14.880979999999999</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0">
+                  <c:v>14.869540000000001</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0">
+                  <c:v>14.869540000000001</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0">
+                  <c:v>14.858090000000001</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0">
+                  <c:v>14.83521</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0">
+                  <c:v>14.828340000000001</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0">
+                  <c:v>14.78256</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0">
+                  <c:v>14.723050000000001</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.0">
+                  <c:v>14.65897</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.0">
+                  <c:v>14.48959</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.0">
+                  <c:v>14.372859999999999</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.0">
+                  <c:v>14.237819999999999</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.0">
+                  <c:v>14.03641</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.0">
+                  <c:v>13.99521</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.0">
+                  <c:v>13.94257</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.0">
+                  <c:v>13.802949999999999</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.0">
+                  <c:v>13.75488</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.0">
+                  <c:v>13.72513</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.0">
+                  <c:v>13.61984</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.0">
+                  <c:v>13.555759999999999</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.0">
+                  <c:v>13.526</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.0">
+                  <c:v>13.418430000000001</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.0">
+                  <c:v>13.365780000000001</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.0">
+                  <c:v>13.306279999999999</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.0">
+                  <c:v>13.203279999999999</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.0">
+                  <c:v>13.12088</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.0">
+                  <c:v>13.004149999999999</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.0">
+                  <c:v>13.004149999999999</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.0">
+                  <c:v>13.004149999999999</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.0">
+                  <c:v>13.004149999999999</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.0">
+                  <c:v>13.004149999999999</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.0">
+                  <c:v>13.004149999999999</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.0">
+                  <c:v>13.004149999999999</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.0">
+                  <c:v>13.004149999999999</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.0">
+                  <c:v>13.004149999999999</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.0">
+                  <c:v>13.004149999999999</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.0">
+                  <c:v>13.004149999999999</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.0">
+                  <c:v>13.004149999999999</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.0">
+                  <c:v>13.004149999999999</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.0">
+                  <c:v>13.004149999999999</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.0">
+                  <c:v>13.004149999999999</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.0">
+                  <c:v>13.004149999999999</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.0">
+                  <c:v>13.004149999999999</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.0">
+                  <c:v>13.004149999999999</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.0">
+                  <c:v>13.004149999999999</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.0">
+                  <c:v>13.004149999999999</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.0">
+                  <c:v>13.004149999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F4E9-4C45-8810-D7BC2CBBB63C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="596425936"/>
+        <c:axId val="1161109728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="596425936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1161109728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1161109728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PRessure</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (psi)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="596425936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2245,20 +3263,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>112184</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>289984</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177802</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>302684</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>480484</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2278,6 +3812,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>309032</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12702</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>732366</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114302</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A2D4D3-7D50-B028-0444-FEDA2F2F9ED1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2603,18 +4173,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8091119-6192-0845-ACD3-5EE477BCCD31}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2623,16 +4194,24 @@
         <v>4</v>
       </c>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2645,8 +4224,14 @@
       <c r="D3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2656,8 +4241,14 @@
       <c r="D4">
         <v>14.71161</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>16.082609999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>44</v>
       </c>
@@ -2667,8 +4258,14 @@
       <c r="D5">
         <v>14.71161</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>74</v>
+      </c>
+      <c r="F5" s="3">
+        <v>16.078040000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>104</v>
       </c>
@@ -2678,8 +4275,14 @@
       <c r="D6">
         <v>14.71161</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>163</v>
+      </c>
+      <c r="F6" s="3">
+        <v>16.018529999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>164</v>
       </c>
@@ -2689,8 +4292,14 @@
       <c r="D7">
         <v>14.70703</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>252</v>
+      </c>
+      <c r="F7" s="3">
+        <v>15.785069999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>224</v>
       </c>
@@ -2700,8 +4309,14 @@
       <c r="D8">
         <v>14.70703</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>341</v>
+      </c>
+      <c r="F8" s="3">
+        <v>15.58365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>284</v>
       </c>
@@ -2711,8 +4326,14 @@
       <c r="D9">
         <v>14.71161</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>430</v>
+      </c>
+      <c r="F9" s="3">
+        <v>15.44403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>344</v>
       </c>
@@ -2722,8 +4343,14 @@
       <c r="D10">
         <v>14.723050000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>519</v>
+      </c>
+      <c r="F10" s="3">
+        <v>15.29068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>404</v>
       </c>
@@ -2733,8 +4360,14 @@
       <c r="D11">
         <v>14.75281</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>608</v>
+      </c>
+      <c r="F11" s="3">
+        <v>15.203709999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>464</v>
       </c>
@@ -2744,8 +4377,14 @@
       <c r="D12">
         <v>14.81232</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>697</v>
+      </c>
+      <c r="F12" s="3">
+        <v>15.11444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>524</v>
       </c>
@@ -2755,8 +4394,14 @@
       <c r="D13">
         <v>14.869540000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>786</v>
+      </c>
+      <c r="F13" s="3">
+        <v>15.045780000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>584</v>
       </c>
@@ -2766,8 +4411,14 @@
       <c r="D14">
         <v>14.94049</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>875</v>
+      </c>
+      <c r="F14" s="3">
+        <v>14.99771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>644</v>
       </c>
@@ -2777,8 +4428,14 @@
       <c r="D15">
         <v>15.00916</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>964</v>
+      </c>
+      <c r="F15" s="3">
+        <v>14.95651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>704</v>
       </c>
@@ -2788,8 +4445,14 @@
       <c r="D16">
         <v>15.0618</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>1053</v>
+      </c>
+      <c r="F16" s="3">
+        <v>14.933630000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>764</v>
       </c>
@@ -2799,8 +4462,14 @@
       <c r="D17">
         <v>15.12589</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>1142</v>
+      </c>
+      <c r="F17" s="3">
+        <v>14.922180000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>824</v>
       </c>
@@ -2810,8 +4479,14 @@
       <c r="D18">
         <v>15.1854</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>1231</v>
+      </c>
+      <c r="F18" s="3">
+        <v>14.90616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>884</v>
       </c>
@@ -2821,8 +4496,14 @@
       <c r="D19">
         <v>15.256349999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>1320</v>
+      </c>
+      <c r="F19" s="3">
+        <v>14.880979999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>944</v>
       </c>
@@ -2832,8 +4513,14 @@
       <c r="D20">
         <v>15.325010000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>1409</v>
+      </c>
+      <c r="F20" s="3">
+        <v>14.869540000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1004</v>
       </c>
@@ -2843,8 +4530,14 @@
       <c r="D21">
         <v>15.39597</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>1498</v>
+      </c>
+      <c r="F21" s="3">
+        <v>14.869540000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1064</v>
       </c>
@@ -2854,8 +4547,14 @@
       <c r="D22">
         <v>15.44403</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>1587</v>
+      </c>
+      <c r="F22" s="3">
+        <v>14.858090000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1124</v>
       </c>
@@ -2865,8 +4564,14 @@
       <c r="D23">
         <v>15.48981</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>1676</v>
+      </c>
+      <c r="F23" s="3">
+        <v>14.83521</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1184</v>
       </c>
@@ -2876,8 +4581,14 @@
       <c r="D24">
         <v>15.53787</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>1765</v>
+      </c>
+      <c r="F24" s="3">
+        <v>14.828340000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1244</v>
       </c>
@@ -2887,8 +4598,14 @@
       <c r="D25">
         <v>15.57221</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>1854</v>
+      </c>
+      <c r="F25" s="3">
+        <v>14.78256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1304</v>
       </c>
@@ -2898,8 +4615,14 @@
       <c r="D26">
         <v>15.617979999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>1943</v>
+      </c>
+      <c r="F26" s="3">
+        <v>14.723050000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1364</v>
       </c>
@@ -2909,8 +4632,14 @@
       <c r="D27">
         <v>15.6546</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>2032</v>
+      </c>
+      <c r="F27" s="3">
+        <v>14.65897</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1427</v>
       </c>
@@ -2920,8 +4649,14 @@
       <c r="D28">
         <v>15.70725</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>2121</v>
+      </c>
+      <c r="F28" s="3">
+        <v>14.48959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1484</v>
       </c>
@@ -2931,8 +4666,14 @@
       <c r="D29">
         <v>15.7782</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>2210</v>
+      </c>
+      <c r="F29" s="3">
+        <v>14.372859999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1544</v>
       </c>
@@ -2942,8 +4683,14 @@
       <c r="D30">
         <v>15.84915</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>2299</v>
+      </c>
+      <c r="F30" s="3">
+        <v>14.237819999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1604</v>
       </c>
@@ -2953,8 +4700,14 @@
       <c r="D31">
         <v>15.92468</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>2388</v>
+      </c>
+      <c r="F31" s="3">
+        <v>14.03641</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1664</v>
       </c>
@@ -2964,8 +4717,14 @@
       <c r="D32">
         <v>16.007079999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>2477</v>
+      </c>
+      <c r="F32" s="3">
+        <v>13.99521</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1724</v>
       </c>
@@ -2975,8 +4734,14 @@
       <c r="D33">
         <v>16.094059999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>2566</v>
+      </c>
+      <c r="F33" s="3">
+        <v>13.94257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1784</v>
       </c>
@@ -2986,8 +4751,14 @@
       <c r="D34">
         <v>16.176449999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>2655</v>
+      </c>
+      <c r="F34" s="3">
+        <v>13.802949999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1844</v>
       </c>
@@ -2997,8 +4768,14 @@
       <c r="D35">
         <v>16.265720000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>2744</v>
+      </c>
+      <c r="F35" s="3">
+        <v>13.75488</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1904</v>
       </c>
@@ -3008,8 +4785,14 @@
       <c r="D36">
         <v>16.348120000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>2833</v>
+      </c>
+      <c r="F36" s="3">
+        <v>13.72513</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1964</v>
       </c>
@@ -3019,8 +4802,14 @@
       <c r="D37">
         <v>16.4328</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>2922</v>
+      </c>
+      <c r="F37" s="3">
+        <v>13.61984</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2024</v>
       </c>
@@ -3030,8 +4819,14 @@
       <c r="D38">
         <v>16.517489999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>3011</v>
+      </c>
+      <c r="F38" s="3">
+        <v>13.555759999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2084</v>
       </c>
@@ -3041,8 +4836,14 @@
       <c r="D39">
         <v>16.528929999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>3100</v>
+      </c>
+      <c r="F39" s="3">
+        <v>13.526</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2144</v>
       </c>
@@ -3052,8 +4853,14 @@
       <c r="D40">
         <v>16.435089999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>3189</v>
+      </c>
+      <c r="F40" s="3">
+        <v>13.418430000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2204</v>
       </c>
@@ -3063,8 +4870,14 @@
       <c r="D41">
         <v>16.40991</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>3278</v>
+      </c>
+      <c r="F41" s="3">
+        <v>13.365780000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2264</v>
       </c>
@@ -3074,8 +4887,14 @@
       <c r="D42">
         <v>16.476289999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>3367</v>
+      </c>
+      <c r="F42" s="3">
+        <v>13.306279999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2324</v>
       </c>
@@ -3085,8 +4904,14 @@
       <c r="D43">
         <v>16.558689999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>3456</v>
+      </c>
+      <c r="F43" s="3">
+        <v>13.203279999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2384</v>
       </c>
@@ -3096,8 +4921,14 @@
       <c r="D44">
         <v>16.565550000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>3545</v>
+      </c>
+      <c r="F44" s="3">
+        <v>13.12088</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2444</v>
       </c>
@@ -3107,8 +4938,14 @@
       <c r="D45">
         <v>16.460270000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>3634</v>
+      </c>
+      <c r="F45" s="3">
+        <v>13.004149999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2504</v>
       </c>
@@ -3118,8 +4955,14 @@
       <c r="D46">
         <v>16.425940000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>3722</v>
+      </c>
+      <c r="F46" s="3">
+        <v>13.004149999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2564</v>
       </c>
@@ -3129,8 +4972,14 @@
       <c r="D47">
         <v>16.506039999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>3811</v>
+      </c>
+      <c r="F47" s="3">
+        <v>13.004149999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2624</v>
       </c>
@@ -3140,8 +4989,14 @@
       <c r="D48">
         <v>16.528929999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>3900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>13.004149999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2684</v>
       </c>
@@ -3151,8 +5006,14 @@
       <c r="D49">
         <v>16.490020000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>3989</v>
+      </c>
+      <c r="F49" s="3">
+        <v>13.004149999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2744</v>
       </c>
@@ -3162,8 +5023,14 @@
       <c r="D50">
         <v>16.453399999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>4078</v>
+      </c>
+      <c r="F50" s="3">
+        <v>13.004149999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2804</v>
       </c>
@@ -3173,8 +5040,14 @@
       <c r="D51">
         <v>16.490020000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>4167</v>
+      </c>
+      <c r="F51" s="3">
+        <v>13.004149999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2864</v>
       </c>
@@ -3184,8 +5057,14 @@
       <c r="D52">
         <v>16.542670000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>4256</v>
+      </c>
+      <c r="F52" s="3">
+        <v>13.004149999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2928</v>
       </c>
@@ -3195,8 +5074,14 @@
       <c r="D53">
         <v>16.506039999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>4345</v>
+      </c>
+      <c r="F53" s="3">
+        <v>13.004149999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2984</v>
       </c>
@@ -3206,8 +5091,14 @@
       <c r="D54">
         <v>16.448820000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>4434</v>
+      </c>
+      <c r="F54" s="3">
+        <v>13.004149999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3044</v>
       </c>
@@ -3217,8 +5108,14 @@
       <c r="D55">
         <v>16.460270000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>4523</v>
+      </c>
+      <c r="F55" s="3">
+        <v>13.004149999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3104</v>
       </c>
@@ -3228,8 +5125,14 @@
       <c r="D56">
         <v>16.542670000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>4612</v>
+      </c>
+      <c r="F56" s="3">
+        <v>13.004149999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3164</v>
       </c>
@@ -3239,8 +5142,14 @@
       <c r="D57">
         <v>16.558689999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>4701</v>
+      </c>
+      <c r="F57" s="3">
+        <v>13.004149999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3224</v>
       </c>
@@ -3250,8 +5159,14 @@
       <c r="D58">
         <v>16.471710000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>4790</v>
+      </c>
+      <c r="F58" s="3">
+        <v>13.004149999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3284</v>
       </c>
@@ -3261,8 +5176,14 @@
       <c r="D59">
         <v>16.435089999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>4879</v>
+      </c>
+      <c r="F59" s="3">
+        <v>13.004149999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3344</v>
       </c>
@@ -3272,8 +5193,14 @@
       <c r="D60">
         <v>16.506039999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>4968</v>
+      </c>
+      <c r="F60" s="3">
+        <v>13.004149999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3404</v>
       </c>
@@ -3283,8 +5210,14 @@
       <c r="D61">
         <v>16.535799999999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>5057</v>
+      </c>
+      <c r="F61" s="3">
+        <v>13.004149999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3464</v>
       </c>
@@ -3294,8 +5227,14 @@
       <c r="D62">
         <v>16.506039999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>5146</v>
+      </c>
+      <c r="F62" s="3">
+        <v>13.004149999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3524</v>
       </c>
@@ -3305,8 +5244,14 @@
       <c r="D63">
         <v>16.441960000000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>5235</v>
+      </c>
+      <c r="F63" s="3">
+        <v>13.004149999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3584</v>
       </c>
@@ -3316,8 +5261,14 @@
       <c r="D64">
         <v>16.453399999999998</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>5324</v>
+      </c>
+      <c r="F64" s="3">
+        <v>13.004149999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3644</v>
       </c>
@@ -3327,8 +5278,14 @@
       <c r="D65">
         <v>16.542670000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>5413</v>
+      </c>
+      <c r="F65" s="3">
+        <v>13.004149999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3704</v>
       </c>
@@ -3339,7 +5296,7 @@
         <v>16.542670000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3764</v>
       </c>
@@ -3350,7 +5307,7 @@
         <v>16.464849999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3824</v>
       </c>
@@ -3361,7 +5318,7 @@
         <v>16.435089999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3884</v>
       </c>
@@ -3372,7 +5329,7 @@
         <v>16.494599999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3944</v>
       </c>
@@ -3383,7 +5340,7 @@
         <v>16.547239999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4004</v>
       </c>
@@ -3394,7 +5351,7 @@
         <v>16.535799999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4064</v>
       </c>
@@ -3405,7 +5362,7 @@
         <v>16.441960000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4124</v>
       </c>
@@ -3416,7 +5373,7 @@
         <v>16.42136</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>4184</v>
       </c>
@@ -3427,7 +5384,7 @@
         <v>16.471710000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4244</v>
       </c>
@@ -3438,7 +5395,7 @@
         <v>16.558689999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4304</v>
       </c>
@@ -3449,7 +5406,7 @@
         <v>16.570129999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4364</v>
       </c>
@@ -3460,7 +5417,7 @@
         <v>16.512910000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4429</v>
       </c>
@@ -3471,7 +5428,7 @@
         <v>16.42136</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4484</v>
       </c>
@@ -3482,7 +5439,7 @@
         <v>16.414490000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4544</v>
       </c>
@@ -3747,9 +5704,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Data Plots.xlsx
+++ b/Data Plots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andyjwaideh/Documents/Documents - Andy’s MacBook Pro (5)/Cal Poly Winter 2024/Cal poly/ME 405/Python Programs/ME405Lab/ME405-Term-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliawolken/Library/Mobile Documents/com~apple~CloudDocs/SCHOOL/CAL POLY/CP QUARTERS/Poly Winter '24/ME 405 Lab/ME405-Term-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E8DBDA0-05AA-EE4D-9C63-EFF8A674D930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E69E6D-EF42-9E46-AA90-869043EECC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{67320AA8-6281-8748-86BD-E46B7DC5E4AF}"/>
+    <workbookView xWindow="0" yWindow="1300" windowWidth="30240" windowHeight="17180" xr2:uid="{67320AA8-6281-8748-86BD-E46B7DC5E4AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Pressure</t>
   </si>
@@ -59,7 +59,10 @@
     <t>Test 3</t>
   </si>
   <si>
-    <t>Kp = 10, p=16.5</t>
+    <t>Test 4</t>
+  </si>
+  <si>
+    <t>Kp = 5, p=13</t>
   </si>
 </sst>
 </file>
@@ -67,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -132,13 +135,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1965,7 +1968,7 @@
                   <c:v>Test 3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Kp = 10, p=16.5</c:v>
+                  <c:v>Kp = 5, p=13</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Time </c:v>
@@ -3783,16 +3786,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>289984</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>177802</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44451</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>67736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>480484</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>234951</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>76202</xdr:rowOff>
+      <xdr:rowOff>169336</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3819,16 +3822,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>309032</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>12702</xdr:rowOff>
+      <xdr:rowOff>46568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>732366</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>486833</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>114302</xdr:rowOff>
+      <xdr:rowOff>148168</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4173,33 +4176,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8091119-6192-0845-ACD3-5EE477BCCD31}">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1" s="3"/>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4207,11 +4214,11 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4230,8 +4237,14 @@
       <c r="F3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4244,11 +4257,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>16.082609999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>44</v>
       </c>
@@ -4261,11 +4274,11 @@
       <c r="E5">
         <v>74</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>16.078040000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>104</v>
       </c>
@@ -4278,11 +4291,11 @@
       <c r="E6">
         <v>163</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>16.018529999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>164</v>
       </c>
@@ -4295,11 +4308,11 @@
       <c r="E7">
         <v>252</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>15.785069999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>224</v>
       </c>
@@ -4312,11 +4325,11 @@
       <c r="E8">
         <v>341</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>15.58365</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>284</v>
       </c>
@@ -4329,11 +4342,11 @@
       <c r="E9">
         <v>430</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>15.44403</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>344</v>
       </c>
@@ -4346,11 +4359,11 @@
       <c r="E10">
         <v>519</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>15.29068</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>404</v>
       </c>
@@ -4363,11 +4376,11 @@
       <c r="E11">
         <v>608</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>15.203709999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>464</v>
       </c>
@@ -4380,11 +4393,11 @@
       <c r="E12">
         <v>697</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>15.11444</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>524</v>
       </c>
@@ -4397,11 +4410,11 @@
       <c r="E13">
         <v>786</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>15.045780000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>584</v>
       </c>
@@ -4414,11 +4427,11 @@
       <c r="E14">
         <v>875</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>14.99771</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>644</v>
       </c>
@@ -4431,11 +4444,11 @@
       <c r="E15">
         <v>964</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>14.95651</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>704</v>
       </c>
@@ -4448,7 +4461,7 @@
       <c r="E16">
         <v>1053</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>14.933630000000001</v>
       </c>
     </row>
@@ -4465,7 +4478,7 @@
       <c r="E17">
         <v>1142</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>14.922180000000001</v>
       </c>
     </row>
@@ -4482,7 +4495,7 @@
       <c r="E18">
         <v>1231</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>14.90616</v>
       </c>
     </row>
@@ -4499,7 +4512,7 @@
       <c r="E19">
         <v>1320</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>14.880979999999999</v>
       </c>
     </row>
@@ -4516,7 +4529,7 @@
       <c r="E20">
         <v>1409</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>14.869540000000001</v>
       </c>
     </row>
@@ -4533,7 +4546,7 @@
       <c r="E21">
         <v>1498</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>14.869540000000001</v>
       </c>
     </row>
@@ -4550,7 +4563,7 @@
       <c r="E22">
         <v>1587</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>14.858090000000001</v>
       </c>
     </row>
@@ -4567,7 +4580,7 @@
       <c r="E23">
         <v>1676</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>14.83521</v>
       </c>
     </row>
@@ -4584,7 +4597,7 @@
       <c r="E24">
         <v>1765</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>14.828340000000001</v>
       </c>
     </row>
@@ -4601,7 +4614,7 @@
       <c r="E25">
         <v>1854</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="1">
         <v>14.78256</v>
       </c>
     </row>
@@ -4618,7 +4631,7 @@
       <c r="E26">
         <v>1943</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="1">
         <v>14.723050000000001</v>
       </c>
     </row>
@@ -4635,7 +4648,7 @@
       <c r="E27">
         <v>2032</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="1">
         <v>14.65897</v>
       </c>
     </row>
@@ -4652,7 +4665,7 @@
       <c r="E28">
         <v>2121</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="1">
         <v>14.48959</v>
       </c>
     </row>
@@ -4669,7 +4682,7 @@
       <c r="E29">
         <v>2210</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="1">
         <v>14.372859999999999</v>
       </c>
     </row>
@@ -4686,7 +4699,7 @@
       <c r="E30">
         <v>2299</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="1">
         <v>14.237819999999999</v>
       </c>
     </row>
@@ -4703,7 +4716,7 @@
       <c r="E31">
         <v>2388</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="1">
         <v>14.03641</v>
       </c>
     </row>
@@ -4720,7 +4733,7 @@
       <c r="E32">
         <v>2477</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="1">
         <v>13.99521</v>
       </c>
     </row>
@@ -4737,7 +4750,7 @@
       <c r="E33">
         <v>2566</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="1">
         <v>13.94257</v>
       </c>
     </row>
@@ -4754,7 +4767,7 @@
       <c r="E34">
         <v>2655</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="1">
         <v>13.802949999999999</v>
       </c>
     </row>
@@ -4771,7 +4784,7 @@
       <c r="E35">
         <v>2744</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="1">
         <v>13.75488</v>
       </c>
     </row>
@@ -4788,7 +4801,7 @@
       <c r="E36">
         <v>2833</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="1">
         <v>13.72513</v>
       </c>
     </row>
@@ -4805,7 +4818,7 @@
       <c r="E37">
         <v>2922</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="1">
         <v>13.61984</v>
       </c>
     </row>
@@ -4822,7 +4835,7 @@
       <c r="E38">
         <v>3011</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="1">
         <v>13.555759999999999</v>
       </c>
     </row>
@@ -4839,7 +4852,7 @@
       <c r="E39">
         <v>3100</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="1">
         <v>13.526</v>
       </c>
     </row>
@@ -4856,7 +4869,7 @@
       <c r="E40">
         <v>3189</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="1">
         <v>13.418430000000001</v>
       </c>
     </row>
@@ -4873,7 +4886,7 @@
       <c r="E41">
         <v>3278</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="1">
         <v>13.365780000000001</v>
       </c>
     </row>
@@ -4890,7 +4903,7 @@
       <c r="E42">
         <v>3367</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="1">
         <v>13.306279999999999</v>
       </c>
     </row>
@@ -4907,7 +4920,7 @@
       <c r="E43">
         <v>3456</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="1">
         <v>13.203279999999999</v>
       </c>
     </row>
@@ -4924,7 +4937,7 @@
       <c r="E44">
         <v>3545</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="1">
         <v>13.12088</v>
       </c>
     </row>
@@ -4941,7 +4954,7 @@
       <c r="E45">
         <v>3634</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="1">
         <v>13.004149999999999</v>
       </c>
     </row>
@@ -4958,7 +4971,7 @@
       <c r="E46">
         <v>3722</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="1">
         <v>13.004149999999999</v>
       </c>
     </row>
@@ -4975,7 +4988,7 @@
       <c r="E47">
         <v>3811</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="1">
         <v>13.004149999999999</v>
       </c>
     </row>
@@ -4992,7 +5005,7 @@
       <c r="E48">
         <v>3900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="1">
         <v>13.004149999999999</v>
       </c>
     </row>
@@ -5009,7 +5022,7 @@
       <c r="E49">
         <v>3989</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="1">
         <v>13.004149999999999</v>
       </c>
     </row>
@@ -5026,7 +5039,7 @@
       <c r="E50">
         <v>4078</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="1">
         <v>13.004149999999999</v>
       </c>
     </row>
@@ -5043,7 +5056,7 @@
       <c r="E51">
         <v>4167</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="1">
         <v>13.004149999999999</v>
       </c>
     </row>
@@ -5060,7 +5073,7 @@
       <c r="E52">
         <v>4256</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="1">
         <v>13.004149999999999</v>
       </c>
     </row>
@@ -5077,7 +5090,7 @@
       <c r="E53">
         <v>4345</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="1">
         <v>13.004149999999999</v>
       </c>
     </row>
@@ -5094,7 +5107,7 @@
       <c r="E54">
         <v>4434</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="1">
         <v>13.004149999999999</v>
       </c>
     </row>
@@ -5111,7 +5124,7 @@
       <c r="E55">
         <v>4523</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="1">
         <v>13.004149999999999</v>
       </c>
     </row>
@@ -5128,7 +5141,7 @@
       <c r="E56">
         <v>4612</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="1">
         <v>13.004149999999999</v>
       </c>
     </row>
@@ -5145,7 +5158,7 @@
       <c r="E57">
         <v>4701</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="1">
         <v>13.004149999999999</v>
       </c>
     </row>
@@ -5162,7 +5175,7 @@
       <c r="E58">
         <v>4790</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="1">
         <v>13.004149999999999</v>
       </c>
     </row>
@@ -5179,7 +5192,7 @@
       <c r="E59">
         <v>4879</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="1">
         <v>13.004149999999999</v>
       </c>
     </row>
@@ -5196,7 +5209,7 @@
       <c r="E60">
         <v>4968</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="1">
         <v>13.004149999999999</v>
       </c>
     </row>
@@ -5213,7 +5226,7 @@
       <c r="E61">
         <v>5057</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="1">
         <v>13.004149999999999</v>
       </c>
     </row>
@@ -5230,7 +5243,7 @@
       <c r="E62">
         <v>5146</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="1">
         <v>13.004149999999999</v>
       </c>
     </row>
@@ -5247,7 +5260,7 @@
       <c r="E63">
         <v>5235</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="1">
         <v>13.004149999999999</v>
       </c>
     </row>
@@ -5264,7 +5277,7 @@
       <c r="E64">
         <v>5324</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="1">
         <v>13.004149999999999</v>
       </c>
     </row>
@@ -5281,7 +5294,7 @@
       <c r="E65">
         <v>5413</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="1">
         <v>13.004149999999999</v>
       </c>
     </row>
@@ -5704,10 +5717,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Data Plots.xlsx
+++ b/Data Plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliawolken/Library/Mobile Documents/com~apple~CloudDocs/SCHOOL/CAL POLY/CP QUARTERS/Poly Winter '24/ME 405 Lab/ME405-Term-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E69E6D-EF42-9E46-AA90-869043EECC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EC855F-3BE2-7F46-B356-AF80B8F12A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1300" windowWidth="30240" windowHeight="17180" xr2:uid="{67320AA8-6281-8748-86BD-E46B7DC5E4AF}"/>
+    <workbookView xWindow="-420" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{67320AA8-6281-8748-86BD-E46B7DC5E4AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1875,7 +1875,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1889,13 +1889,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Pressure</a:t>
+              <a:t>Pressure Vs. Time (Demo Day)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Vs. Time (Demo Day)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1912,7 +1907,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2367,6 +2362,47 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1BC2-9842-93E3-951544B32170}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2406,7 +2442,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2438,7 +2474,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2476,7 +2512,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2524,7 +2560,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2538,13 +2574,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>PRessure</a:t>
+                  <a:t>PRessure (psi)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (psi)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2561,7 +2592,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2599,7 +2630,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2657,7 +2688,1489 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pressure Vs. Time (Demo Day)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$179</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="176"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1034</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1136</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1185</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1284</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1485</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1585</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1635</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1685</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1737</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1785</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1835</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1885</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2134</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2184</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2234</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2284</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2335</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2384</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2434</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2483</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2534</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2583</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2635</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2684</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2734</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2784</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2834</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2884</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3935</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3985</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4035</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4084</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4137</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4185</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4235</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4285</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4335</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4385</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4437</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4485</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4535</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4585</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4635</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4684</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4737</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4785</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4835</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4885</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4935</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4985</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5037</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5085</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5135</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5185</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5235</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5285</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5337</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5385</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5435</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5485</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5535</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5585</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5637</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5685</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5735</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5785</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5835</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5885</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5937</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5937</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5985</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5985</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6035</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6035</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6085</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6135</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6185</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6237</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6285</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6335</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6335</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6385</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6435</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6485</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6537</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6585</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6635</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6685</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6735</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6785</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6837</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6837</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6885</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6885</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6935</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6935</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6985</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6985</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7035</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>7035</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>7085</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7085</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>7137</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7137</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7185</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7185</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7235</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7285</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7335</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7385</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7437</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7485</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7535</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7585</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7635</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7685</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7737</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7785</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7835</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7835</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7885</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7935</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7985</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>8037</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>8085</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>8135</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>8185</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>8235</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8285</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>8337</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>8385</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8435</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8485</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8485</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8535</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8535</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8585</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8585</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8637</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8638</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8685</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8685</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8735</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8735</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>8785</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$205</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="202"/>
+                <c:pt idx="0">
+                  <c:v>14.52393</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.52393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.52393</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.51248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.51248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.52393</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.52393</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.54224</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.652100000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.79401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.92905</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.0206</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.139620000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.26093</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.366210000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.471500000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.57907</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.68436</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.79651</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.9018</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.018529999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.119230000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.206209999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.348120000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.453399999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.565550000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.670839999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16.764679999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.892849999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.01416</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.112580000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.217870000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.323149999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.433019999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.568059999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.671050000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17.776340000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.888490000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18.002929999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>18.002929999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18.002929999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18.002929999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18.002929999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18.002929999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18.002929999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.002929999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.002929999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.002929999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18.002929999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18.002929999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18.002929999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>18.002929999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18.002929999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>18.002929999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18.002929999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18.002929999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>18.002929999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18.002929999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18.002929999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>17.693940000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>17.682500000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>17.63672</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>17.485659999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>17.316289999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>17.153780000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17.01416</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.888280000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16.741790000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.595310000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.425940000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16.322939999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16.199339999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16.078040000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15.95444</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15.84229</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15.75531</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15.647740000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15.54932</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.45548</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>15.38452</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>15.32044</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>15.26779</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>15.22659</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>15.192259999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>15.16708</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>15.139620000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>15.103</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>15.057219999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>15.00916</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14.933630000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>14.86496</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>14.787140000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>14.70703</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14.63608</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>14.55368</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>14.478149999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>14.466710000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>14.48273</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>14.50104</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>14.51248</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>14.51248</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>14.519349999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>14.519349999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>14.53079</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>14.53079</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>14.546810000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>14.560549999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>14.57199</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>14.57657</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>14.57199</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>14.52393</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>14.52393</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>14.466710000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>14.466710000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>14.478149999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>14.48959</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>14.49417</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>14.49417</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>14.50562</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>14.50562</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>14.50562</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>14.519349999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>14.519349999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>14.52393</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>14.52393</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>14.519349999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>14.519349999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>14.52393</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>14.52393</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>14.53537</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>14.53537</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>14.53537</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>14.53537</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>14.53079</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>14.53079</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>14.53537</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>14.53537</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>14.54224</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>14.546810000000001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>14.546810000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14.546810000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.55368</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.55368</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.546810000000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14.546810000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14.546810000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.55368</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14.560549999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14.55368</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14.53079</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>14.53079</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>14.50562</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>14.49417</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>14.50104</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>14.50104</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>14.50562</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>14.50562</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>14.50104</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>14.50104</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>14.50562</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>14.50562</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>14.50104</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>14.50562</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>14.51248</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>14.51248</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>14.51248</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>14.51248</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>14.51248</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>14.51248</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>14.51248</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>14.51248</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>14.51248</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>14.51248</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>14.519349999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>14.519349999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>14.51248</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>14.51248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B17-624B-98A9-2CC5E5097D62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="596425936"/>
+        <c:axId val="1161109728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="596425936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1161109728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1161109728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PRessure (psi)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="596425936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2711,6 +4224,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3782,6 +5335,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3823,15 +5892,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:colOff>80434</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>46568</xdr:rowOff>
+      <xdr:rowOff>80434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>486833</xdr:colOff>
+      <xdr:colOff>503767</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>148168</xdr:rowOff>
+      <xdr:rowOff>182034</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3851,6 +5920,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>592668</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>186268</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84322381-3A42-624F-9F45-9116773A2243}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4176,10 +6283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8091119-6192-0845-ACD3-5EE477BCCD31}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:H180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4260,6 +6367,12 @@
       <c r="F4" s="1">
         <v>16.082609999999999</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>14.52393</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -4277,6 +6390,12 @@
       <c r="F5" s="1">
         <v>16.078040000000001</v>
       </c>
+      <c r="G5">
+        <v>34</v>
+      </c>
+      <c r="H5">
+        <v>14.52393</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -4294,6 +6413,12 @@
       <c r="F6" s="1">
         <v>16.018529999999998</v>
       </c>
+      <c r="G6">
+        <v>85</v>
+      </c>
+      <c r="H6">
+        <v>14.52393</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -4311,6 +6436,12 @@
       <c r="F7" s="1">
         <v>15.785069999999999</v>
       </c>
+      <c r="G7">
+        <v>134</v>
+      </c>
+      <c r="H7">
+        <v>14.51248</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -4328,6 +6459,12 @@
       <c r="F8" s="1">
         <v>15.58365</v>
       </c>
+      <c r="G8">
+        <v>184</v>
+      </c>
+      <c r="H8">
+        <v>14.51248</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -4345,6 +6482,12 @@
       <c r="F9" s="1">
         <v>15.44403</v>
       </c>
+      <c r="G9">
+        <v>236</v>
+      </c>
+      <c r="H9">
+        <v>14.52393</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -4362,6 +6505,12 @@
       <c r="F10" s="1">
         <v>15.29068</v>
       </c>
+      <c r="G10">
+        <v>284</v>
+      </c>
+      <c r="H10">
+        <v>14.52393</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -4379,6 +6528,12 @@
       <c r="F11" s="1">
         <v>15.203709999999999</v>
       </c>
+      <c r="G11">
+        <v>334</v>
+      </c>
+      <c r="H11">
+        <v>14.54224</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -4396,6 +6551,12 @@
       <c r="F12" s="1">
         <v>15.11444</v>
       </c>
+      <c r="G12">
+        <v>384</v>
+      </c>
+      <c r="H12">
+        <v>14.652100000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -4413,6 +6574,12 @@
       <c r="F13" s="1">
         <v>15.045780000000001</v>
       </c>
+      <c r="G13">
+        <v>435</v>
+      </c>
+      <c r="H13">
+        <v>14.79401</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -4430,6 +6597,12 @@
       <c r="F14" s="1">
         <v>14.99771</v>
       </c>
+      <c r="G14">
+        <v>484</v>
+      </c>
+      <c r="H14">
+        <v>14.92905</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -4447,6 +6620,12 @@
       <c r="F15" s="1">
         <v>14.95651</v>
       </c>
+      <c r="G15">
+        <v>536</v>
+      </c>
+      <c r="H15">
+        <v>15.0206</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -4464,8 +6643,14 @@
       <c r="F16" s="1">
         <v>14.933630000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>584</v>
+      </c>
+      <c r="H16">
+        <v>15.139620000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>764</v>
       </c>
@@ -4481,8 +6666,14 @@
       <c r="F17" s="1">
         <v>14.922180000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>635</v>
+      </c>
+      <c r="H17">
+        <v>15.26093</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>824</v>
       </c>
@@ -4498,8 +6689,14 @@
       <c r="F18" s="1">
         <v>14.90616</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>685</v>
+      </c>
+      <c r="H18">
+        <v>15.366210000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>884</v>
       </c>
@@ -4515,8 +6712,14 @@
       <c r="F19" s="1">
         <v>14.880979999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>735</v>
+      </c>
+      <c r="H19">
+        <v>15.471500000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>944</v>
       </c>
@@ -4532,8 +6735,14 @@
       <c r="F20" s="1">
         <v>14.869540000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>784</v>
+      </c>
+      <c r="H20">
+        <v>15.57907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1004</v>
       </c>
@@ -4549,8 +6758,14 @@
       <c r="F21" s="1">
         <v>14.869540000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>836</v>
+      </c>
+      <c r="H21">
+        <v>15.68436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1064</v>
       </c>
@@ -4566,8 +6781,14 @@
       <c r="F22" s="1">
         <v>14.858090000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>884</v>
+      </c>
+      <c r="H22">
+        <v>15.79651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1124</v>
       </c>
@@ -4583,8 +6804,14 @@
       <c r="F23" s="1">
         <v>14.83521</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>935</v>
+      </c>
+      <c r="H23">
+        <v>15.9018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1184</v>
       </c>
@@ -4600,8 +6827,14 @@
       <c r="F24" s="1">
         <v>14.828340000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>985</v>
+      </c>
+      <c r="H24">
+        <v>16.018529999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1244</v>
       </c>
@@ -4617,8 +6850,14 @@
       <c r="F25" s="1">
         <v>14.78256</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>1034</v>
+      </c>
+      <c r="H25">
+        <v>16.119230000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1304</v>
       </c>
@@ -4634,8 +6873,14 @@
       <c r="F26" s="1">
         <v>14.723050000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>1085</v>
+      </c>
+      <c r="H26">
+        <v>16.206209999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1364</v>
       </c>
@@ -4651,8 +6896,14 @@
       <c r="F27" s="1">
         <v>14.65897</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>1136</v>
+      </c>
+      <c r="H27">
+        <v>16.348120000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1427</v>
       </c>
@@ -4668,8 +6919,14 @@
       <c r="F28" s="1">
         <v>14.48959</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>1185</v>
+      </c>
+      <c r="H28">
+        <v>16.453399999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1484</v>
       </c>
@@ -4685,8 +6942,14 @@
       <c r="F29" s="1">
         <v>14.372859999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>1234</v>
+      </c>
+      <c r="H29">
+        <v>16.565550000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1544</v>
       </c>
@@ -4702,8 +6965,14 @@
       <c r="F30" s="1">
         <v>14.237819999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>1284</v>
+      </c>
+      <c r="H30">
+        <v>16.670839999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1604</v>
       </c>
@@ -4719,8 +6988,14 @@
       <c r="F31" s="1">
         <v>14.03641</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>1334</v>
+      </c>
+      <c r="H31">
+        <v>16.764679999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1664</v>
       </c>
@@ -4736,8 +7011,14 @@
       <c r="F32" s="1">
         <v>13.99521</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>1385</v>
+      </c>
+      <c r="H32">
+        <v>16.892849999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1724</v>
       </c>
@@ -4753,8 +7034,14 @@
       <c r="F33" s="1">
         <v>13.94257</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>1436</v>
+      </c>
+      <c r="H33">
+        <v>17.01416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1784</v>
       </c>
@@ -4770,8 +7057,14 @@
       <c r="F34" s="1">
         <v>13.802949999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>1485</v>
+      </c>
+      <c r="H34">
+        <v>17.112580000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1844</v>
       </c>
@@ -4787,8 +7080,14 @@
       <c r="F35" s="1">
         <v>13.75488</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>1535</v>
+      </c>
+      <c r="H35">
+        <v>17.217870000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1904</v>
       </c>
@@ -4804,8 +7103,14 @@
       <c r="F36" s="1">
         <v>13.72513</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>1585</v>
+      </c>
+      <c r="H36">
+        <v>17.323149999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1964</v>
       </c>
@@ -4821,8 +7126,14 @@
       <c r="F37" s="1">
         <v>13.61984</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>1635</v>
+      </c>
+      <c r="H37">
+        <v>17.433019999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2024</v>
       </c>
@@ -4838,8 +7149,14 @@
       <c r="F38" s="1">
         <v>13.555759999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>1685</v>
+      </c>
+      <c r="H38">
+        <v>17.568059999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2084</v>
       </c>
@@ -4855,8 +7172,14 @@
       <c r="F39" s="1">
         <v>13.526</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>1737</v>
+      </c>
+      <c r="H39">
+        <v>17.671050000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2144</v>
       </c>
@@ -4872,8 +7195,14 @@
       <c r="F40" s="1">
         <v>13.418430000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>1785</v>
+      </c>
+      <c r="H40">
+        <v>17.776340000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2204</v>
       </c>
@@ -4889,8 +7218,14 @@
       <c r="F41" s="1">
         <v>13.365780000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>1835</v>
+      </c>
+      <c r="H41">
+        <v>17.888490000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2264</v>
       </c>
@@ -4906,8 +7241,14 @@
       <c r="F42" s="1">
         <v>13.306279999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <v>1885</v>
+      </c>
+      <c r="H42">
+        <v>18.002929999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2324</v>
       </c>
@@ -4923,8 +7264,14 @@
       <c r="F43" s="1">
         <v>13.203279999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>1934</v>
+      </c>
+      <c r="H43">
+        <v>18.002929999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2384</v>
       </c>
@@ -4940,8 +7287,14 @@
       <c r="F44" s="1">
         <v>13.12088</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>1984</v>
+      </c>
+      <c r="H44">
+        <v>18.002929999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2444</v>
       </c>
@@ -4957,8 +7310,14 @@
       <c r="F45" s="1">
         <v>13.004149999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>2036</v>
+      </c>
+      <c r="H45">
+        <v>18.002929999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2504</v>
       </c>
@@ -4974,8 +7333,14 @@
       <c r="F46" s="1">
         <v>13.004149999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>2084</v>
+      </c>
+      <c r="H46">
+        <v>18.002929999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2564</v>
       </c>
@@ -4991,8 +7356,14 @@
       <c r="F47" s="1">
         <v>13.004149999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>2134</v>
+      </c>
+      <c r="H47">
+        <v>18.002929999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2624</v>
       </c>
@@ -5008,8 +7379,14 @@
       <c r="F48" s="1">
         <v>13.004149999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>2184</v>
+      </c>
+      <c r="H48">
+        <v>18.002929999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2684</v>
       </c>
@@ -5025,8 +7402,14 @@
       <c r="F49" s="1">
         <v>13.004149999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <v>2234</v>
+      </c>
+      <c r="H49">
+        <v>18.002929999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2744</v>
       </c>
@@ -5042,8 +7425,14 @@
       <c r="F50" s="1">
         <v>13.004149999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <v>2284</v>
+      </c>
+      <c r="H50">
+        <v>18.002929999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2804</v>
       </c>
@@ -5059,8 +7448,14 @@
       <c r="F51" s="1">
         <v>13.004149999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <v>2335</v>
+      </c>
+      <c r="H51">
+        <v>18.002929999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2864</v>
       </c>
@@ -5076,8 +7471,14 @@
       <c r="F52" s="1">
         <v>13.004149999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <v>2384</v>
+      </c>
+      <c r="H52">
+        <v>18.002929999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2928</v>
       </c>
@@ -5093,8 +7494,14 @@
       <c r="F53" s="1">
         <v>13.004149999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <v>2434</v>
+      </c>
+      <c r="H53">
+        <v>18.002929999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2984</v>
       </c>
@@ -5110,8 +7517,14 @@
       <c r="F54" s="1">
         <v>13.004149999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <v>2483</v>
+      </c>
+      <c r="H54">
+        <v>18.002929999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3044</v>
       </c>
@@ -5127,8 +7540,14 @@
       <c r="F55" s="1">
         <v>13.004149999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <v>2534</v>
+      </c>
+      <c r="H55">
+        <v>18.002929999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3104</v>
       </c>
@@ -5144,8 +7563,14 @@
       <c r="F56" s="1">
         <v>13.004149999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <v>2583</v>
+      </c>
+      <c r="H56">
+        <v>18.002929999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3164</v>
       </c>
@@ -5161,8 +7586,14 @@
       <c r="F57" s="1">
         <v>13.004149999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <v>2635</v>
+      </c>
+      <c r="H57">
+        <v>18.002929999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3224</v>
       </c>
@@ -5178,8 +7609,14 @@
       <c r="F58" s="1">
         <v>13.004149999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <v>2684</v>
+      </c>
+      <c r="H58">
+        <v>18.002929999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3284</v>
       </c>
@@ -5195,8 +7632,14 @@
       <c r="F59" s="1">
         <v>13.004149999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59">
+        <v>2734</v>
+      </c>
+      <c r="H59">
+        <v>18.002929999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3344</v>
       </c>
@@ -5212,8 +7655,14 @@
       <c r="F60" s="1">
         <v>13.004149999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60">
+        <v>2784</v>
+      </c>
+      <c r="H60">
+        <v>18.002929999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3404</v>
       </c>
@@ -5229,8 +7678,14 @@
       <c r="F61" s="1">
         <v>13.004149999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61">
+        <v>2834</v>
+      </c>
+      <c r="H61">
+        <v>18.002929999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3464</v>
       </c>
@@ -5246,8 +7701,14 @@
       <c r="F62" s="1">
         <v>13.004149999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <v>2884</v>
+      </c>
+      <c r="H62">
+        <v>18.002929999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3524</v>
       </c>
@@ -5263,8 +7724,14 @@
       <c r="F63" s="1">
         <v>13.004149999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63">
+        <v>3935</v>
+      </c>
+      <c r="H63">
+        <v>17.693940000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3584</v>
       </c>
@@ -5280,8 +7747,14 @@
       <c r="F64" s="1">
         <v>13.004149999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64">
+        <v>3985</v>
+      </c>
+      <c r="H64">
+        <v>17.682500000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3644</v>
       </c>
@@ -5297,8 +7770,14 @@
       <c r="F65" s="1">
         <v>13.004149999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65">
+        <v>4035</v>
+      </c>
+      <c r="H65">
+        <v>17.63672</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3704</v>
       </c>
@@ -5308,8 +7787,14 @@
       <c r="D66">
         <v>16.542670000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66">
+        <v>4084</v>
+      </c>
+      <c r="H66">
+        <v>17.485659999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3764</v>
       </c>
@@ -5319,8 +7804,14 @@
       <c r="D67">
         <v>16.464849999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67">
+        <v>4137</v>
+      </c>
+      <c r="H67">
+        <v>17.316289999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3824</v>
       </c>
@@ -5330,8 +7821,14 @@
       <c r="D68">
         <v>16.435089999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68">
+        <v>4185</v>
+      </c>
+      <c r="H68">
+        <v>17.153780000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3884</v>
       </c>
@@ -5341,8 +7838,14 @@
       <c r="D69">
         <v>16.494599999999998</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69">
+        <v>4235</v>
+      </c>
+      <c r="H69">
+        <v>17.01416</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3944</v>
       </c>
@@ -5352,8 +7855,14 @@
       <c r="D70">
         <v>16.547239999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70">
+        <v>4285</v>
+      </c>
+      <c r="H70">
+        <v>16.888280000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4004</v>
       </c>
@@ -5363,8 +7872,14 @@
       <c r="D71">
         <v>16.535799999999998</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71">
+        <v>4335</v>
+      </c>
+      <c r="H71">
+        <v>16.741790000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4064</v>
       </c>
@@ -5374,8 +7889,14 @@
       <c r="D72">
         <v>16.441960000000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72">
+        <v>4385</v>
+      </c>
+      <c r="H72">
+        <v>16.595310000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4124</v>
       </c>
@@ -5385,8 +7906,14 @@
       <c r="D73">
         <v>16.42136</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73">
+        <v>4437</v>
+      </c>
+      <c r="H73">
+        <v>16.425940000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>4184</v>
       </c>
@@ -5396,8 +7923,14 @@
       <c r="D74">
         <v>16.471710000000002</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74">
+        <v>4485</v>
+      </c>
+      <c r="H74">
+        <v>16.322939999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4244</v>
       </c>
@@ -5407,8 +7940,14 @@
       <c r="D75">
         <v>16.558689999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75">
+        <v>4535</v>
+      </c>
+      <c r="H75">
+        <v>16.199339999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4304</v>
       </c>
@@ -5418,8 +7957,14 @@
       <c r="D76">
         <v>16.570129999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76">
+        <v>4585</v>
+      </c>
+      <c r="H76">
+        <v>16.078040000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4364</v>
       </c>
@@ -5429,8 +7974,14 @@
       <c r="D77">
         <v>16.512910000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77">
+        <v>4635</v>
+      </c>
+      <c r="H77">
+        <v>15.95444</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4429</v>
       </c>
@@ -5440,8 +7991,14 @@
       <c r="D78">
         <v>16.42136</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78">
+        <v>4684</v>
+      </c>
+      <c r="H78">
+        <v>15.84229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4484</v>
       </c>
@@ -5451,8 +8008,14 @@
       <c r="D79">
         <v>16.414490000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79">
+        <v>4737</v>
+      </c>
+      <c r="H79">
+        <v>15.75531</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4544</v>
       </c>
@@ -5462,8 +8025,14 @@
       <c r="D80">
         <v>16.490020000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G80">
+        <v>4785</v>
+      </c>
+      <c r="H80">
+        <v>15.647740000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4604</v>
       </c>
@@ -5473,8 +8042,14 @@
       <c r="D81">
         <v>16.528929999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G81">
+        <v>4835</v>
+      </c>
+      <c r="H81">
+        <v>15.54932</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4664</v>
       </c>
@@ -5484,8 +8059,14 @@
       <c r="D82">
         <v>16.528929999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G82">
+        <v>4885</v>
+      </c>
+      <c r="H82">
+        <v>15.45548</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4724</v>
       </c>
@@ -5495,8 +8076,14 @@
       <c r="D83">
         <v>16.460270000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G83">
+        <v>4935</v>
+      </c>
+      <c r="H83">
+        <v>15.38452</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>4784</v>
       </c>
@@ -5506,8 +8093,14 @@
       <c r="D84">
         <v>16.4328</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G84">
+        <v>4985</v>
+      </c>
+      <c r="H84">
+        <v>15.32044</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>4844</v>
       </c>
@@ -5517,8 +8110,14 @@
       <c r="D85">
         <v>16.494599999999998</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G85">
+        <v>5037</v>
+      </c>
+      <c r="H85">
+        <v>15.26779</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4904</v>
       </c>
@@ -5528,8 +8127,14 @@
       <c r="D86">
         <v>16.535799999999998</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G86">
+        <v>5085</v>
+      </c>
+      <c r="H86">
+        <v>15.22659</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4964</v>
       </c>
@@ -5539,8 +8144,14 @@
       <c r="D87">
         <v>16.517489999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G87">
+        <v>5135</v>
+      </c>
+      <c r="H87">
+        <v>15.192259999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>5024</v>
       </c>
@@ -5550,8 +8161,14 @@
       <c r="D88">
         <v>16.453399999999998</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G88">
+        <v>5185</v>
+      </c>
+      <c r="H88">
+        <v>15.16708</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>5084</v>
       </c>
@@ -5561,8 +8178,14 @@
       <c r="D89">
         <v>16.441960000000002</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G89">
+        <v>5235</v>
+      </c>
+      <c r="H89">
+        <v>15.139620000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5144</v>
       </c>
@@ -5572,8 +8195,14 @@
       <c r="D90">
         <v>16.506039999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G90">
+        <v>5285</v>
+      </c>
+      <c r="H90">
+        <v>15.103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>5204</v>
       </c>
@@ -5583,8 +8212,14 @@
       <c r="D91">
         <v>16.528929999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G91">
+        <v>5337</v>
+      </c>
+      <c r="H91">
+        <v>15.057219999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>5264</v>
       </c>
@@ -5594,8 +8229,14 @@
       <c r="D92">
         <v>16.517489999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G92">
+        <v>5385</v>
+      </c>
+      <c r="H92">
+        <v>15.00916</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>5324</v>
       </c>
@@ -5605,8 +8246,14 @@
       <c r="D93">
         <v>16.441960000000002</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G93">
+        <v>5435</v>
+      </c>
+      <c r="H93">
+        <v>14.933630000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>5384</v>
       </c>
@@ -5616,8 +8263,14 @@
       <c r="D94">
         <v>16.425940000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G94">
+        <v>5485</v>
+      </c>
+      <c r="H94">
+        <v>14.86496</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>5444</v>
       </c>
@@ -5627,8 +8280,14 @@
       <c r="D95">
         <v>16.494599999999998</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G95">
+        <v>5535</v>
+      </c>
+      <c r="H95">
+        <v>14.787140000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5504</v>
       </c>
@@ -5638,8 +8297,14 @@
       <c r="D96">
         <v>16.535799999999998</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G96">
+        <v>5585</v>
+      </c>
+      <c r="H96">
+        <v>14.70703</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5564</v>
       </c>
@@ -5649,8 +8314,14 @@
       <c r="D97">
         <v>16.517489999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G97">
+        <v>5637</v>
+      </c>
+      <c r="H97">
+        <v>14.63608</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>5624</v>
       </c>
@@ -5660,8 +8331,14 @@
       <c r="D98">
         <v>16.460270000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G98">
+        <v>5685</v>
+      </c>
+      <c r="H98">
+        <v>14.55368</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>5684</v>
       </c>
@@ -5671,8 +8348,14 @@
       <c r="D99">
         <v>16.448820000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G99">
+        <v>5735</v>
+      </c>
+      <c r="H99">
+        <v>14.478149999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>5744</v>
       </c>
@@ -5682,8 +8365,14 @@
       <c r="D100">
         <v>16.506039999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G100">
+        <v>5785</v>
+      </c>
+      <c r="H100">
+        <v>14.466710000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>5804</v>
       </c>
@@ -5693,8 +8382,14 @@
       <c r="D101">
         <v>16.528929999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G101">
+        <v>5835</v>
+      </c>
+      <c r="H101">
+        <v>14.48273</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>5864</v>
       </c>
@@ -5704,8 +8399,14 @@
       <c r="D102">
         <v>16.517489999999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G102">
+        <v>5885</v>
+      </c>
+      <c r="H102">
+        <v>14.50104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>5929</v>
       </c>
@@ -5714,6 +8415,628 @@
       </c>
       <c r="D103">
         <v>16.448820000000001</v>
+      </c>
+      <c r="G103">
+        <v>5937</v>
+      </c>
+      <c r="H103">
+        <v>14.51248</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G104">
+        <v>5937</v>
+      </c>
+      <c r="H104">
+        <v>14.51248</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G105">
+        <v>5985</v>
+      </c>
+      <c r="H105">
+        <v>14.519349999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G106">
+        <v>5985</v>
+      </c>
+      <c r="H106">
+        <v>14.519349999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G107">
+        <v>6035</v>
+      </c>
+      <c r="H107">
+        <v>14.53079</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G108">
+        <v>6035</v>
+      </c>
+      <c r="H108">
+        <v>14.53079</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G109">
+        <v>6085</v>
+      </c>
+      <c r="H109">
+        <v>14.546810000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G110">
+        <v>6135</v>
+      </c>
+      <c r="H110">
+        <v>14.560549999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G111">
+        <v>6185</v>
+      </c>
+      <c r="H111">
+        <v>14.57199</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G112">
+        <v>6237</v>
+      </c>
+      <c r="H112">
+        <v>14.57657</v>
+      </c>
+    </row>
+    <row r="113" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G113">
+        <v>6285</v>
+      </c>
+      <c r="H113">
+        <v>14.57199</v>
+      </c>
+    </row>
+    <row r="114" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G114">
+        <v>6335</v>
+      </c>
+      <c r="H114">
+        <v>14.52393</v>
+      </c>
+    </row>
+    <row r="115" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G115">
+        <v>6335</v>
+      </c>
+      <c r="H115">
+        <v>14.52393</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G116">
+        <v>6385</v>
+      </c>
+      <c r="H116">
+        <v>14.466710000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G117">
+        <v>6435</v>
+      </c>
+      <c r="H117">
+        <v>14.466710000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G118">
+        <v>6485</v>
+      </c>
+      <c r="H118">
+        <v>14.478149999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G119">
+        <v>6537</v>
+      </c>
+      <c r="H119">
+        <v>14.48959</v>
+      </c>
+    </row>
+    <row r="120" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G120">
+        <v>6585</v>
+      </c>
+      <c r="H120">
+        <v>14.49417</v>
+      </c>
+    </row>
+    <row r="121" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G121">
+        <v>6635</v>
+      </c>
+      <c r="H121">
+        <v>14.49417</v>
+      </c>
+    </row>
+    <row r="122" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G122">
+        <v>6685</v>
+      </c>
+      <c r="H122">
+        <v>14.50562</v>
+      </c>
+    </row>
+    <row r="123" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G123">
+        <v>6735</v>
+      </c>
+      <c r="H123">
+        <v>14.50562</v>
+      </c>
+    </row>
+    <row r="124" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G124">
+        <v>6785</v>
+      </c>
+      <c r="H124">
+        <v>14.50562</v>
+      </c>
+    </row>
+    <row r="125" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G125">
+        <v>6837</v>
+      </c>
+      <c r="H125">
+        <v>14.519349999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G126">
+        <v>6837</v>
+      </c>
+      <c r="H126">
+        <v>14.519349999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G127">
+        <v>6885</v>
+      </c>
+      <c r="H127">
+        <v>14.52393</v>
+      </c>
+    </row>
+    <row r="128" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G128">
+        <v>6885</v>
+      </c>
+      <c r="H128">
+        <v>14.52393</v>
+      </c>
+    </row>
+    <row r="129" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G129">
+        <v>6935</v>
+      </c>
+      <c r="H129">
+        <v>14.519349999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G130">
+        <v>6935</v>
+      </c>
+      <c r="H130">
+        <v>14.519349999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G131">
+        <v>6985</v>
+      </c>
+      <c r="H131">
+        <v>14.52393</v>
+      </c>
+    </row>
+    <row r="132" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G132">
+        <v>6985</v>
+      </c>
+      <c r="H132">
+        <v>14.52393</v>
+      </c>
+    </row>
+    <row r="133" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G133">
+        <v>7035</v>
+      </c>
+      <c r="H133">
+        <v>14.53537</v>
+      </c>
+    </row>
+    <row r="134" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G134">
+        <v>7035</v>
+      </c>
+      <c r="H134">
+        <v>14.53537</v>
+      </c>
+    </row>
+    <row r="135" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G135">
+        <v>7085</v>
+      </c>
+      <c r="H135">
+        <v>14.53537</v>
+      </c>
+    </row>
+    <row r="136" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G136">
+        <v>7085</v>
+      </c>
+      <c r="H136">
+        <v>14.53537</v>
+      </c>
+    </row>
+    <row r="137" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G137">
+        <v>7137</v>
+      </c>
+      <c r="H137">
+        <v>14.53079</v>
+      </c>
+    </row>
+    <row r="138" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G138">
+        <v>7137</v>
+      </c>
+      <c r="H138">
+        <v>14.53079</v>
+      </c>
+    </row>
+    <row r="139" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G139">
+        <v>7185</v>
+      </c>
+      <c r="H139">
+        <v>14.53537</v>
+      </c>
+    </row>
+    <row r="140" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G140">
+        <v>7185</v>
+      </c>
+      <c r="H140">
+        <v>14.53537</v>
+      </c>
+    </row>
+    <row r="141" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G141">
+        <v>7235</v>
+      </c>
+      <c r="H141">
+        <v>14.54224</v>
+      </c>
+    </row>
+    <row r="142" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G142">
+        <v>7285</v>
+      </c>
+      <c r="H142">
+        <v>14.546810000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G143">
+        <v>7335</v>
+      </c>
+      <c r="H143">
+        <v>14.546810000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G144">
+        <v>7385</v>
+      </c>
+      <c r="H144">
+        <v>14.546810000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G145">
+        <v>7437</v>
+      </c>
+      <c r="H145">
+        <v>14.55368</v>
+      </c>
+    </row>
+    <row r="146" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G146">
+        <v>7485</v>
+      </c>
+      <c r="H146">
+        <v>14.55368</v>
+      </c>
+    </row>
+    <row r="147" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G147">
+        <v>7535</v>
+      </c>
+      <c r="H147">
+        <v>14.546810000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G148">
+        <v>7585</v>
+      </c>
+      <c r="H148">
+        <v>14.546810000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G149">
+        <v>7635</v>
+      </c>
+      <c r="H149">
+        <v>14.546810000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G150">
+        <v>7685</v>
+      </c>
+      <c r="H150">
+        <v>14.55368</v>
+      </c>
+    </row>
+    <row r="151" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G151">
+        <v>7737</v>
+      </c>
+      <c r="H151">
+        <v>14.560549999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G152">
+        <v>7785</v>
+      </c>
+      <c r="H152">
+        <v>14.55368</v>
+      </c>
+    </row>
+    <row r="153" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G153">
+        <v>7835</v>
+      </c>
+      <c r="H153">
+        <v>14.53079</v>
+      </c>
+    </row>
+    <row r="154" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G154">
+        <v>7835</v>
+      </c>
+      <c r="H154">
+        <v>14.53079</v>
+      </c>
+    </row>
+    <row r="155" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G155">
+        <v>7885</v>
+      </c>
+      <c r="H155">
+        <v>14.50562</v>
+      </c>
+    </row>
+    <row r="156" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G156">
+        <v>7935</v>
+      </c>
+      <c r="H156">
+        <v>14.49417</v>
+      </c>
+    </row>
+    <row r="157" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G157">
+        <v>7985</v>
+      </c>
+      <c r="H157">
+        <v>14.50104</v>
+      </c>
+    </row>
+    <row r="158" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G158">
+        <v>8037</v>
+      </c>
+      <c r="H158">
+        <v>14.50104</v>
+      </c>
+    </row>
+    <row r="159" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G159">
+        <v>8085</v>
+      </c>
+      <c r="H159">
+        <v>14.50562</v>
+      </c>
+    </row>
+    <row r="160" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G160">
+        <v>8135</v>
+      </c>
+      <c r="H160">
+        <v>14.50562</v>
+      </c>
+    </row>
+    <row r="161" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G161">
+        <v>8185</v>
+      </c>
+      <c r="H161">
+        <v>14.50104</v>
+      </c>
+    </row>
+    <row r="162" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G162">
+        <v>8235</v>
+      </c>
+      <c r="H162">
+        <v>14.50104</v>
+      </c>
+    </row>
+    <row r="163" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G163">
+        <v>8285</v>
+      </c>
+      <c r="H163">
+        <v>14.50562</v>
+      </c>
+    </row>
+    <row r="164" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G164">
+        <v>8337</v>
+      </c>
+      <c r="H164">
+        <v>14.50562</v>
+      </c>
+    </row>
+    <row r="165" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G165">
+        <v>8385</v>
+      </c>
+      <c r="H165">
+        <v>14.50104</v>
+      </c>
+    </row>
+    <row r="166" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G166">
+        <v>8435</v>
+      </c>
+      <c r="H166">
+        <v>14.50562</v>
+      </c>
+    </row>
+    <row r="167" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G167">
+        <v>8485</v>
+      </c>
+      <c r="H167">
+        <v>14.51248</v>
+      </c>
+    </row>
+    <row r="168" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G168">
+        <v>8485</v>
+      </c>
+      <c r="H168">
+        <v>14.51248</v>
+      </c>
+    </row>
+    <row r="169" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G169">
+        <v>8535</v>
+      </c>
+      <c r="H169">
+        <v>14.51248</v>
+      </c>
+    </row>
+    <row r="170" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G170">
+        <v>8535</v>
+      </c>
+      <c r="H170">
+        <v>14.51248</v>
+      </c>
+    </row>
+    <row r="171" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G171">
+        <v>8585</v>
+      </c>
+      <c r="H171">
+        <v>14.51248</v>
+      </c>
+    </row>
+    <row r="172" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G172">
+        <v>8585</v>
+      </c>
+      <c r="H172">
+        <v>14.51248</v>
+      </c>
+    </row>
+    <row r="173" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G173">
+        <v>8637</v>
+      </c>
+      <c r="H173">
+        <v>14.51248</v>
+      </c>
+    </row>
+    <row r="174" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G174">
+        <v>8638</v>
+      </c>
+      <c r="H174">
+        <v>14.51248</v>
+      </c>
+    </row>
+    <row r="175" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G175">
+        <v>8685</v>
+      </c>
+      <c r="H175">
+        <v>14.51248</v>
+      </c>
+    </row>
+    <row r="176" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G176">
+        <v>8685</v>
+      </c>
+      <c r="H176">
+        <v>14.51248</v>
+      </c>
+    </row>
+    <row r="177" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G177">
+        <v>8735</v>
+      </c>
+      <c r="H177">
+        <v>14.519349999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G178">
+        <v>8735</v>
+      </c>
+      <c r="H178">
+        <v>14.519349999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G179">
+        <v>8785</v>
+      </c>
+      <c r="H179">
+        <v>14.51248</v>
+      </c>
+    </row>
+    <row r="180" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G180">
+        <v>8785</v>
+      </c>
+      <c r="H180">
+        <v>14.51248</v>
       </c>
     </row>
   </sheetData>

--- a/Data Plots.xlsx
+++ b/Data Plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliawolken/Library/Mobile Documents/com~apple~CloudDocs/SCHOOL/CAL POLY/CP QUARTERS/Poly Winter '24/ME 405 Lab/ME405-Term-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EC855F-3BE2-7F46-B356-AF80B8F12A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62703A3-796E-C54D-9327-3CFD01AAE99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{67320AA8-6281-8748-86BD-E46B7DC5E4AF}"/>
+    <workbookView xWindow="-420" yWindow="760" windowWidth="24200" windowHeight="17180" xr2:uid="{67320AA8-6281-8748-86BD-E46B7DC5E4AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Pressure</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>Kp = 5, p=13</t>
+  </si>
+  <si>
+    <t>Pressure (psi)</t>
+  </si>
+  <si>
+    <t>Time (sec)</t>
+  </si>
+  <si>
+    <t>Depth (ft)</t>
   </si>
 </sst>
 </file>
@@ -2811,40 +2820,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>134</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>184</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>236</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>284</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>334</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>384</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>484</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>536</c:v>
+                  <c:v>537</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>584</c:v>
+                  <c:v>585</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>635</c:v>
@@ -2856,13 +2865,13 @@
                   <c:v>735</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>784</c:v>
+                  <c:v>785</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>836</c:v>
+                  <c:v>837</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>884</c:v>
+                  <c:v>885</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>935</c:v>
@@ -2871,31 +2880,31 @@
                   <c:v>985</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1034</c:v>
+                  <c:v>1035</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1085</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1136</c:v>
+                  <c:v>1138</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1185</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1234</c:v>
+                  <c:v>1235</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1284</c:v>
+                  <c:v>1285</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1334</c:v>
+                  <c:v>1335</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1385</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1436</c:v>
+                  <c:v>1438</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1485</c:v>
@@ -2913,7 +2922,7 @@
                   <c:v>1685</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1737</c:v>
+                  <c:v>1738</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1785</c:v>
@@ -2925,415 +2934,355 @@
                   <c:v>1885</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1934</c:v>
+                  <c:v>1935</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1984</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2036</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2084</c:v>
+                  <c:v>2085</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2134</c:v>
+                  <c:v>2135</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2184</c:v>
+                  <c:v>2185</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2234</c:v>
+                  <c:v>2235</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2284</c:v>
+                  <c:v>2285</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2335</c:v>
+                  <c:v>2338</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2384</c:v>
+                  <c:v>2385</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2434</c:v>
+                  <c:v>2435</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2483</c:v>
+                  <c:v>2485</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2534</c:v>
+                  <c:v>2535</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2583</c:v>
+                  <c:v>2585</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2635</c:v>
+                  <c:v>2638</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2684</c:v>
+                  <c:v>2685</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2734</c:v>
+                  <c:v>2735</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2784</c:v>
+                  <c:v>2785</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2834</c:v>
+                  <c:v>2835</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2884</c:v>
+                  <c:v>2885</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3935</c:v>
+                  <c:v>2938</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3985</c:v>
+                  <c:v>2985</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4035</c:v>
+                  <c:v>3035</c:v>
                 </c:pt>
                 <c:pt idx="62">
+                  <c:v>3085</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3135</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3185</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3238</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3284</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3334</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3384</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3434</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3484</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3537</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3634</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3684</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3734</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3784</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3837</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3884</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3934</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3984</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4034</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>4084</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="83">
                   <c:v>4137</c:v>
                 </c:pt>
-                <c:pt idx="64">
-                  <c:v>4185</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>4235</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4285</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4335</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4385</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>4437</c:v>
-                </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="84">
+                  <c:v>4184</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4234</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>4485</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="87">
                   <c:v>4535</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="88">
                   <c:v>4585</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="89">
                   <c:v>4635</c:v>
                 </c:pt>
-                <c:pt idx="74">
-                  <c:v>4684</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>4737</c:v>
-                </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="90">
+                  <c:v>4685</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4738</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>4785</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="93">
                   <c:v>4835</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="94">
                   <c:v>4885</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="95">
                   <c:v>4935</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="96">
                   <c:v>4985</c:v>
                 </c:pt>
-                <c:pt idx="81">
-                  <c:v>5037</c:v>
-                </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="97">
+                  <c:v>5038</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>5085</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="99">
                   <c:v>5135</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="100">
                   <c:v>5185</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="101">
                   <c:v>5235</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="102">
                   <c:v>5285</c:v>
                 </c:pt>
-                <c:pt idx="87">
-                  <c:v>5337</c:v>
-                </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="103">
+                  <c:v>5338</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>5385</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="105">
                   <c:v>5435</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="106">
                   <c:v>5485</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="107">
                   <c:v>5535</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="108">
                   <c:v>5585</c:v>
                 </c:pt>
-                <c:pt idx="93">
-                  <c:v>5637</c:v>
-                </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="109">
+                  <c:v>5638</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>5685</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="111">
                   <c:v>5735</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="112">
                   <c:v>5785</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="113">
                   <c:v>5835</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="114">
                   <c:v>5885</c:v>
                 </c:pt>
-                <c:pt idx="99">
-                  <c:v>5937</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>5937</c:v>
-                </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="115">
+                  <c:v>5938</c:v>
+                </c:pt>
+                <c:pt idx="116">
                   <c:v>5985</c:v>
                 </c:pt>
-                <c:pt idx="102">
-                  <c:v>5985</c:v>
-                </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="117">
                   <c:v>6035</c:v>
                 </c:pt>
-                <c:pt idx="104">
-                  <c:v>6035</c:v>
-                </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="118">
                   <c:v>6085</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="119">
                   <c:v>6135</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="120">
                   <c:v>6185</c:v>
                 </c:pt>
-                <c:pt idx="108">
-                  <c:v>6237</c:v>
-                </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="121">
+                  <c:v>6238</c:v>
+                </c:pt>
+                <c:pt idx="122">
                   <c:v>6285</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="123">
                   <c:v>6335</c:v>
                 </c:pt>
-                <c:pt idx="111">
-                  <c:v>6335</c:v>
-                </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="124">
                   <c:v>6385</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="125">
                   <c:v>6435</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="126">
                   <c:v>6485</c:v>
                 </c:pt>
-                <c:pt idx="115">
-                  <c:v>6537</c:v>
-                </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="127">
+                  <c:v>6538</c:v>
+                </c:pt>
+                <c:pt idx="128">
                   <c:v>6585</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="129">
                   <c:v>6635</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="130">
                   <c:v>6685</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="131">
                   <c:v>6735</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="132">
                   <c:v>6785</c:v>
                 </c:pt>
-                <c:pt idx="121">
-                  <c:v>6837</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>6837</c:v>
-                </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="133">
+                  <c:v>6838</c:v>
+                </c:pt>
+                <c:pt idx="134">
                   <c:v>6885</c:v>
                 </c:pt>
-                <c:pt idx="124">
-                  <c:v>6885</c:v>
-                </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="135">
                   <c:v>6935</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="136">
+                  <c:v>6985</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7035</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7085</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7138</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7185</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7235</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7285</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7335</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7385</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7438</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7485</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7535</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7585</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7635</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7685</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7738</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7785</c:v>
+                </c:pt>
+                <c:pt idx="154">
                   <c:v>6935</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="155">
                   <c:v>6985</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="156">
                   <c:v>6985</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>7035</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>7035</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>7085</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>7085</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>7137</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>7137</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>7185</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>7185</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>7235</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>7285</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>7335</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>7385</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>7437</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>7485</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>7535</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>7585</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>7635</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>7685</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>7737</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>7785</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>7835</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>7835</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>7885</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>7935</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>7985</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>8037</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>8085</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>8135</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>8185</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>8235</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>8285</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>8337</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>8385</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>8435</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>8485</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>8485</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>8535</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>8535</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>8585</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>8585</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>8637</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>8638</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>8685</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>8685</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>8735</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>8735</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>8785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3345,535 +3294,472 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="202"/>
                 <c:pt idx="0">
-                  <c:v>14.52393</c:v>
+                  <c:v>14.8169</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.52393</c:v>
+                  <c:v>14.8169</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.52393</c:v>
+                  <c:v>14.8169</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>14.8169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.8169</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.8169</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.8169</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.80545</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.78256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.77112</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.77112</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.77112</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.764250000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.764250000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.759679999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.734500000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.68872</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.59488</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.50104</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.384309999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.249269999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.1005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.94257</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.78464</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.645020000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.4848</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.354340000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.233029999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.10257</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.992710000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.87598</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.76383</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.66541</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.56012</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.45026</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.32666</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.22824</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.134399999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.03598</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.955870000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.85059</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.7453</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.67435</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.58737</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.486660000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.39282</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.30585</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.218870000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.1319</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11.056369999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.98312</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.900729999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.82977</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.75882</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.690160000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.61234</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10.536809999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10.4567</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10.38574</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10.31021</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10.23926</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.170590000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10.09277</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10.058439999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.035550000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10.01267</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10.01267</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10.01267</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10.01267</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10.01267</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10.01267</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>10.01267</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>10.01267</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10.01267</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10.01267</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10.01267</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10.01267</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10.01267</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10.01267</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>10.01267</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>10.01267</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>10.01267</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10.01267</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10.01267</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10.01267</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10.01267</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10.15915</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10.163729999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10.204929999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10.305630000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10.399480000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>10.502470000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10.60089</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10.69473</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>10.806889999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10.91217</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>11.01746</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>11.127319999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>11.212009999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>11.312709999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>11.417999999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11.52786</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>11.62857</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>11.738429999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>11.85059</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>11.95129</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>12.06574</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>12.17102</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>12.28546</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>12.420500000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>12.51892</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>12.6265</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>12.74094</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>12.869109999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>12.99728</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>13.12088</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>13.23761</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>13.354340000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>13.47336</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>13.596959999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>13.697660000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>13.81439</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>13.91968</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>14.002079999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>14.06616</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>14.111940000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>14.134829999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>14.15085</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>14.157719999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>14.157719999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>14.157719999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>14.157719999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>14.16229</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>14.16229</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>14.16229</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>14.16229</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>14.16229</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>14.16916</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>14.2012</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>14.2836</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14.38889</c:v>
+                </c:pt>
+                <c:pt idx="141">
                   <c:v>14.51248</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.51248</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.52393</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.52393</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.54224</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.652100000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.79401</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.92905</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.0206</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.139620000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15.26093</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.366210000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.471500000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.57907</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15.68436</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15.79651</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>15.9018</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16.018529999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>16.119230000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>16.206209999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16.348120000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16.453399999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>16.565550000000002</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>16.670839999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>16.764679999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>16.892849999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>17.01416</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>17.112580000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>17.217870000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>17.323149999999998</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>17.433019999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>17.568059999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>17.671050000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>17.776340000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>17.888490000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>18.002929999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>18.002929999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>18.002929999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>18.002929999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>18.002929999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>18.002929999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>18.002929999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>18.002929999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>18.002929999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>18.002929999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>18.002929999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>18.002929999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>18.002929999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>18.002929999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>18.002929999999999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>18.002929999999999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>18.002929999999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>18.002929999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>18.002929999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>18.002929999999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>18.002929999999999</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>17.693940000000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>17.682500000000001</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>17.63672</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>17.485659999999999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>17.316289999999999</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>17.153780000000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>17.01416</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>16.888280000000002</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>16.741790000000002</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>16.595310000000001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>16.425940000000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>16.322939999999999</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>16.199339999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>16.078040000000001</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>15.95444</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>15.84229</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>15.75531</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>15.647740000000001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>15.54932</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>15.45548</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>15.38452</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>15.32044</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>15.26779</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>15.22659</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>15.192259999999999</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>15.16708</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>15.139620000000001</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>15.103</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>15.057219999999999</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>15.00916</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>14.933630000000001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>14.86496</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>14.787140000000001</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>14.70703</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>14.63608</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>14.55368</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>14.478149999999999</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>14.466710000000001</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>14.48273</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>14.50104</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>14.51248</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>14.51248</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>14.519349999999999</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>14.519349999999999</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>14.53079</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>14.53079</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>14.546810000000001</c:v>
-                </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="142">
+                  <c:v>14.57199</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.57199</c:v>
+                </c:pt>
+                <c:pt idx="144">
                   <c:v>14.560549999999999</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>14.57199</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>14.57657</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>14.57199</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>14.52393</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>14.52393</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>14.466710000000001</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>14.466710000000001</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>14.478149999999999</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>14.48959</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>14.49417</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>14.49417</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>14.50562</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>14.50562</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>14.50562</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>14.519349999999999</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>14.519349999999999</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>14.52393</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>14.52393</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>14.519349999999999</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>14.519349999999999</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>14.52393</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>14.52393</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>14.53537</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>14.53537</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>14.53537</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>14.53537</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>14.53079</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>14.53079</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>14.53537</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>14.53537</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>14.54224</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>14.546810000000001</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>14.546810000000001</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>14.546810000000001</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>14.55368</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>14.55368</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>14.546810000000001</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>14.546810000000001</c:v>
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>14.546810000000001</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>14.55368</c:v>
+                  <c:v>14.546810000000001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>14.560549999999999</c:v>
+                  <c:v>14.56513</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>14.55368</c:v>
+                  <c:v>14.61777</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>14.53079</c:v>
+                  <c:v>14.70703</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>14.53079</c:v>
+                  <c:v>14.79401</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>14.50562</c:v>
+                  <c:v>14.8764</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>14.49417</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>14.50104</c:v>
+                  <c:v>14.880979999999999</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>14.50104</c:v>
+                  <c:v>14.72992</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>14.50562</c:v>
+                  <c:v>14.71848</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>14.50562</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>14.50104</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>14.50104</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>14.50562</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>14.50562</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>14.50104</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>14.50562</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>14.51248</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>14.51248</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>14.51248</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>14.51248</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>14.51248</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>14.51248</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>14.51248</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>14.51248</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>14.51248</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>14.51248</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>14.519349999999999</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>14.519349999999999</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>14.51248</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>14.51248</c:v>
+                  <c:v>14.71848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4017,7 +3903,7 @@
         <c:axId val="1161109728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="12"/>
+          <c:min val="9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5855,14 +5741,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>44451</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>298451</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>67736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>234951</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>488951</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>169336</xdr:rowOff>
     </xdr:to>
@@ -5891,16 +5777,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>80434</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>283634</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>80434</xdr:rowOff>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>503767</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>706968</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>182034</xdr:rowOff>
+      <xdr:rowOff>165101</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5927,16 +5813,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>592668</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>50802</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>50801</xdr:rowOff>
+      <xdr:rowOff>67734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>186268</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>474136</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>169334</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6283,19 +6169,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8091119-6192-0845-ACD3-5EE477BCCD31}">
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H180"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -6313,7 +6200,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6325,7 +6212,7 @@
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6345,13 +6232,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6371,10 +6261,13 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>14.52393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.8169</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>44</v>
       </c>
@@ -6391,13 +6284,16 @@
         <v>16.078040000000001</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>14.52393</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.8169</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>104</v>
       </c>
@@ -6417,10 +6313,13 @@
         <v>85</v>
       </c>
       <c r="H6">
-        <v>14.52393</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.8169</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>164</v>
       </c>
@@ -6437,13 +6336,16 @@
         <v>15.785069999999999</v>
       </c>
       <c r="G7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H7">
-        <v>14.51248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.8169</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>224</v>
       </c>
@@ -6460,13 +6362,16 @@
         <v>15.58365</v>
       </c>
       <c r="G8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H8">
-        <v>14.51248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.8169</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>284</v>
       </c>
@@ -6483,13 +6388,16 @@
         <v>15.44403</v>
       </c>
       <c r="G9">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H9">
-        <v>14.52393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.8169</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>344</v>
       </c>
@@ -6506,13 +6414,16 @@
         <v>15.29068</v>
       </c>
       <c r="G10">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H10">
-        <v>14.52393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.8169</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>404</v>
       </c>
@@ -6529,13 +6440,16 @@
         <v>15.203709999999999</v>
       </c>
       <c r="G11">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H11">
-        <v>14.54224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.80545</v>
+      </c>
+      <c r="I11">
+        <v>-2.6451789999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>464</v>
       </c>
@@ -6552,13 +6466,16 @@
         <v>15.11444</v>
       </c>
       <c r="G12">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H12">
-        <v>14.652100000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.78256</v>
+      </c>
+      <c r="I12">
+        <v>-7.9355380000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>524</v>
       </c>
@@ -6578,10 +6495,13 @@
         <v>435</v>
       </c>
       <c r="H13">
-        <v>14.79401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.77112</v>
+      </c>
+      <c r="I13">
+        <v>-0.1058072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>584</v>
       </c>
@@ -6598,13 +6518,16 @@
         <v>14.99771</v>
       </c>
       <c r="G14">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H14">
-        <v>14.92905</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.77112</v>
+      </c>
+      <c r="I14">
+        <v>-0.1058072</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>644</v>
       </c>
@@ -6621,13 +6544,16 @@
         <v>14.95651</v>
       </c>
       <c r="G15">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H15">
-        <v>15.0206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.77112</v>
+      </c>
+      <c r="I15">
+        <v>-0.1058072</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>704</v>
       </c>
@@ -6644,13 +6570,16 @@
         <v>14.933630000000001</v>
       </c>
       <c r="G16">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H16">
-        <v>15.139620000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.764250000000001</v>
+      </c>
+      <c r="I16">
+        <v>-0.1216782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>764</v>
       </c>
@@ -6670,10 +6599,13 @@
         <v>635</v>
       </c>
       <c r="H17">
-        <v>15.26093</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.764250000000001</v>
+      </c>
+      <c r="I17">
+        <v>-0.1216782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>824</v>
       </c>
@@ -6693,10 +6625,13 @@
         <v>685</v>
       </c>
       <c r="H18">
-        <v>15.366210000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.759679999999999</v>
+      </c>
+      <c r="I18">
+        <v>-0.13225899999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>884</v>
       </c>
@@ -6716,10 +6651,13 @@
         <v>735</v>
       </c>
       <c r="H19">
-        <v>15.471500000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.734500000000001</v>
+      </c>
+      <c r="I19">
+        <v>-0.19045290000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>944</v>
       </c>
@@ -6736,13 +6674,16 @@
         <v>14.869540000000001</v>
       </c>
       <c r="G20">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H20">
-        <v>15.57907</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.68872</v>
+      </c>
+      <c r="I20">
+        <v>-0.29626010000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1004</v>
       </c>
@@ -6759,13 +6700,16 @@
         <v>14.869540000000001</v>
       </c>
       <c r="G21">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H21">
-        <v>15.68436</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.59488</v>
+      </c>
+      <c r="I21">
+        <v>-0.51316479999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1064</v>
       </c>
@@ -6782,13 +6726,16 @@
         <v>14.858090000000001</v>
       </c>
       <c r="G22">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H22">
-        <v>15.79651</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.50104</v>
+      </c>
+      <c r="I22">
+        <v>-0.73006939999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1124</v>
       </c>
@@ -6808,10 +6755,13 @@
         <v>935</v>
       </c>
       <c r="H23">
-        <v>15.9018</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.384309999999999</v>
+      </c>
+      <c r="I23">
+        <v>-0.99987769999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1184</v>
       </c>
@@ -6831,10 +6781,13 @@
         <v>985</v>
       </c>
       <c r="H24">
-        <v>16.018529999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.249269999999999</v>
+      </c>
+      <c r="I24">
+        <v>-1.312009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1244</v>
       </c>
@@ -6851,13 +6804,16 @@
         <v>14.78256</v>
       </c>
       <c r="G25">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H25">
-        <v>16.119230000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.1005</v>
+      </c>
+      <c r="I25">
+        <v>-1.6558820000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1304</v>
       </c>
@@ -6877,10 +6833,13 @@
         <v>1085</v>
       </c>
       <c r="H26">
-        <v>16.206209999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13.94257</v>
+      </c>
+      <c r="I26">
+        <v>-2.0209169999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1364</v>
       </c>
@@ -6897,13 +6856,16 @@
         <v>14.65897</v>
       </c>
       <c r="G27">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="H27">
-        <v>16.348120000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13.78464</v>
+      </c>
+      <c r="I27">
+        <v>-2.3859520000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1427</v>
       </c>
@@ -6923,10 +6885,13 @@
         <v>1185</v>
       </c>
       <c r="H28">
-        <v>16.453399999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13.645020000000001</v>
+      </c>
+      <c r="I28">
+        <v>-2.708663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1484</v>
       </c>
@@ -6943,13 +6908,16 @@
         <v>14.372859999999999</v>
       </c>
       <c r="G29">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="H29">
-        <v>16.565550000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13.4848</v>
+      </c>
+      <c r="I29">
+        <v>-3.078989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1544</v>
       </c>
@@ -6966,13 +6934,16 @@
         <v>14.237819999999999</v>
       </c>
       <c r="G30">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H30">
-        <v>16.670839999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13.354340000000001</v>
+      </c>
+      <c r="I30">
+        <v>-3.3805390000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1604</v>
       </c>
@@ -6989,13 +6960,16 @@
         <v>14.03641</v>
       </c>
       <c r="G31">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="H31">
-        <v>16.764679999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13.233029999999999</v>
+      </c>
+      <c r="I31">
+        <v>-3.6609280000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1664</v>
       </c>
@@ -7015,10 +6989,13 @@
         <v>1385</v>
       </c>
       <c r="H32">
-        <v>16.892849999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13.10257</v>
+      </c>
+      <c r="I32">
+        <v>-3.9624790000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1724</v>
       </c>
@@ -7035,13 +7012,16 @@
         <v>13.94257</v>
       </c>
       <c r="G33">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="H33">
-        <v>17.01416</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12.992710000000001</v>
+      </c>
+      <c r="I33">
+        <v>-4.2164159999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1784</v>
       </c>
@@ -7061,10 +7041,13 @@
         <v>1485</v>
       </c>
       <c r="H34">
-        <v>17.112580000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12.87598</v>
+      </c>
+      <c r="I34">
+        <v>-4.486224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1844</v>
       </c>
@@ -7084,10 +7067,13 @@
         <v>1535</v>
       </c>
       <c r="H35">
-        <v>17.217870000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12.76383</v>
+      </c>
+      <c r="I35">
+        <v>-4.7454510000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1904</v>
       </c>
@@ -7107,10 +7093,13 @@
         <v>1585</v>
       </c>
       <c r="H36">
-        <v>17.323149999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12.66541</v>
+      </c>
+      <c r="I36">
+        <v>-4.9729369999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1964</v>
       </c>
@@ -7130,10 +7119,13 @@
         <v>1635</v>
       </c>
       <c r="H37">
-        <v>17.433019999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12.56012</v>
+      </c>
+      <c r="I37">
+        <v>-5.2162940000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2024</v>
       </c>
@@ -7153,10 +7145,13 @@
         <v>1685</v>
       </c>
       <c r="H38">
-        <v>17.568059999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12.45026</v>
+      </c>
+      <c r="I38">
+        <v>-5.4702310000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2084</v>
       </c>
@@ -7173,13 +7168,16 @@
         <v>13.526</v>
       </c>
       <c r="G39">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="H39">
-        <v>17.671050000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12.32666</v>
+      </c>
+      <c r="I39">
+        <v>-5.7559100000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2144</v>
       </c>
@@ -7199,10 +7197,13 @@
         <v>1785</v>
       </c>
       <c r="H40">
-        <v>17.776340000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12.22824</v>
+      </c>
+      <c r="I40">
+        <v>-5.9833959999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2204</v>
       </c>
@@ -7222,10 +7223,13 @@
         <v>1835</v>
       </c>
       <c r="H41">
-        <v>17.888490000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12.134399999999999</v>
+      </c>
+      <c r="I41">
+        <v>-6.2003009999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2264</v>
       </c>
@@ -7245,10 +7249,13 @@
         <v>1885</v>
       </c>
       <c r="H42">
-        <v>18.002929999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12.03598</v>
+      </c>
+      <c r="I42">
+        <v>-6.4277860000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2324</v>
       </c>
@@ -7265,13 +7272,16 @@
         <v>13.203279999999999</v>
       </c>
       <c r="G43">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="H43">
-        <v>18.002929999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11.955870000000001</v>
+      </c>
+      <c r="I43">
+        <v>-6.6129480000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2384</v>
       </c>
@@ -7288,13 +7298,16 @@
         <v>13.12088</v>
       </c>
       <c r="G44">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="H44">
-        <v>18.002929999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11.85059</v>
+      </c>
+      <c r="I44">
+        <v>-6.8563049999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2444</v>
       </c>
@@ -7311,13 +7324,16 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G45">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="H45">
-        <v>18.002929999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11.7453</v>
+      </c>
+      <c r="I45">
+        <v>-7.0996610000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2504</v>
       </c>
@@ -7334,13 +7350,16 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G46">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="H46">
-        <v>18.002929999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11.67435</v>
+      </c>
+      <c r="I46">
+        <v>-7.2636620000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2564</v>
       </c>
@@ -7357,13 +7376,16 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G47">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="H47">
-        <v>18.002929999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11.58737</v>
+      </c>
+      <c r="I47">
+        <v>-7.464696</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2624</v>
       </c>
@@ -7380,13 +7402,16 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G48">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="H48">
-        <v>18.002929999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11.486660000000001</v>
+      </c>
+      <c r="I48">
+        <v>-7.6974720000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2684</v>
       </c>
@@ -7403,13 +7428,16 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G49">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="H49">
-        <v>18.002929999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11.39282</v>
+      </c>
+      <c r="I49">
+        <v>-7.9143759999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2744</v>
       </c>
@@ -7426,13 +7454,16 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G50">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="H50">
-        <v>18.002929999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11.30585</v>
+      </c>
+      <c r="I50">
+        <v>-8.1154100000000007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2804</v>
       </c>
@@ -7449,13 +7480,16 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G51">
-        <v>2335</v>
+        <v>2338</v>
       </c>
       <c r="H51">
-        <v>18.002929999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11.218870000000001</v>
+      </c>
+      <c r="I51">
+        <v>-8.3164440000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2864</v>
       </c>
@@ -7472,13 +7506,16 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G52">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="H52">
-        <v>18.002929999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11.1319</v>
+      </c>
+      <c r="I52">
+        <v>-8.5174780000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2928</v>
       </c>
@@ -7495,13 +7532,16 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G53">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="H53">
-        <v>18.002929999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11.056369999999999</v>
+      </c>
+      <c r="I53">
+        <v>-8.6920599999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2984</v>
       </c>
@@ -7518,13 +7558,16 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G54">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="H54">
-        <v>18.002929999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.98312</v>
+      </c>
+      <c r="I54">
+        <v>-8.8613510000000009</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3044</v>
       </c>
@@ -7541,13 +7584,16 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G55">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="H55">
-        <v>18.002929999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.900729999999999</v>
+      </c>
+      <c r="I55">
+        <v>-9.0518040000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3104</v>
       </c>
@@ -7564,13 +7610,16 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G56">
-        <v>2583</v>
+        <v>2585</v>
       </c>
       <c r="H56">
-        <v>18.002929999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.82977</v>
+      </c>
+      <c r="I56">
+        <v>-9.2158040000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3164</v>
       </c>
@@ -7587,13 +7636,16 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G57">
-        <v>2635</v>
+        <v>2638</v>
       </c>
       <c r="H57">
-        <v>18.002929999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.75882</v>
+      </c>
+      <c r="I57">
+        <v>-9.3798069999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3224</v>
       </c>
@@ -7610,13 +7662,16 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G58">
-        <v>2684</v>
+        <v>2685</v>
       </c>
       <c r="H58">
-        <v>18.002929999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.690160000000001</v>
+      </c>
+      <c r="I58">
+        <v>-9.5385170000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3284</v>
       </c>
@@ -7633,13 +7688,16 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G59">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="H59">
-        <v>18.002929999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.61234</v>
+      </c>
+      <c r="I59">
+        <v>-9.7183890000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3344</v>
       </c>
@@ -7656,13 +7714,16 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G60">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="H60">
-        <v>18.002929999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.536809999999999</v>
+      </c>
+      <c r="I60">
+        <v>-9.8929709999999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3404</v>
       </c>
@@ -7679,13 +7740,16 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G61">
-        <v>2834</v>
+        <v>2835</v>
       </c>
       <c r="H61">
-        <v>18.002929999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.4567</v>
+      </c>
+      <c r="I61">
+        <v>-10.07813</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3464</v>
       </c>
@@ -7702,13 +7766,16 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G62">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="H62">
-        <v>18.002929999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.38574</v>
+      </c>
+      <c r="I62">
+        <v>-10.24213</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3524</v>
       </c>
@@ -7725,13 +7792,16 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G63">
-        <v>3935</v>
+        <v>2938</v>
       </c>
       <c r="H63">
-        <v>17.693940000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.31021</v>
+      </c>
+      <c r="I63">
+        <v>-10.41672</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3584</v>
       </c>
@@ -7748,13 +7818,16 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G64">
-        <v>3985</v>
+        <v>2985</v>
       </c>
       <c r="H64">
-        <v>17.682500000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.23926</v>
+      </c>
+      <c r="I64">
+        <v>-10.580719999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3644</v>
       </c>
@@ -7771,13 +7844,16 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G65">
-        <v>4035</v>
+        <v>3035</v>
       </c>
       <c r="H65">
-        <v>17.63672</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.170590000000001</v>
+      </c>
+      <c r="I65">
+        <v>-10.73943</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3704</v>
       </c>
@@ -7788,13 +7864,16 @@
         <v>16.542670000000001</v>
       </c>
       <c r="G66">
-        <v>4084</v>
+        <v>3085</v>
       </c>
       <c r="H66">
-        <v>17.485659999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.09277</v>
+      </c>
+      <c r="I66">
+        <v>-10.9193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3764</v>
       </c>
@@ -7805,13 +7884,16 @@
         <v>16.464849999999998</v>
       </c>
       <c r="G67">
-        <v>4137</v>
+        <v>3135</v>
       </c>
       <c r="H67">
-        <v>17.316289999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.058439999999999</v>
+      </c>
+      <c r="I67">
+        <v>-10.998659999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3824</v>
       </c>
@@ -7822,13 +7904,16 @@
         <v>16.435089999999999</v>
       </c>
       <c r="G68">
-        <v>4185</v>
+        <v>3185</v>
       </c>
       <c r="H68">
-        <v>17.153780000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.035550000000001</v>
+      </c>
+      <c r="I68">
+        <v>-11.05156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3884</v>
       </c>
@@ -7839,13 +7924,16 @@
         <v>16.494599999999998</v>
       </c>
       <c r="G69">
-        <v>4235</v>
+        <v>3238</v>
       </c>
       <c r="H69">
-        <v>17.01416</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.01267</v>
+      </c>
+      <c r="I69">
+        <v>-11.10446</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3944</v>
       </c>
@@ -7856,13 +7944,16 @@
         <v>16.547239999999999</v>
       </c>
       <c r="G70">
-        <v>4285</v>
+        <v>3284</v>
       </c>
       <c r="H70">
-        <v>16.888280000000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.01267</v>
+      </c>
+      <c r="I70">
+        <v>-11.10446</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4004</v>
       </c>
@@ -7873,13 +7964,16 @@
         <v>16.535799999999998</v>
       </c>
       <c r="G71">
-        <v>4335</v>
+        <v>3334</v>
       </c>
       <c r="H71">
-        <v>16.741790000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.01267</v>
+      </c>
+      <c r="I71">
+        <v>-11.10446</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4064</v>
       </c>
@@ -7890,13 +7984,16 @@
         <v>16.441960000000002</v>
       </c>
       <c r="G72">
-        <v>4385</v>
+        <v>3384</v>
       </c>
       <c r="H72">
-        <v>16.595310000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.01267</v>
+      </c>
+      <c r="I72">
+        <v>-11.10446</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4124</v>
       </c>
@@ -7907,13 +8004,16 @@
         <v>16.42136</v>
       </c>
       <c r="G73">
-        <v>4437</v>
+        <v>3434</v>
       </c>
       <c r="H73">
-        <v>16.425940000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.01267</v>
+      </c>
+      <c r="I73">
+        <v>-11.10446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>4184</v>
       </c>
@@ -7924,13 +8024,16 @@
         <v>16.471710000000002</v>
       </c>
       <c r="G74">
-        <v>4485</v>
+        <v>3484</v>
       </c>
       <c r="H74">
-        <v>16.322939999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.01267</v>
+      </c>
+      <c r="I74">
+        <v>-11.10446</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4244</v>
       </c>
@@ -7941,13 +8044,16 @@
         <v>16.558689999999999</v>
       </c>
       <c r="G75">
-        <v>4535</v>
+        <v>3537</v>
       </c>
       <c r="H75">
-        <v>16.199339999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.01267</v>
+      </c>
+      <c r="I75">
+        <v>-11.10446</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4304</v>
       </c>
@@ -7958,13 +8064,16 @@
         <v>16.570129999999999</v>
       </c>
       <c r="G76">
-        <v>4585</v>
+        <v>3584</v>
       </c>
       <c r="H76">
-        <v>16.078040000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.01267</v>
+      </c>
+      <c r="I76">
+        <v>-11.10446</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4364</v>
       </c>
@@ -7975,13 +8084,16 @@
         <v>16.512910000000002</v>
       </c>
       <c r="G77">
-        <v>4635</v>
+        <v>3634</v>
       </c>
       <c r="H77">
-        <v>15.95444</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.01267</v>
+      </c>
+      <c r="I77">
+        <v>-11.10446</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4429</v>
       </c>
@@ -7992,13 +8104,16 @@
         <v>16.42136</v>
       </c>
       <c r="G78">
-        <v>4684</v>
+        <v>3684</v>
       </c>
       <c r="H78">
-        <v>15.84229</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.01267</v>
+      </c>
+      <c r="I78">
+        <v>-11.10446</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4484</v>
       </c>
@@ -8009,13 +8124,16 @@
         <v>16.414490000000001</v>
       </c>
       <c r="G79">
-        <v>4737</v>
+        <v>3734</v>
       </c>
       <c r="H79">
-        <v>15.75531</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.01267</v>
+      </c>
+      <c r="I79">
+        <v>-11.10446</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4544</v>
       </c>
@@ -8026,13 +8144,16 @@
         <v>16.490020000000001</v>
       </c>
       <c r="G80">
-        <v>4785</v>
+        <v>3784</v>
       </c>
       <c r="H80">
-        <v>15.647740000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.01267</v>
+      </c>
+      <c r="I80">
+        <v>-11.10446</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4604</v>
       </c>
@@ -8043,13 +8164,16 @@
         <v>16.528929999999999</v>
       </c>
       <c r="G81">
-        <v>4835</v>
+        <v>3837</v>
       </c>
       <c r="H81">
-        <v>15.54932</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.01267</v>
+      </c>
+      <c r="I81">
+        <v>-11.10446</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4664</v>
       </c>
@@ -8060,13 +8184,16 @@
         <v>16.528929999999999</v>
       </c>
       <c r="G82">
-        <v>4885</v>
+        <v>3884</v>
       </c>
       <c r="H82">
-        <v>15.45548</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.01267</v>
+      </c>
+      <c r="I82">
+        <v>-11.10446</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4724</v>
       </c>
@@ -8077,13 +8204,16 @@
         <v>16.460270000000001</v>
       </c>
       <c r="G83">
-        <v>4935</v>
+        <v>3934</v>
       </c>
       <c r="H83">
-        <v>15.38452</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.01267</v>
+      </c>
+      <c r="I83">
+        <v>-11.10446</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>4784</v>
       </c>
@@ -8094,13 +8224,16 @@
         <v>16.4328</v>
       </c>
       <c r="G84">
-        <v>4985</v>
+        <v>3984</v>
       </c>
       <c r="H84">
-        <v>15.32044</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.01267</v>
+      </c>
+      <c r="I84">
+        <v>-11.10446</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>4844</v>
       </c>
@@ -8111,13 +8244,16 @@
         <v>16.494599999999998</v>
       </c>
       <c r="G85">
-        <v>5037</v>
+        <v>4034</v>
       </c>
       <c r="H85">
-        <v>15.26779</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.01267</v>
+      </c>
+      <c r="I85">
+        <v>-11.10446</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4904</v>
       </c>
@@ -8128,13 +8264,16 @@
         <v>16.535799999999998</v>
       </c>
       <c r="G86">
-        <v>5085</v>
+        <v>4084</v>
       </c>
       <c r="H86">
-        <v>15.22659</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.01267</v>
+      </c>
+      <c r="I86">
+        <v>-11.10446</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4964</v>
       </c>
@@ -8145,13 +8284,16 @@
         <v>16.517489999999999</v>
       </c>
       <c r="G87">
-        <v>5135</v>
+        <v>4137</v>
       </c>
       <c r="H87">
-        <v>15.192259999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.01267</v>
+      </c>
+      <c r="I87">
+        <v>-11.10446</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>5024</v>
       </c>
@@ -8162,13 +8304,16 @@
         <v>16.453399999999998</v>
       </c>
       <c r="G88">
-        <v>5185</v>
+        <v>4184</v>
       </c>
       <c r="H88">
-        <v>15.16708</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.01267</v>
+      </c>
+      <c r="I88">
+        <v>-11.10446</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>5084</v>
       </c>
@@ -8179,13 +8324,16 @@
         <v>16.441960000000002</v>
       </c>
       <c r="G89">
-        <v>5235</v>
+        <v>4234</v>
       </c>
       <c r="H89">
-        <v>15.139620000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.01267</v>
+      </c>
+      <c r="I89">
+        <v>-11.10446</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5144</v>
       </c>
@@ -8196,13 +8344,16 @@
         <v>16.506039999999999</v>
       </c>
       <c r="G90">
-        <v>5285</v>
+        <v>4485</v>
       </c>
       <c r="H90">
-        <v>15.103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.15915</v>
+      </c>
+      <c r="I90">
+        <v>-10.765879999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>5204</v>
       </c>
@@ -8213,13 +8364,16 @@
         <v>16.528929999999999</v>
       </c>
       <c r="G91">
-        <v>5337</v>
+        <v>4535</v>
       </c>
       <c r="H91">
-        <v>15.057219999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.163729999999999</v>
+      </c>
+      <c r="I91">
+        <v>-10.7553</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>5264</v>
       </c>
@@ -8230,13 +8384,16 @@
         <v>16.517489999999999</v>
       </c>
       <c r="G92">
-        <v>5385</v>
+        <v>4585</v>
       </c>
       <c r="H92">
-        <v>15.00916</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.204929999999999</v>
+      </c>
+      <c r="I92">
+        <v>-10.660069999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>5324</v>
       </c>
@@ -8247,13 +8404,16 @@
         <v>16.441960000000002</v>
       </c>
       <c r="G93">
-        <v>5435</v>
+        <v>4635</v>
       </c>
       <c r="H93">
-        <v>14.933630000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.305630000000001</v>
+      </c>
+      <c r="I93">
+        <v>-10.427300000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>5384</v>
       </c>
@@ -8264,13 +8424,16 @@
         <v>16.425940000000001</v>
       </c>
       <c r="G94">
-        <v>5485</v>
+        <v>4685</v>
       </c>
       <c r="H94">
-        <v>14.86496</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.399480000000001</v>
+      </c>
+      <c r="I94">
+        <v>-10.21039</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>5444</v>
       </c>
@@ -8281,13 +8444,16 @@
         <v>16.494599999999998</v>
       </c>
       <c r="G95">
-        <v>5535</v>
+        <v>4738</v>
       </c>
       <c r="H95">
-        <v>14.787140000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.502470000000001</v>
+      </c>
+      <c r="I95">
+        <v>-9.9723249999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5504</v>
       </c>
@@ -8298,13 +8464,16 @@
         <v>16.535799999999998</v>
       </c>
       <c r="G96">
-        <v>5585</v>
+        <v>4785</v>
       </c>
       <c r="H96">
-        <v>14.70703</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.60089</v>
+      </c>
+      <c r="I96">
+        <v>-9.7448409999999992</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5564</v>
       </c>
@@ -8315,13 +8484,16 @@
         <v>16.517489999999999</v>
       </c>
       <c r="G97">
-        <v>5637</v>
+        <v>4835</v>
       </c>
       <c r="H97">
-        <v>14.63608</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.69473</v>
+      </c>
+      <c r="I97">
+        <v>-9.5279360000000004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>5624</v>
       </c>
@@ -8332,13 +8504,16 @@
         <v>16.460270000000001</v>
       </c>
       <c r="G98">
-        <v>5685</v>
+        <v>4885</v>
       </c>
       <c r="H98">
-        <v>14.55368</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.806889999999999</v>
+      </c>
+      <c r="I98">
+        <v>-9.2687080000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>5684</v>
       </c>
@@ -8349,13 +8524,16 @@
         <v>16.448820000000001</v>
       </c>
       <c r="G99">
-        <v>5735</v>
+        <v>4935</v>
       </c>
       <c r="H99">
-        <v>14.478149999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.91217</v>
+      </c>
+      <c r="I99">
+        <v>-9.0253519999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>5744</v>
       </c>
@@ -8366,13 +8544,16 @@
         <v>16.506039999999999</v>
       </c>
       <c r="G100">
-        <v>5785</v>
+        <v>4985</v>
       </c>
       <c r="H100">
-        <v>14.466710000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11.01746</v>
+      </c>
+      <c r="I100">
+        <v>-8.7819959999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>5804</v>
       </c>
@@ -8383,13 +8564,16 @@
         <v>16.528929999999999</v>
       </c>
       <c r="G101">
-        <v>5835</v>
+        <v>5038</v>
       </c>
       <c r="H101">
-        <v>14.48273</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11.127319999999999</v>
+      </c>
+      <c r="I101">
+        <v>-8.5280579999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>5864</v>
       </c>
@@ -8400,13 +8584,16 @@
         <v>16.517489999999999</v>
       </c>
       <c r="G102">
-        <v>5885</v>
+        <v>5085</v>
       </c>
       <c r="H102">
-        <v>14.50104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11.212009999999999</v>
+      </c>
+      <c r="I102">
+        <v>-8.3323140000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>5929</v>
       </c>
@@ -8417,626 +8604,629 @@
         <v>16.448820000000001</v>
       </c>
       <c r="G103">
-        <v>5937</v>
+        <v>5135</v>
       </c>
       <c r="H103">
+        <v>11.312709999999999</v>
+      </c>
+      <c r="I103">
+        <v>-8.099539</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G104">
+        <v>5185</v>
+      </c>
+      <c r="H104">
+        <v>11.417999999999999</v>
+      </c>
+      <c r="I104">
+        <v>-7.8561829999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G105">
+        <v>5235</v>
+      </c>
+      <c r="H105">
+        <v>11.52786</v>
+      </c>
+      <c r="I105">
+        <v>-7.6022449999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G106">
+        <v>5285</v>
+      </c>
+      <c r="H106">
+        <v>11.62857</v>
+      </c>
+      <c r="I106">
+        <v>-7.3694699999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G107">
+        <v>5338</v>
+      </c>
+      <c r="H107">
+        <v>11.738429999999999</v>
+      </c>
+      <c r="I107">
+        <v>-7.115532</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G108">
+        <v>5385</v>
+      </c>
+      <c r="H108">
+        <v>11.85059</v>
+      </c>
+      <c r="I108">
+        <v>-6.8563049999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G109">
+        <v>5435</v>
+      </c>
+      <c r="H109">
+        <v>11.95129</v>
+      </c>
+      <c r="I109">
+        <v>-6.6235290000000004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G110">
+        <v>5485</v>
+      </c>
+      <c r="H110">
+        <v>12.06574</v>
+      </c>
+      <c r="I110">
+        <v>-6.3590109999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G111">
+        <v>5535</v>
+      </c>
+      <c r="H111">
+        <v>12.17102</v>
+      </c>
+      <c r="I111">
+        <v>-6.1156540000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G112">
+        <v>5585</v>
+      </c>
+      <c r="H112">
+        <v>12.28546</v>
+      </c>
+      <c r="I112">
+        <v>-5.8511369999999996</v>
+      </c>
+    </row>
+    <row r="113" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G113">
+        <v>5638</v>
+      </c>
+      <c r="H113">
+        <v>12.420500000000001</v>
+      </c>
+      <c r="I113">
+        <v>-5.5390050000000004</v>
+      </c>
+    </row>
+    <row r="114" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G114">
+        <v>5685</v>
+      </c>
+      <c r="H114">
+        <v>12.51892</v>
+      </c>
+      <c r="I114">
+        <v>-5.3115199999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G115">
+        <v>5735</v>
+      </c>
+      <c r="H115">
+        <v>12.6265</v>
+      </c>
+      <c r="I115">
+        <v>-5.0628729999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G116">
+        <v>5785</v>
+      </c>
+      <c r="H116">
+        <v>12.74094</v>
+      </c>
+      <c r="I116">
+        <v>-4.7983560000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G117">
+        <v>5835</v>
+      </c>
+      <c r="H117">
+        <v>12.869109999999999</v>
+      </c>
+      <c r="I117">
+        <v>-4.5020949999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G118">
+        <v>5885</v>
+      </c>
+      <c r="H118">
+        <v>12.99728</v>
+      </c>
+      <c r="I118">
+        <v>-4.2058350000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G119">
+        <v>5938</v>
+      </c>
+      <c r="H119">
+        <v>13.12088</v>
+      </c>
+      <c r="I119">
+        <v>-3.920156</v>
+      </c>
+    </row>
+    <row r="120" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G120">
+        <v>5985</v>
+      </c>
+      <c r="H120">
+        <v>13.23761</v>
+      </c>
+      <c r="I120">
+        <v>-3.650347</v>
+      </c>
+    </row>
+    <row r="121" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G121">
+        <v>6035</v>
+      </c>
+      <c r="H121">
+        <v>13.354340000000001</v>
+      </c>
+      <c r="I121">
+        <v>-3.3805390000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G122">
+        <v>6085</v>
+      </c>
+      <c r="H122">
+        <v>13.47336</v>
+      </c>
+      <c r="I122">
+        <v>-3.1054400000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G123">
+        <v>6135</v>
+      </c>
+      <c r="H123">
+        <v>13.596959999999999</v>
+      </c>
+      <c r="I123">
+        <v>-2.8197610000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G124">
+        <v>6185</v>
+      </c>
+      <c r="H124">
+        <v>13.697660000000001</v>
+      </c>
+      <c r="I124">
+        <v>-2.5869849999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G125">
+        <v>6238</v>
+      </c>
+      <c r="H125">
+        <v>13.81439</v>
+      </c>
+      <c r="I125">
+        <v>-2.317177</v>
+      </c>
+    </row>
+    <row r="126" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G126">
+        <v>6285</v>
+      </c>
+      <c r="H126">
+        <v>13.91968</v>
+      </c>
+      <c r="I126">
+        <v>-2.0738210000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G127">
+        <v>6335</v>
+      </c>
+      <c r="H127">
+        <v>14.002079999999999</v>
+      </c>
+      <c r="I127">
+        <v>-1.8833679999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G128">
+        <v>6385</v>
+      </c>
+      <c r="H128">
+        <v>14.06616</v>
+      </c>
+      <c r="I128">
+        <v>-1.7352380000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G129">
+        <v>6435</v>
+      </c>
+      <c r="H129">
+        <v>14.111940000000001</v>
+      </c>
+      <c r="I129">
+        <v>-1.6294299999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G130">
+        <v>6485</v>
+      </c>
+      <c r="H130">
+        <v>14.134829999999999</v>
+      </c>
+      <c r="I130">
+        <v>-1.576527</v>
+      </c>
+    </row>
+    <row r="131" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G131">
+        <v>6538</v>
+      </c>
+      <c r="H131">
+        <v>14.15085</v>
+      </c>
+      <c r="I131">
+        <v>-1.5394939999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G132">
+        <v>6585</v>
+      </c>
+      <c r="H132">
+        <v>14.157719999999999</v>
+      </c>
+      <c r="I132">
+        <v>-1.5236229999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G133">
+        <v>6635</v>
+      </c>
+      <c r="H133">
+        <v>14.157719999999999</v>
+      </c>
+      <c r="I133">
+        <v>-1.5236229999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G134">
+        <v>6685</v>
+      </c>
+      <c r="H134">
+        <v>14.157719999999999</v>
+      </c>
+      <c r="I134">
+        <v>-1.5236229999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G135">
+        <v>6735</v>
+      </c>
+      <c r="H135">
+        <v>14.157719999999999</v>
+      </c>
+      <c r="I135">
+        <v>-1.5236229999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G136">
+        <v>6785</v>
+      </c>
+      <c r="H136">
+        <v>14.16229</v>
+      </c>
+      <c r="I136">
+        <v>-1.5130429999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G137">
+        <v>6838</v>
+      </c>
+      <c r="H137">
+        <v>14.16229</v>
+      </c>
+      <c r="I137">
+        <v>-1.5130429999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G138">
+        <v>6885</v>
+      </c>
+      <c r="H138">
+        <v>14.16229</v>
+      </c>
+      <c r="I138">
+        <v>-1.5130429999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G139">
+        <v>6935</v>
+      </c>
+      <c r="H139">
+        <v>14.16229</v>
+      </c>
+      <c r="I139">
+        <v>-1.5130429999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G140">
+        <v>6985</v>
+      </c>
+      <c r="H140">
+        <v>14.16229</v>
+      </c>
+      <c r="I140">
+        <v>-1.5130429999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G141">
+        <v>7035</v>
+      </c>
+      <c r="H141">
+        <v>14.16916</v>
+      </c>
+      <c r="I141">
+        <v>-1.497171</v>
+      </c>
+    </row>
+    <row r="142" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G142">
+        <v>7085</v>
+      </c>
+      <c r="H142">
+        <v>14.2012</v>
+      </c>
+      <c r="I142">
+        <v>-1.423106</v>
+      </c>
+    </row>
+    <row r="143" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G143">
+        <v>7138</v>
+      </c>
+      <c r="H143">
+        <v>14.2836</v>
+      </c>
+      <c r="I143">
+        <v>-1.2326539999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G144">
+        <v>7185</v>
+      </c>
+      <c r="H144">
+        <v>14.38889</v>
+      </c>
+      <c r="I144">
+        <v>-0.98929699999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G145">
+        <v>7235</v>
+      </c>
+      <c r="H145">
         <v>14.51248</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G104">
-        <v>5937</v>
-      </c>
-      <c r="H104">
-        <v>14.51248</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G105">
-        <v>5985</v>
-      </c>
-      <c r="H105">
-        <v>14.519349999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G106">
-        <v>5985</v>
-      </c>
-      <c r="H106">
-        <v>14.519349999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G107">
-        <v>6035</v>
-      </c>
-      <c r="H107">
-        <v>14.53079</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G108">
-        <v>6035</v>
-      </c>
-      <c r="H108">
-        <v>14.53079</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G109">
-        <v>6085</v>
-      </c>
-      <c r="H109">
-        <v>14.546810000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G110">
-        <v>6135</v>
-      </c>
-      <c r="H110">
+      <c r="I145">
+        <v>-0.70361770000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G146">
+        <v>7285</v>
+      </c>
+      <c r="H146">
+        <v>14.57199</v>
+      </c>
+      <c r="I146">
+        <v>-0.56606840000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G147">
+        <v>7335</v>
+      </c>
+      <c r="H147">
+        <v>14.57199</v>
+      </c>
+      <c r="I147">
+        <v>-0.56606840000000003</v>
+      </c>
+    </row>
+    <row r="148" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G148">
+        <v>7385</v>
+      </c>
+      <c r="H148">
         <v>14.560549999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G111">
-        <v>6185</v>
-      </c>
-      <c r="H111">
-        <v>14.57199</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G112">
-        <v>6237</v>
-      </c>
-      <c r="H112">
-        <v>14.57657</v>
-      </c>
-    </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G113">
-        <v>6285</v>
-      </c>
-      <c r="H113">
-        <v>14.57199</v>
-      </c>
-    </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G114">
-        <v>6335</v>
-      </c>
-      <c r="H114">
-        <v>14.52393</v>
-      </c>
-    </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G115">
-        <v>6335</v>
-      </c>
-      <c r="H115">
-        <v>14.52393</v>
-      </c>
-    </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G116">
-        <v>6385</v>
-      </c>
-      <c r="H116">
-        <v>14.466710000000001</v>
-      </c>
-    </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G117">
-        <v>6435</v>
-      </c>
-      <c r="H117">
-        <v>14.466710000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G118">
-        <v>6485</v>
-      </c>
-      <c r="H118">
-        <v>14.478149999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G119">
-        <v>6537</v>
-      </c>
-      <c r="H119">
-        <v>14.48959</v>
-      </c>
-    </row>
-    <row r="120" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G120">
-        <v>6585</v>
-      </c>
-      <c r="H120">
-        <v>14.49417</v>
-      </c>
-    </row>
-    <row r="121" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G121">
-        <v>6635</v>
-      </c>
-      <c r="H121">
-        <v>14.49417</v>
-      </c>
-    </row>
-    <row r="122" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G122">
-        <v>6685</v>
-      </c>
-      <c r="H122">
-        <v>14.50562</v>
-      </c>
-    </row>
-    <row r="123" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G123">
-        <v>6735</v>
-      </c>
-      <c r="H123">
-        <v>14.50562</v>
-      </c>
-    </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G124">
-        <v>6785</v>
-      </c>
-      <c r="H124">
-        <v>14.50562</v>
-      </c>
-    </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G125">
-        <v>6837</v>
-      </c>
-      <c r="H125">
-        <v>14.519349999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G126">
-        <v>6837</v>
-      </c>
-      <c r="H126">
-        <v>14.519349999999999</v>
-      </c>
-    </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G127">
-        <v>6885</v>
-      </c>
-      <c r="H127">
-        <v>14.52393</v>
-      </c>
-    </row>
-    <row r="128" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G128">
-        <v>6885</v>
-      </c>
-      <c r="H128">
-        <v>14.52393</v>
-      </c>
-    </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G129">
-        <v>6935</v>
-      </c>
-      <c r="H129">
-        <v>14.519349999999999</v>
-      </c>
-    </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G130">
-        <v>6935</v>
-      </c>
-      <c r="H130">
-        <v>14.519349999999999</v>
-      </c>
-    </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G131">
-        <v>6985</v>
-      </c>
-      <c r="H131">
-        <v>14.52393</v>
-      </c>
-    </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G132">
-        <v>6985</v>
-      </c>
-      <c r="H132">
-        <v>14.52393</v>
-      </c>
-    </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G133">
-        <v>7035</v>
-      </c>
-      <c r="H133">
-        <v>14.53537</v>
-      </c>
-    </row>
-    <row r="134" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G134">
-        <v>7035</v>
-      </c>
-      <c r="H134">
-        <v>14.53537</v>
-      </c>
-    </row>
-    <row r="135" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G135">
-        <v>7085</v>
-      </c>
-      <c r="H135">
-        <v>14.53537</v>
-      </c>
-    </row>
-    <row r="136" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G136">
-        <v>7085</v>
-      </c>
-      <c r="H136">
-        <v>14.53537</v>
-      </c>
-    </row>
-    <row r="137" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G137">
-        <v>7137</v>
-      </c>
-      <c r="H137">
-        <v>14.53079</v>
-      </c>
-    </row>
-    <row r="138" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G138">
-        <v>7137</v>
-      </c>
-      <c r="H138">
-        <v>14.53079</v>
-      </c>
-    </row>
-    <row r="139" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G139">
-        <v>7185</v>
-      </c>
-      <c r="H139">
-        <v>14.53537</v>
-      </c>
-    </row>
-    <row r="140" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G140">
-        <v>7185</v>
-      </c>
-      <c r="H140">
-        <v>14.53537</v>
-      </c>
-    </row>
-    <row r="141" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G141">
-        <v>7235</v>
-      </c>
-      <c r="H141">
-        <v>14.54224</v>
-      </c>
-    </row>
-    <row r="142" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G142">
-        <v>7285</v>
-      </c>
-      <c r="H142">
-        <v>14.546810000000001</v>
-      </c>
-    </row>
-    <row r="143" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G143">
-        <v>7335</v>
-      </c>
-      <c r="H143">
-        <v>14.546810000000001</v>
-      </c>
-    </row>
-    <row r="144" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G144">
-        <v>7385</v>
-      </c>
-      <c r="H144">
-        <v>14.546810000000001</v>
-      </c>
-    </row>
-    <row r="145" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G145">
-        <v>7437</v>
-      </c>
-      <c r="H145">
-        <v>14.55368</v>
-      </c>
-    </row>
-    <row r="146" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G146">
-        <v>7485</v>
-      </c>
-      <c r="H146">
-        <v>14.55368</v>
-      </c>
-    </row>
-    <row r="147" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G147">
-        <v>7535</v>
-      </c>
-      <c r="H147">
-        <v>14.546810000000001</v>
-      </c>
-    </row>
-    <row r="148" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G148">
-        <v>7585</v>
-      </c>
-      <c r="H148">
-        <v>14.546810000000001</v>
-      </c>
-    </row>
-    <row r="149" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="I148">
+        <v>-0.59252020000000005</v>
+      </c>
+    </row>
+    <row r="149" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G149">
-        <v>7635</v>
+        <v>7438</v>
       </c>
       <c r="H149">
         <v>14.546810000000001</v>
       </c>
-    </row>
-    <row r="150" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="I149">
+        <v>-0.62426230000000005</v>
+      </c>
+    </row>
+    <row r="150" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G150">
+        <v>7485</v>
+      </c>
+      <c r="H150">
+        <v>14.546810000000001</v>
+      </c>
+      <c r="I150">
+        <v>-0.62426230000000005</v>
+      </c>
+    </row>
+    <row r="151" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G151">
+        <v>7535</v>
+      </c>
+      <c r="H151">
+        <v>14.56513</v>
+      </c>
+      <c r="I151">
+        <v>-0.58193950000000005</v>
+      </c>
+    </row>
+    <row r="152" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G152">
+        <v>7585</v>
+      </c>
+      <c r="H152">
+        <v>14.61777</v>
+      </c>
+      <c r="I152">
+        <v>-0.46026119999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G153">
+        <v>7635</v>
+      </c>
+      <c r="H153">
+        <v>14.70703</v>
+      </c>
+      <c r="I153">
+        <v>-0.25393719999999997</v>
+      </c>
+    </row>
+    <row r="154" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G154">
         <v>7685</v>
       </c>
-      <c r="H150">
-        <v>14.55368</v>
-      </c>
-    </row>
-    <row r="151" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G151">
-        <v>7737</v>
-      </c>
-      <c r="H151">
-        <v>14.560549999999999</v>
-      </c>
-    </row>
-    <row r="152" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G152">
+      <c r="H154">
+        <v>14.79401</v>
+      </c>
+      <c r="I154">
+        <v>-5.290359E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G155">
+        <v>7738</v>
+      </c>
+      <c r="H155">
+        <v>14.8764</v>
+      </c>
+      <c r="I155">
+        <v>0.13754930000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G156">
         <v>7785</v>
       </c>
-      <c r="H152">
-        <v>14.55368</v>
-      </c>
-    </row>
-    <row r="153" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G153">
-        <v>7835</v>
-      </c>
-      <c r="H153">
-        <v>14.53079</v>
-      </c>
-    </row>
-    <row r="154" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G154">
-        <v>7835</v>
-      </c>
-      <c r="H154">
-        <v>14.53079</v>
-      </c>
-    </row>
-    <row r="155" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G155">
-        <v>7885</v>
-      </c>
-      <c r="H155">
-        <v>14.50562</v>
-      </c>
-    </row>
-    <row r="156" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G156">
-        <v>7935</v>
-      </c>
       <c r="H156">
-        <v>14.49417</v>
-      </c>
-    </row>
-    <row r="157" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G157">
-        <v>7985</v>
-      </c>
-      <c r="H157">
-        <v>14.50104</v>
-      </c>
-    </row>
-    <row r="158" spans="7:8" x14ac:dyDescent="0.2">
+        <v>14.880979999999999</v>
+      </c>
+      <c r="I156">
+        <v>0.14813000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G158">
-        <v>8037</v>
+        <v>6935</v>
       </c>
       <c r="H158">
-        <v>14.50104</v>
-      </c>
-    </row>
-    <row r="159" spans="7:8" x14ac:dyDescent="0.2">
+        <v>14.72992</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G159">
-        <v>8085</v>
+        <v>6985</v>
       </c>
       <c r="H159">
-        <v>14.50562</v>
-      </c>
-    </row>
-    <row r="160" spans="7:8" x14ac:dyDescent="0.2">
+        <v>14.71848</v>
+      </c>
+      <c r="I159">
+        <v>-2.6451789999999999E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G160">
-        <v>8135</v>
+        <v>6985</v>
       </c>
       <c r="H160">
-        <v>14.50562</v>
-      </c>
-    </row>
-    <row r="161" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G161">
-        <v>8185</v>
-      </c>
-      <c r="H161">
-        <v>14.50104</v>
-      </c>
-    </row>
-    <row r="162" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G162">
-        <v>8235</v>
-      </c>
-      <c r="H162">
-        <v>14.50104</v>
-      </c>
-    </row>
-    <row r="163" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G163">
-        <v>8285</v>
-      </c>
-      <c r="H163">
-        <v>14.50562</v>
-      </c>
-    </row>
-    <row r="164" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G164">
-        <v>8337</v>
-      </c>
-      <c r="H164">
-        <v>14.50562</v>
-      </c>
-    </row>
-    <row r="165" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G165">
-        <v>8385</v>
-      </c>
-      <c r="H165">
-        <v>14.50104</v>
-      </c>
-    </row>
-    <row r="166" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G166">
-        <v>8435</v>
-      </c>
-      <c r="H166">
-        <v>14.50562</v>
-      </c>
-    </row>
-    <row r="167" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G167">
-        <v>8485</v>
-      </c>
-      <c r="H167">
-        <v>14.51248</v>
-      </c>
-    </row>
-    <row r="168" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G168">
-        <v>8485</v>
-      </c>
-      <c r="H168">
-        <v>14.51248</v>
-      </c>
-    </row>
-    <row r="169" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G169">
-        <v>8535</v>
-      </c>
-      <c r="H169">
-        <v>14.51248</v>
-      </c>
-    </row>
-    <row r="170" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G170">
-        <v>8535</v>
-      </c>
-      <c r="H170">
-        <v>14.51248</v>
-      </c>
-    </row>
-    <row r="171" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G171">
-        <v>8585</v>
-      </c>
-      <c r="H171">
-        <v>14.51248</v>
-      </c>
-    </row>
-    <row r="172" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G172">
-        <v>8585</v>
-      </c>
-      <c r="H172">
-        <v>14.51248</v>
-      </c>
-    </row>
-    <row r="173" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G173">
-        <v>8637</v>
-      </c>
-      <c r="H173">
-        <v>14.51248</v>
-      </c>
-    </row>
-    <row r="174" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G174">
-        <v>8638</v>
-      </c>
-      <c r="H174">
-        <v>14.51248</v>
-      </c>
-    </row>
-    <row r="175" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G175">
-        <v>8685</v>
-      </c>
-      <c r="H175">
-        <v>14.51248</v>
-      </c>
-    </row>
-    <row r="176" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G176">
-        <v>8685</v>
-      </c>
-      <c r="H176">
-        <v>14.51248</v>
-      </c>
-    </row>
-    <row r="177" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G177">
-        <v>8735</v>
-      </c>
-      <c r="H177">
-        <v>14.519349999999999</v>
-      </c>
-    </row>
-    <row r="178" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G178">
-        <v>8735</v>
-      </c>
-      <c r="H178">
-        <v>14.519349999999999</v>
-      </c>
-    </row>
-    <row r="179" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G179">
-        <v>8785</v>
-      </c>
-      <c r="H179">
-        <v>14.51248</v>
-      </c>
-    </row>
-    <row r="180" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G180">
-        <v>8785</v>
-      </c>
-      <c r="H180">
-        <v>14.51248</v>
+        <v>14.71848</v>
+      </c>
+      <c r="I160">
+        <v>-2.6451789999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Data Plots.xlsx
+++ b/Data Plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliawolken/Library/Mobile Documents/com~apple~CloudDocs/SCHOOL/CAL POLY/CP QUARTERS/Poly Winter '24/ME 405 Lab/ME405-Term-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62703A3-796E-C54D-9327-3CFD01AAE99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F34EF1F-E834-3646-BEE8-3CD9BB5A48B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="760" windowWidth="24200" windowHeight="17180" xr2:uid="{67320AA8-6281-8748-86BD-E46B7DC5E4AF}"/>
+    <workbookView xWindow="1020" yWindow="760" windowWidth="24200" windowHeight="17180" xr2:uid="{67320AA8-6281-8748-86BD-E46B7DC5E4AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2850,7 +2850,7 @@
                   <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>537</c:v>
+                  <c:v>538</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>585</c:v>
@@ -2868,421 +2868,313 @@
                   <c:v>785</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>837</c:v>
+                  <c:v>838</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>885</c:v>
+                  <c:v>884</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>935</c:v>
+                  <c:v>934</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>985</c:v>
+                  <c:v>984</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1035</c:v>
+                  <c:v>1034</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1085</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1138</c:v>
+                  <c:v>1137</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1185</c:v>
+                  <c:v>1184</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1235</c:v>
+                  <c:v>1234</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1285</c:v>
+                  <c:v>1284</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1335</c:v>
+                  <c:v>1334</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1385</c:v>
+                  <c:v>1384</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1438</c:v>
+                  <c:v>1437</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1485</c:v>
+                  <c:v>1484</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1535</c:v>
+                  <c:v>1534</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1585</c:v>
+                  <c:v>1584</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1635</c:v>
+                  <c:v>1634</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1685</c:v>
+                  <c:v>1684</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1738</c:v>
+                  <c:v>1737</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1785</c:v>
+                  <c:v>1784</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1835</c:v>
+                  <c:v>1834</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1885</c:v>
+                  <c:v>2085</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1935</c:v>
+                  <c:v>2135</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1985</c:v>
+                  <c:v>2185</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2038</c:v>
+                  <c:v>2235</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2085</c:v>
+                  <c:v>2285</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2135</c:v>
+                  <c:v>2338</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2185</c:v>
+                  <c:v>2385</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2235</c:v>
+                  <c:v>2435</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2285</c:v>
+                  <c:v>2485</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2338</c:v>
+                  <c:v>2535</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2385</c:v>
+                  <c:v>2585</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2435</c:v>
+                  <c:v>2638</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2485</c:v>
+                  <c:v>2685</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2535</c:v>
+                  <c:v>2735</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2585</c:v>
+                  <c:v>2785</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2638</c:v>
+                  <c:v>2835</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2685</c:v>
+                  <c:v>2885</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2735</c:v>
+                  <c:v>2938</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2785</c:v>
+                  <c:v>2985</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2835</c:v>
+                  <c:v>3035</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2885</c:v>
+                  <c:v>3085</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2938</c:v>
+                  <c:v>3135</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2985</c:v>
+                  <c:v>3185</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3035</c:v>
+                  <c:v>3238</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3085</c:v>
+                  <c:v>3285</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3135</c:v>
+                  <c:v>3335</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3185</c:v>
+                  <c:v>3385</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3238</c:v>
+                  <c:v>3435</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3284</c:v>
+                  <c:v>3485</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3334</c:v>
+                  <c:v>3538</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3384</c:v>
+                  <c:v>3585</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3434</c:v>
+                  <c:v>3635</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3484</c:v>
+                  <c:v>3685</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3537</c:v>
+                  <c:v>3735</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3584</c:v>
+                  <c:v>3785</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3634</c:v>
+                  <c:v>3838</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3684</c:v>
+                  <c:v>3885</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3734</c:v>
+                  <c:v>3935</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3784</c:v>
+                  <c:v>3985</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3837</c:v>
+                  <c:v>4035</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3884</c:v>
+                  <c:v>4085</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3934</c:v>
+                  <c:v>4086</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3984</c:v>
+                  <c:v>4138</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4034</c:v>
+                  <c:v>4139</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4084</c:v>
+                  <c:v>4185</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4137</c:v>
+                  <c:v>4186</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4184</c:v>
+                  <c:v>4235</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4234</c:v>
+                  <c:v>4236</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>4285</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4286</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4335</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4336</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4385</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4386</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4438</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4439</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>4485</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="95">
+                  <c:v>4486</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>4535</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="97">
+                  <c:v>4536</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>4585</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="99">
+                  <c:v>4586</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>4635</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="101">
+                  <c:v>4636</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>4685</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="103">
+                  <c:v>4686</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>4738</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="105">
+                  <c:v>4739</c:v>
+                </c:pt>
+                <c:pt idx="106">
                   <c:v>4785</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="107">
+                  <c:v>4786</c:v>
+                </c:pt>
+                <c:pt idx="108">
                   <c:v>4835</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="109">
                   <c:v>4885</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="110">
                   <c:v>4935</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="111">
+                  <c:v>4936</c:v>
+                </c:pt>
+                <c:pt idx="112">
                   <c:v>4985</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="113">
+                  <c:v>4986</c:v>
+                </c:pt>
+                <c:pt idx="114">
                   <c:v>5038</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="115">
+                  <c:v>5039</c:v>
+                </c:pt>
+                <c:pt idx="116">
                   <c:v>5085</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="117">
+                  <c:v>5086</c:v>
+                </c:pt>
+                <c:pt idx="118">
                   <c:v>5135</c:v>
                 </c:pt>
-                <c:pt idx="100">
-                  <c:v>5185</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>5235</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>5285</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>5338</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>5385</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>5435</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>5485</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>5535</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>5585</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>5638</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>5685</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>5735</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>5785</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>5835</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>5885</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>5938</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>5985</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>6035</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>6085</c:v>
-                </c:pt>
                 <c:pt idx="119">
-                  <c:v>6135</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>6185</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>6238</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>6285</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>6335</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>6385</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>6435</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>6485</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>6538</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>6585</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>6635</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>6685</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>6735</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>6785</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>6838</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>6885</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>6935</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>6985</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>7035</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>7085</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>7138</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>7185</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>7235</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>7285</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>7335</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>7385</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>7438</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>7485</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>7535</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>7585</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>7635</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>7685</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>7738</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>7785</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>6935</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>6985</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>6985</c:v>
+                  <c:v>5136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3294,472 +3186,364 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="202"/>
                 <c:pt idx="0">
+                  <c:v>14.74136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.74136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.74136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.734500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.74136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.798579999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.96796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.19684</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.418850000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.617979999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.853730000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.052859999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.235959999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.414490000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.606750000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.810459999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.968389999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.00958</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.00958</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.00958</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.00958</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.00958</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.00958</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.00958</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.00958</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.00958</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.00958</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.00958</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.00958</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.00958</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.00958</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.00958</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.00958</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.00958</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.00958</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.00958</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17.00958</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.00958</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.764679999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16.746369999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16.599889999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.348120000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.135259999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15.88348</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15.702669999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.48981</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15.30899</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.17853</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15.057219999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14.986269999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14.945069999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14.933630000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14.9176</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14.90616</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14.88785</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14.88785</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.899290000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14.899290000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.892429999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14.899290000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14.899290000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14.899290000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14.910740000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>14.910740000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14.910740000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14.9176</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14.910740000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.910740000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14.899290000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14.88785</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14.892429999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14.88785</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14.8764</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14.869540000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14.86496</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>14.85352</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>14.8169</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.8169</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.8169</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.8169</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.8169</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.8169</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.8169</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.80545</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="77">
                   <c:v>14.78256</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.77112</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.77112</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.77112</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.764250000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.764250000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="78">
+                  <c:v>14.75281</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14.75281</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>14.734500000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>14.734500000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>14.72992</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>14.72992</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>14.734500000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>14.734500000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>14.734500000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14.734500000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>14.72992</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14.72992</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>14.72992</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>14.72992</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>14.734500000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14.734500000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>14.734500000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>14.734500000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>14.745939999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>14.745939999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>14.745939999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>14.745939999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>14.745939999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>14.745939999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>14.745939999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>14.745939999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>14.745939999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>14.745939999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>14.745939999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>14.745939999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
                   <c:v>14.759679999999999</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>14.734500000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.68872</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14.59488</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14.50104</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14.384309999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14.249269999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14.1005</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>13.94257</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13.78464</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13.645020000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13.4848</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>13.354340000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13.233029999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13.10257</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12.992710000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>12.87598</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>12.76383</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>12.66541</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>12.56012</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12.45026</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12.32666</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12.22824</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12.134399999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12.03598</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11.955870000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>11.85059</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>11.7453</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>11.67435</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>11.58737</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>11.486660000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>11.39282</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>11.30585</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>11.218870000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>11.1319</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>11.056369999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>10.98312</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>10.900729999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>10.82977</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>10.75882</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>10.690160000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>10.61234</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>10.536809999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>10.4567</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>10.38574</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>10.31021</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>10.23926</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>10.170590000000001</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>10.09277</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>10.058439999999999</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>10.035550000000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>10.01267</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>10.01267</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>10.01267</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>10.01267</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>10.01267</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>10.01267</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10.01267</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>10.01267</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>10.01267</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>10.01267</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>10.01267</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10.01267</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>10.01267</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>10.01267</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>10.01267</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>10.01267</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>10.01267</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>10.01267</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>10.01267</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>10.01267</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>10.01267</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>10.15915</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>10.163729999999999</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>10.204929999999999</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>10.305630000000001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>10.399480000000001</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>10.502470000000001</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>10.60089</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>10.69473</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>10.806889999999999</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>10.91217</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>11.01746</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>11.127319999999999</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>11.212009999999999</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>11.312709999999999</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>11.417999999999999</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>11.52786</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>11.62857</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>11.738429999999999</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>11.85059</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>11.95129</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>12.06574</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>12.17102</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>12.28546</c:v>
-                </c:pt>
                 <c:pt idx="109">
-                  <c:v>12.420500000000001</c:v>
+                  <c:v>14.759679999999999</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>12.51892</c:v>
+                  <c:v>14.75281</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>12.6265</c:v>
+                  <c:v>14.75281</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>12.74094</c:v>
+                  <c:v>14.75281</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>12.869109999999999</c:v>
+                  <c:v>14.75281</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>12.99728</c:v>
+                  <c:v>14.745939999999999</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>13.12088</c:v>
+                  <c:v>14.745939999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>13.23761</c:v>
+                  <c:v>14.745939999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>13.354340000000001</c:v>
+                  <c:v>14.745939999999999</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>13.47336</c:v>
+                  <c:v>14.75281</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>13.596959999999999</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>13.697660000000001</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>13.81439</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>13.91968</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>14.002079999999999</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>14.06616</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>14.111940000000001</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>14.134829999999999</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>14.15085</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>14.157719999999999</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>14.157719999999999</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>14.157719999999999</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>14.157719999999999</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>14.16229</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>14.16229</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>14.16229</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>14.16229</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>14.16229</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>14.16916</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>14.2012</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>14.2836</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>14.38889</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>14.51248</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>14.57199</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>14.57199</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>14.560549999999999</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>14.546810000000001</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>14.546810000000001</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>14.56513</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>14.61777</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>14.70703</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>14.79401</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>14.8764</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>14.880979999999999</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>14.72992</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>14.71848</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>14.71848</c:v>
+                  <c:v>14.75281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3903,7 +3687,7 @@
         <c:axId val="1161109728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="9"/>
+          <c:min val="12"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6169,10 +5953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8091119-6192-0845-ACD3-5EE477BCCD31}">
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="K5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6261,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>14.8169</v>
+        <v>14.74136</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -6287,7 +6071,7 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>14.8169</v>
+        <v>14.74136</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -6313,7 +6097,7 @@
         <v>85</v>
       </c>
       <c r="H6">
-        <v>14.8169</v>
+        <v>14.74136</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -6339,10 +6123,10 @@
         <v>135</v>
       </c>
       <c r="H7">
-        <v>14.8169</v>
+        <v>14.734500000000001</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>-1.5871079999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -6365,7 +6149,7 @@
         <v>185</v>
       </c>
       <c r="H8">
-        <v>14.8169</v>
+        <v>14.74136</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -6391,10 +6175,10 @@
         <v>237</v>
       </c>
       <c r="H9">
-        <v>14.8169</v>
+        <v>14.798579999999999</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.13225899999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -6417,10 +6201,10 @@
         <v>285</v>
       </c>
       <c r="H10">
-        <v>14.8169</v>
+        <v>14.96796</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.52374549999999997</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -6443,10 +6227,10 @@
         <v>335</v>
       </c>
       <c r="H11">
-        <v>14.80545</v>
+        <v>15.19684</v>
       </c>
       <c r="I11">
-        <v>-2.6451789999999999E-2</v>
+        <v>1.052781</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -6469,10 +6253,10 @@
         <v>385</v>
       </c>
       <c r="H12">
-        <v>14.78256</v>
+        <v>15.418850000000001</v>
       </c>
       <c r="I12">
-        <v>-7.9355380000000003E-2</v>
+        <v>1.5659460000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -6495,10 +6279,10 @@
         <v>435</v>
       </c>
       <c r="H13">
-        <v>14.77112</v>
+        <v>15.617979999999999</v>
       </c>
       <c r="I13">
-        <v>-0.1058072</v>
+        <v>2.0262069999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -6521,10 +6305,10 @@
         <v>485</v>
       </c>
       <c r="H14">
-        <v>14.77112</v>
+        <v>15.853730000000001</v>
       </c>
       <c r="I14">
-        <v>-0.1058072</v>
+        <v>2.5711140000000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -6544,13 +6328,13 @@
         <v>14.95651</v>
       </c>
       <c r="G15">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H15">
-        <v>14.77112</v>
+        <v>16.052859999999999</v>
       </c>
       <c r="I15">
-        <v>-0.1058072</v>
+        <v>3.0313780000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -6573,10 +6357,10 @@
         <v>585</v>
       </c>
       <c r="H16">
-        <v>14.764250000000001</v>
+        <v>16.235959999999999</v>
       </c>
       <c r="I16">
-        <v>-0.1216782</v>
+        <v>3.4546070000000002</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -6599,10 +6383,10 @@
         <v>635</v>
       </c>
       <c r="H17">
-        <v>14.764250000000001</v>
+        <v>16.414490000000001</v>
       </c>
       <c r="I17">
-        <v>-0.1216782</v>
+        <v>3.867254</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -6625,10 +6409,10 @@
         <v>685</v>
       </c>
       <c r="H18">
-        <v>14.759679999999999</v>
+        <v>16.606750000000002</v>
       </c>
       <c r="I18">
-        <v>-0.13225899999999999</v>
+        <v>4.3116440000000003</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -6651,10 +6435,10 @@
         <v>735</v>
       </c>
       <c r="H19">
-        <v>14.734500000000001</v>
+        <v>16.810459999999999</v>
       </c>
       <c r="I19">
-        <v>-0.19045290000000001</v>
+        <v>4.7824859999999996</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -6677,10 +6461,10 @@
         <v>785</v>
       </c>
       <c r="H20">
-        <v>14.68872</v>
+        <v>16.968389999999999</v>
       </c>
       <c r="I20">
-        <v>-0.29626010000000003</v>
+        <v>5.1475210000000002</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -6700,13 +6484,13 @@
         <v>14.869540000000001</v>
       </c>
       <c r="G21">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H21">
-        <v>14.59488</v>
+        <v>17.00958</v>
       </c>
       <c r="I21">
-        <v>-0.51316479999999998</v>
+        <v>5.2427469999999996</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -6726,13 +6510,13 @@
         <v>14.858090000000001</v>
       </c>
       <c r="G22">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H22">
-        <v>14.50104</v>
+        <v>17.00958</v>
       </c>
       <c r="I22">
-        <v>-0.73006939999999998</v>
+        <v>5.2427469999999996</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -6752,13 +6536,13 @@
         <v>14.83521</v>
       </c>
       <c r="G23">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H23">
-        <v>14.384309999999999</v>
+        <v>17.00958</v>
       </c>
       <c r="I23">
-        <v>-0.99987769999999998</v>
+        <v>5.2427469999999996</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -6778,13 +6562,13 @@
         <v>14.828340000000001</v>
       </c>
       <c r="G24">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H24">
-        <v>14.249269999999999</v>
+        <v>17.00958</v>
       </c>
       <c r="I24">
-        <v>-1.312009</v>
+        <v>5.2427469999999996</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -6804,13 +6588,13 @@
         <v>14.78256</v>
       </c>
       <c r="G25">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H25">
-        <v>14.1005</v>
+        <v>17.00958</v>
       </c>
       <c r="I25">
-        <v>-1.6558820000000001</v>
+        <v>5.2427469999999996</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -6830,13 +6614,13 @@
         <v>14.723050000000001</v>
       </c>
       <c r="G26">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H26">
-        <v>13.94257</v>
+        <v>17.00958</v>
       </c>
       <c r="I26">
-        <v>-2.0209169999999999</v>
+        <v>5.2427469999999996</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -6856,13 +6640,13 @@
         <v>14.65897</v>
       </c>
       <c r="G27">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H27">
-        <v>13.78464</v>
+        <v>17.00958</v>
       </c>
       <c r="I27">
-        <v>-2.3859520000000001</v>
+        <v>5.2427469999999996</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -6882,13 +6666,13 @@
         <v>14.48959</v>
       </c>
       <c r="G28">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H28">
-        <v>13.645020000000001</v>
+        <v>17.00958</v>
       </c>
       <c r="I28">
-        <v>-2.708663</v>
+        <v>5.2427469999999996</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -6908,13 +6692,13 @@
         <v>14.372859999999999</v>
       </c>
       <c r="G29">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H29">
-        <v>13.4848</v>
+        <v>17.00958</v>
       </c>
       <c r="I29">
-        <v>-3.078989</v>
+        <v>5.2427469999999996</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -6934,13 +6718,13 @@
         <v>14.237819999999999</v>
       </c>
       <c r="G30">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H30">
-        <v>13.354340000000001</v>
+        <v>17.00958</v>
       </c>
       <c r="I30">
-        <v>-3.3805390000000002</v>
+        <v>5.2427469999999996</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -6960,13 +6744,13 @@
         <v>14.03641</v>
       </c>
       <c r="G31">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H31">
-        <v>13.233029999999999</v>
+        <v>17.00958</v>
       </c>
       <c r="I31">
-        <v>-3.6609280000000002</v>
+        <v>5.2427469999999996</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -6986,13 +6770,13 @@
         <v>13.99521</v>
       </c>
       <c r="G32">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H32">
-        <v>13.10257</v>
+        <v>17.00958</v>
       </c>
       <c r="I32">
-        <v>-3.9624790000000001</v>
+        <v>5.2427469999999996</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -7012,13 +6796,13 @@
         <v>13.94257</v>
       </c>
       <c r="G33">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="H33">
-        <v>12.992710000000001</v>
+        <v>17.00958</v>
       </c>
       <c r="I33">
-        <v>-4.2164159999999997</v>
+        <v>5.2427469999999996</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -7038,13 +6822,13 @@
         <v>13.802949999999999</v>
       </c>
       <c r="G34">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H34">
-        <v>12.87598</v>
+        <v>17.00958</v>
       </c>
       <c r="I34">
-        <v>-4.486224</v>
+        <v>5.2427469999999996</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -7064,13 +6848,13 @@
         <v>13.75488</v>
       </c>
       <c r="G35">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H35">
-        <v>12.76383</v>
+        <v>17.00958</v>
       </c>
       <c r="I35">
-        <v>-4.7454510000000001</v>
+        <v>5.2427469999999996</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -7090,13 +6874,13 @@
         <v>13.72513</v>
       </c>
       <c r="G36">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H36">
-        <v>12.66541</v>
+        <v>17.00958</v>
       </c>
       <c r="I36">
-        <v>-4.9729369999999999</v>
+        <v>5.2427469999999996</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -7116,13 +6900,13 @@
         <v>13.61984</v>
       </c>
       <c r="G37">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H37">
-        <v>12.56012</v>
+        <v>17.00958</v>
       </c>
       <c r="I37">
-        <v>-5.2162940000000004</v>
+        <v>5.2427469999999996</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -7142,13 +6926,13 @@
         <v>13.555759999999999</v>
       </c>
       <c r="G38">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H38">
-        <v>12.45026</v>
+        <v>17.00958</v>
       </c>
       <c r="I38">
-        <v>-5.4702310000000001</v>
+        <v>5.2427469999999996</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -7168,13 +6952,13 @@
         <v>13.526</v>
       </c>
       <c r="G39">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="H39">
-        <v>12.32666</v>
+        <v>17.00958</v>
       </c>
       <c r="I39">
-        <v>-5.7559100000000001</v>
+        <v>5.2427469999999996</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -7194,13 +6978,13 @@
         <v>13.418430000000001</v>
       </c>
       <c r="G40">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="H40">
-        <v>12.22824</v>
+        <v>17.00958</v>
       </c>
       <c r="I40">
-        <v>-5.9833959999999999</v>
+        <v>5.2427469999999996</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -7220,13 +7004,13 @@
         <v>13.365780000000001</v>
       </c>
       <c r="G41">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="H41">
-        <v>12.134399999999999</v>
+        <v>17.00958</v>
       </c>
       <c r="I41">
-        <v>-6.2003009999999996</v>
+        <v>5.2427469999999996</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -7246,13 +7030,13 @@
         <v>13.306279999999999</v>
       </c>
       <c r="G42">
-        <v>1885</v>
+        <v>2085</v>
       </c>
       <c r="H42">
-        <v>12.03598</v>
+        <v>16.764679999999998</v>
       </c>
       <c r="I42">
-        <v>-6.4277860000000002</v>
+        <v>4.676679</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -7272,13 +7056,13 @@
         <v>13.203279999999999</v>
       </c>
       <c r="G43">
-        <v>1935</v>
+        <v>2135</v>
       </c>
       <c r="H43">
-        <v>11.955870000000001</v>
+        <v>16.746369999999999</v>
       </c>
       <c r="I43">
-        <v>-6.6129480000000003</v>
+        <v>4.6343560000000004</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -7298,13 +7082,13 @@
         <v>13.12088</v>
       </c>
       <c r="G44">
-        <v>1985</v>
+        <v>2185</v>
       </c>
       <c r="H44">
-        <v>11.85059</v>
+        <v>16.599889999999998</v>
       </c>
       <c r="I44">
-        <v>-6.8563049999999999</v>
+        <v>4.2957739999999998</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -7324,13 +7108,13 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G45">
-        <v>2038</v>
+        <v>2235</v>
       </c>
       <c r="H45">
-        <v>11.7453</v>
+        <v>16.348120000000002</v>
       </c>
       <c r="I45">
-        <v>-7.0996610000000002</v>
+        <v>3.7138339999999999</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -7350,13 +7134,13 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G46">
-        <v>2085</v>
+        <v>2285</v>
       </c>
       <c r="H46">
-        <v>11.67435</v>
+        <v>16.135259999999999</v>
       </c>
       <c r="I46">
-        <v>-7.2636620000000001</v>
+        <v>3.2218309999999999</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -7376,13 +7160,13 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G47">
-        <v>2135</v>
+        <v>2338</v>
       </c>
       <c r="H47">
-        <v>11.58737</v>
+        <v>15.88348</v>
       </c>
       <c r="I47">
-        <v>-7.464696</v>
+        <v>2.6398890000000002</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -7402,13 +7186,13 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G48">
-        <v>2185</v>
+        <v>2385</v>
       </c>
       <c r="H48">
-        <v>11.486660000000001</v>
+        <v>15.702669999999999</v>
       </c>
       <c r="I48">
-        <v>-7.6974720000000003</v>
+        <v>2.2219509999999998</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -7428,13 +7212,13 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G49">
-        <v>2235</v>
+        <v>2435</v>
       </c>
       <c r="H49">
-        <v>11.39282</v>
+        <v>15.48981</v>
       </c>
       <c r="I49">
-        <v>-7.9143759999999999</v>
+        <v>1.7299469999999999</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -7454,13 +7238,13 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G50">
-        <v>2285</v>
+        <v>2485</v>
       </c>
       <c r="H50">
-        <v>11.30585</v>
+        <v>15.30899</v>
       </c>
       <c r="I50">
-        <v>-8.1154100000000007</v>
+        <v>1.312009</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -7480,13 +7264,13 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G51">
-        <v>2338</v>
+        <v>2535</v>
       </c>
       <c r="H51">
-        <v>11.218870000000001</v>
+        <v>15.17853</v>
       </c>
       <c r="I51">
-        <v>-8.3164440000000006</v>
+        <v>1.0104580000000001</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -7506,13 +7290,13 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G52">
-        <v>2385</v>
+        <v>2585</v>
       </c>
       <c r="H52">
-        <v>11.1319</v>
+        <v>15.057219999999999</v>
       </c>
       <c r="I52">
-        <v>-8.5174780000000005</v>
+        <v>0.73006939999999998</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -7532,13 +7316,13 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G53">
-        <v>2435</v>
+        <v>2638</v>
       </c>
       <c r="H53">
-        <v>11.056369999999999</v>
+        <v>14.986269999999999</v>
       </c>
       <c r="I53">
-        <v>-8.6920599999999997</v>
+        <v>0.56606840000000003</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -7558,13 +7342,13 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G54">
-        <v>2485</v>
+        <v>2685</v>
       </c>
       <c r="H54">
-        <v>10.98312</v>
+        <v>14.945069999999999</v>
       </c>
       <c r="I54">
-        <v>-8.8613510000000009</v>
+        <v>0.47084189999999998</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -7584,13 +7368,13 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G55">
-        <v>2535</v>
+        <v>2735</v>
       </c>
       <c r="H55">
-        <v>10.900729999999999</v>
+        <v>14.933630000000001</v>
       </c>
       <c r="I55">
-        <v>-9.0518040000000006</v>
+        <v>0.44439010000000001</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -7610,13 +7394,13 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G56">
-        <v>2585</v>
+        <v>2785</v>
       </c>
       <c r="H56">
-        <v>10.82977</v>
+        <v>14.9176</v>
       </c>
       <c r="I56">
-        <v>-9.2158040000000003</v>
+        <v>0.40735759999999999</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -7636,13 +7420,13 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G57">
-        <v>2638</v>
+        <v>2835</v>
       </c>
       <c r="H57">
-        <v>10.75882</v>
+        <v>14.90616</v>
       </c>
       <c r="I57">
-        <v>-9.3798069999999996</v>
+        <v>0.38090580000000002</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -7662,13 +7446,13 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G58">
-        <v>2685</v>
+        <v>2885</v>
       </c>
       <c r="H58">
-        <v>10.690160000000001</v>
+        <v>14.88785</v>
       </c>
       <c r="I58">
-        <v>-9.5385170000000006</v>
+        <v>0.33858290000000002</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -7688,13 +7472,13 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G59">
-        <v>2735</v>
+        <v>2938</v>
       </c>
       <c r="H59">
-        <v>10.61234</v>
+        <v>14.88785</v>
       </c>
       <c r="I59">
-        <v>-9.7183890000000002</v>
+        <v>0.33858290000000002</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -7714,13 +7498,13 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G60">
-        <v>2785</v>
+        <v>2985</v>
       </c>
       <c r="H60">
-        <v>10.536809999999999</v>
+        <v>14.899290000000001</v>
       </c>
       <c r="I60">
-        <v>-9.8929709999999993</v>
+        <v>0.36503469999999999</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -7740,13 +7524,13 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G61">
-        <v>2835</v>
+        <v>3035</v>
       </c>
       <c r="H61">
-        <v>10.4567</v>
+        <v>14.899290000000001</v>
       </c>
       <c r="I61">
-        <v>-10.07813</v>
+        <v>0.36503469999999999</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -7766,13 +7550,13 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G62">
-        <v>2885</v>
+        <v>3085</v>
       </c>
       <c r="H62">
-        <v>10.38574</v>
+        <v>14.892429999999999</v>
       </c>
       <c r="I62">
-        <v>-10.24213</v>
+        <v>0.34916370000000002</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -7792,13 +7576,13 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G63">
-        <v>2938</v>
+        <v>3135</v>
       </c>
       <c r="H63">
-        <v>10.31021</v>
+        <v>14.899290000000001</v>
       </c>
       <c r="I63">
-        <v>-10.41672</v>
+        <v>0.36503469999999999</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -7818,13 +7602,13 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G64">
-        <v>2985</v>
+        <v>3185</v>
       </c>
       <c r="H64">
-        <v>10.23926</v>
+        <v>14.899290000000001</v>
       </c>
       <c r="I64">
-        <v>-10.580719999999999</v>
+        <v>0.36503469999999999</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -7844,13 +7628,13 @@
         <v>13.004149999999999</v>
       </c>
       <c r="G65">
-        <v>3035</v>
+        <v>3238</v>
       </c>
       <c r="H65">
-        <v>10.170590000000001</v>
+        <v>14.899290000000001</v>
       </c>
       <c r="I65">
-        <v>-10.73943</v>
+        <v>0.36503469999999999</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -7864,13 +7648,13 @@
         <v>16.542670000000001</v>
       </c>
       <c r="G66">
-        <v>3085</v>
+        <v>3285</v>
       </c>
       <c r="H66">
-        <v>10.09277</v>
+        <v>14.910740000000001</v>
       </c>
       <c r="I66">
-        <v>-10.9193</v>
+        <v>0.39148650000000002</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -7884,13 +7668,13 @@
         <v>16.464849999999998</v>
       </c>
       <c r="G67">
-        <v>3135</v>
+        <v>3335</v>
       </c>
       <c r="H67">
-        <v>10.058439999999999</v>
+        <v>14.910740000000001</v>
       </c>
       <c r="I67">
-        <v>-10.998659999999999</v>
+        <v>0.39148650000000002</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -7904,13 +7688,13 @@
         <v>16.435089999999999</v>
       </c>
       <c r="G68">
-        <v>3185</v>
+        <v>3385</v>
       </c>
       <c r="H68">
-        <v>10.035550000000001</v>
+        <v>14.910740000000001</v>
       </c>
       <c r="I68">
-        <v>-11.05156</v>
+        <v>0.39148650000000002</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -7924,13 +7708,13 @@
         <v>16.494599999999998</v>
       </c>
       <c r="G69">
-        <v>3238</v>
+        <v>3435</v>
       </c>
       <c r="H69">
-        <v>10.01267</v>
+        <v>14.9176</v>
       </c>
       <c r="I69">
-        <v>-11.10446</v>
+        <v>0.40735759999999999</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -7944,13 +7728,13 @@
         <v>16.547239999999999</v>
       </c>
       <c r="G70">
-        <v>3284</v>
+        <v>3485</v>
       </c>
       <c r="H70">
-        <v>10.01267</v>
+        <v>14.910740000000001</v>
       </c>
       <c r="I70">
-        <v>-11.10446</v>
+        <v>0.39148650000000002</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -7964,13 +7748,13 @@
         <v>16.535799999999998</v>
       </c>
       <c r="G71">
-        <v>3334</v>
+        <v>3538</v>
       </c>
       <c r="H71">
-        <v>10.01267</v>
+        <v>14.910740000000001</v>
       </c>
       <c r="I71">
-        <v>-11.10446</v>
+        <v>0.39148650000000002</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -7984,13 +7768,13 @@
         <v>16.441960000000002</v>
       </c>
       <c r="G72">
-        <v>3384</v>
+        <v>3585</v>
       </c>
       <c r="H72">
-        <v>10.01267</v>
+        <v>14.899290000000001</v>
       </c>
       <c r="I72">
-        <v>-11.10446</v>
+        <v>0.36503469999999999</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -8004,13 +7788,13 @@
         <v>16.42136</v>
       </c>
       <c r="G73">
-        <v>3434</v>
+        <v>3635</v>
       </c>
       <c r="H73">
-        <v>10.01267</v>
+        <v>14.88785</v>
       </c>
       <c r="I73">
-        <v>-11.10446</v>
+        <v>0.33858290000000002</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -8024,13 +7808,13 @@
         <v>16.471710000000002</v>
       </c>
       <c r="G74">
-        <v>3484</v>
+        <v>3685</v>
       </c>
       <c r="H74">
-        <v>10.01267</v>
+        <v>14.892429999999999</v>
       </c>
       <c r="I74">
-        <v>-11.10446</v>
+        <v>0.34916370000000002</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -8044,13 +7828,13 @@
         <v>16.558689999999999</v>
       </c>
       <c r="G75">
-        <v>3537</v>
+        <v>3735</v>
       </c>
       <c r="H75">
-        <v>10.01267</v>
+        <v>14.88785</v>
       </c>
       <c r="I75">
-        <v>-11.10446</v>
+        <v>0.33858290000000002</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -8064,13 +7848,13 @@
         <v>16.570129999999999</v>
       </c>
       <c r="G76">
-        <v>3584</v>
+        <v>3785</v>
       </c>
       <c r="H76">
-        <v>10.01267</v>
+        <v>14.8764</v>
       </c>
       <c r="I76">
-        <v>-11.10446</v>
+        <v>0.31213109999999999</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -8084,13 +7868,13 @@
         <v>16.512910000000002</v>
       </c>
       <c r="G77">
-        <v>3634</v>
+        <v>3838</v>
       </c>
       <c r="H77">
-        <v>10.01267</v>
+        <v>14.869540000000001</v>
       </c>
       <c r="I77">
-        <v>-11.10446</v>
+        <v>0.29626010000000003</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -8104,13 +7888,13 @@
         <v>16.42136</v>
       </c>
       <c r="G78">
-        <v>3684</v>
+        <v>3885</v>
       </c>
       <c r="H78">
-        <v>10.01267</v>
+        <v>14.86496</v>
       </c>
       <c r="I78">
-        <v>-11.10446</v>
+        <v>0.28567940000000003</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -8124,13 +7908,13 @@
         <v>16.414490000000001</v>
       </c>
       <c r="G79">
-        <v>3734</v>
+        <v>3935</v>
       </c>
       <c r="H79">
-        <v>10.01267</v>
+        <v>14.85352</v>
       </c>
       <c r="I79">
-        <v>-11.10446</v>
+        <v>0.2592276</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -8144,13 +7928,13 @@
         <v>16.490020000000001</v>
       </c>
       <c r="G80">
-        <v>3784</v>
+        <v>3985</v>
       </c>
       <c r="H80">
-        <v>10.01267</v>
+        <v>14.8169</v>
       </c>
       <c r="I80">
-        <v>-11.10446</v>
+        <v>0.17458180000000001</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -8164,13 +7948,13 @@
         <v>16.528929999999999</v>
       </c>
       <c r="G81">
-        <v>3837</v>
+        <v>4035</v>
       </c>
       <c r="H81">
-        <v>10.01267</v>
+        <v>14.78256</v>
       </c>
       <c r="I81">
-        <v>-11.10446</v>
+        <v>9.5226459999999999E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -8184,13 +7968,13 @@
         <v>16.528929999999999</v>
       </c>
       <c r="G82">
-        <v>3884</v>
+        <v>4085</v>
       </c>
       <c r="H82">
-        <v>10.01267</v>
+        <v>14.75281</v>
       </c>
       <c r="I82">
-        <v>-11.10446</v>
+        <v>2.6451789999999999E-2</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -8204,13 +7988,13 @@
         <v>16.460270000000001</v>
       </c>
       <c r="G83">
-        <v>3934</v>
+        <v>4086</v>
       </c>
       <c r="H83">
-        <v>10.01267</v>
+        <v>14.75281</v>
       </c>
       <c r="I83">
-        <v>-11.10446</v>
+        <v>2.6451789999999999E-2</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -8224,13 +8008,13 @@
         <v>16.4328</v>
       </c>
       <c r="G84">
-        <v>3984</v>
+        <v>4138</v>
       </c>
       <c r="H84">
-        <v>10.01267</v>
+        <v>14.734500000000001</v>
       </c>
       <c r="I84">
-        <v>-11.10446</v>
+        <v>-1.5871079999999999E-2</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -8244,13 +8028,13 @@
         <v>16.494599999999998</v>
       </c>
       <c r="G85">
-        <v>4034</v>
+        <v>4139</v>
       </c>
       <c r="H85">
-        <v>10.01267</v>
+        <v>14.734500000000001</v>
       </c>
       <c r="I85">
-        <v>-11.10446</v>
+        <v>-1.5871079999999999E-2</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -8264,13 +8048,13 @@
         <v>16.535799999999998</v>
       </c>
       <c r="G86">
-        <v>4084</v>
+        <v>4185</v>
       </c>
       <c r="H86">
-        <v>10.01267</v>
+        <v>14.72992</v>
       </c>
       <c r="I86">
-        <v>-11.10446</v>
+        <v>-2.6451789999999999E-2</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -8284,13 +8068,13 @@
         <v>16.517489999999999</v>
       </c>
       <c r="G87">
-        <v>4137</v>
+        <v>4186</v>
       </c>
       <c r="H87">
-        <v>10.01267</v>
+        <v>14.72992</v>
       </c>
       <c r="I87">
-        <v>-11.10446</v>
+        <v>-2.6451789999999999E-2</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -8304,13 +8088,13 @@
         <v>16.453399999999998</v>
       </c>
       <c r="G88">
-        <v>4184</v>
+        <v>4235</v>
       </c>
       <c r="H88">
-        <v>10.01267</v>
+        <v>14.734500000000001</v>
       </c>
       <c r="I88">
-        <v>-11.10446</v>
+        <v>-1.5871079999999999E-2</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -8324,13 +8108,13 @@
         <v>16.441960000000002</v>
       </c>
       <c r="G89">
-        <v>4234</v>
+        <v>4236</v>
       </c>
       <c r="H89">
-        <v>10.01267</v>
+        <v>14.734500000000001</v>
       </c>
       <c r="I89">
-        <v>-11.10446</v>
+        <v>-1.5871079999999999E-2</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -8344,13 +8128,13 @@
         <v>16.506039999999999</v>
       </c>
       <c r="G90">
-        <v>4485</v>
+        <v>4285</v>
       </c>
       <c r="H90">
-        <v>10.15915</v>
+        <v>14.734500000000001</v>
       </c>
       <c r="I90">
-        <v>-10.765879999999999</v>
+        <v>-1.5871079999999999E-2</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -8364,13 +8148,13 @@
         <v>16.528929999999999</v>
       </c>
       <c r="G91">
-        <v>4535</v>
+        <v>4286</v>
       </c>
       <c r="H91">
-        <v>10.163729999999999</v>
+        <v>14.734500000000001</v>
       </c>
       <c r="I91">
-        <v>-10.7553</v>
+        <v>-1.5871079999999999E-2</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -8384,13 +8168,13 @@
         <v>16.517489999999999</v>
       </c>
       <c r="G92">
-        <v>4585</v>
+        <v>4335</v>
       </c>
       <c r="H92">
-        <v>10.204929999999999</v>
+        <v>14.72992</v>
       </c>
       <c r="I92">
-        <v>-10.660069999999999</v>
+        <v>-2.6451789999999999E-2</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -8404,13 +8188,13 @@
         <v>16.441960000000002</v>
       </c>
       <c r="G93">
-        <v>4635</v>
+        <v>4336</v>
       </c>
       <c r="H93">
-        <v>10.305630000000001</v>
+        <v>14.72992</v>
       </c>
       <c r="I93">
-        <v>-10.427300000000001</v>
+        <v>-2.6451789999999999E-2</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -8424,13 +8208,13 @@
         <v>16.425940000000001</v>
       </c>
       <c r="G94">
-        <v>4685</v>
+        <v>4385</v>
       </c>
       <c r="H94">
-        <v>10.399480000000001</v>
+        <v>14.72992</v>
       </c>
       <c r="I94">
-        <v>-10.21039</v>
+        <v>-2.6451789999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -8444,13 +8228,13 @@
         <v>16.494599999999998</v>
       </c>
       <c r="G95">
-        <v>4738</v>
+        <v>4386</v>
       </c>
       <c r="H95">
-        <v>10.502470000000001</v>
+        <v>14.72992</v>
       </c>
       <c r="I95">
-        <v>-9.9723249999999997</v>
+        <v>-2.6451789999999999E-2</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -8464,13 +8248,13 @@
         <v>16.535799999999998</v>
       </c>
       <c r="G96">
-        <v>4785</v>
+        <v>4438</v>
       </c>
       <c r="H96">
-        <v>10.60089</v>
+        <v>14.734500000000001</v>
       </c>
       <c r="I96">
-        <v>-9.7448409999999992</v>
+        <v>-1.5871079999999999E-2</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -8484,13 +8268,13 @@
         <v>16.517489999999999</v>
       </c>
       <c r="G97">
-        <v>4835</v>
+        <v>4439</v>
       </c>
       <c r="H97">
-        <v>10.69473</v>
+        <v>14.734500000000001</v>
       </c>
       <c r="I97">
-        <v>-9.5279360000000004</v>
+        <v>-1.5871079999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -8504,13 +8288,13 @@
         <v>16.460270000000001</v>
       </c>
       <c r="G98">
-        <v>4885</v>
+        <v>4485</v>
       </c>
       <c r="H98">
-        <v>10.806889999999999</v>
+        <v>14.734500000000001</v>
       </c>
       <c r="I98">
-        <v>-9.2687080000000002</v>
+        <v>-1.5871079999999999E-2</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -8524,13 +8308,13 @@
         <v>16.448820000000001</v>
       </c>
       <c r="G99">
-        <v>4935</v>
+        <v>4486</v>
       </c>
       <c r="H99">
-        <v>10.91217</v>
+        <v>14.734500000000001</v>
       </c>
       <c r="I99">
-        <v>-9.0253519999999998</v>
+        <v>-1.5871079999999999E-2</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -8544,13 +8328,13 @@
         <v>16.506039999999999</v>
       </c>
       <c r="G100">
-        <v>4985</v>
+        <v>4535</v>
       </c>
       <c r="H100">
-        <v>11.01746</v>
+        <v>14.745939999999999</v>
       </c>
       <c r="I100">
-        <v>-8.7819959999999995</v>
+        <v>1.058072E-2</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -8564,13 +8348,13 @@
         <v>16.528929999999999</v>
       </c>
       <c r="G101">
-        <v>5038</v>
+        <v>4536</v>
       </c>
       <c r="H101">
-        <v>11.127319999999999</v>
+        <v>14.745939999999999</v>
       </c>
       <c r="I101">
-        <v>-8.5280579999999997</v>
+        <v>1.058072E-2</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -8584,13 +8368,13 @@
         <v>16.517489999999999</v>
       </c>
       <c r="G102">
-        <v>5085</v>
+        <v>4585</v>
       </c>
       <c r="H102">
-        <v>11.212009999999999</v>
+        <v>14.745939999999999</v>
       </c>
       <c r="I102">
-        <v>-8.3323140000000002</v>
+        <v>1.058072E-2</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -8604,629 +8388,233 @@
         <v>16.448820000000001</v>
       </c>
       <c r="G103">
-        <v>5135</v>
+        <v>4586</v>
       </c>
       <c r="H103">
-        <v>11.312709999999999</v>
+        <v>14.745939999999999</v>
       </c>
       <c r="I103">
-        <v>-8.099539</v>
+        <v>1.058072E-2</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G104">
-        <v>5185</v>
+        <v>4635</v>
       </c>
       <c r="H104">
-        <v>11.417999999999999</v>
+        <v>14.745939999999999</v>
       </c>
       <c r="I104">
-        <v>-7.8561829999999997</v>
+        <v>1.058072E-2</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G105">
-        <v>5235</v>
+        <v>4636</v>
       </c>
       <c r="H105">
-        <v>11.52786</v>
+        <v>14.745939999999999</v>
       </c>
       <c r="I105">
-        <v>-7.6022449999999999</v>
+        <v>1.058072E-2</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G106">
-        <v>5285</v>
+        <v>4685</v>
       </c>
       <c r="H106">
-        <v>11.62857</v>
+        <v>14.745939999999999</v>
       </c>
       <c r="I106">
-        <v>-7.3694699999999997</v>
+        <v>1.058072E-2</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G107">
-        <v>5338</v>
+        <v>4686</v>
       </c>
       <c r="H107">
-        <v>11.738429999999999</v>
+        <v>14.745939999999999</v>
       </c>
       <c r="I107">
-        <v>-7.115532</v>
+        <v>1.058072E-2</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G108">
-        <v>5385</v>
+        <v>4738</v>
       </c>
       <c r="H108">
-        <v>11.85059</v>
+        <v>14.745939999999999</v>
       </c>
       <c r="I108">
-        <v>-6.8563049999999999</v>
+        <v>1.058072E-2</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G109">
-        <v>5435</v>
+        <v>4739</v>
       </c>
       <c r="H109">
-        <v>11.95129</v>
+        <v>14.745939999999999</v>
       </c>
       <c r="I109">
-        <v>-6.6235290000000004</v>
+        <v>1.058072E-2</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G110">
-        <v>5485</v>
+        <v>4785</v>
       </c>
       <c r="H110">
-        <v>12.06574</v>
+        <v>14.745939999999999</v>
       </c>
       <c r="I110">
-        <v>-6.3590109999999997</v>
+        <v>1.058072E-2</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G111">
-        <v>5535</v>
+        <v>4786</v>
       </c>
       <c r="H111">
-        <v>12.17102</v>
+        <v>14.745939999999999</v>
       </c>
       <c r="I111">
-        <v>-6.1156540000000001</v>
+        <v>1.058072E-2</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G112">
-        <v>5585</v>
+        <v>4835</v>
       </c>
       <c r="H112">
-        <v>12.28546</v>
+        <v>14.759679999999999</v>
       </c>
       <c r="I112">
-        <v>-5.8511369999999996</v>
+        <v>4.2322869999999999E-2</v>
       </c>
     </row>
     <row r="113" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G113">
-        <v>5638</v>
+        <v>4885</v>
       </c>
       <c r="H113">
-        <v>12.420500000000001</v>
+        <v>14.759679999999999</v>
       </c>
       <c r="I113">
-        <v>-5.5390050000000004</v>
+        <v>4.2322869999999999E-2</v>
       </c>
     </row>
     <row r="114" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G114">
-        <v>5685</v>
+        <v>4935</v>
       </c>
       <c r="H114">
-        <v>12.51892</v>
+        <v>14.75281</v>
       </c>
       <c r="I114">
-        <v>-5.3115199999999998</v>
+        <v>2.6451789999999999E-2</v>
       </c>
     </row>
     <row r="115" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G115">
-        <v>5735</v>
+        <v>4936</v>
       </c>
       <c r="H115">
-        <v>12.6265</v>
+        <v>14.75281</v>
       </c>
       <c r="I115">
-        <v>-5.0628729999999997</v>
+        <v>2.6451789999999999E-2</v>
       </c>
     </row>
     <row r="116" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G116">
-        <v>5785</v>
+        <v>4985</v>
       </c>
       <c r="H116">
-        <v>12.74094</v>
+        <v>14.75281</v>
       </c>
       <c r="I116">
-        <v>-4.7983560000000001</v>
+        <v>2.6451789999999999E-2</v>
       </c>
     </row>
     <row r="117" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G117">
-        <v>5835</v>
+        <v>4986</v>
       </c>
       <c r="H117">
-        <v>12.869109999999999</v>
+        <v>14.75281</v>
       </c>
       <c r="I117">
-        <v>-4.5020949999999997</v>
+        <v>2.6451789999999999E-2</v>
       </c>
     </row>
     <row r="118" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G118">
-        <v>5885</v>
+        <v>5038</v>
       </c>
       <c r="H118">
-        <v>12.99728</v>
+        <v>14.745939999999999</v>
       </c>
       <c r="I118">
-        <v>-4.2058350000000004</v>
+        <v>1.058072E-2</v>
       </c>
     </row>
     <row r="119" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G119">
-        <v>5938</v>
+        <v>5039</v>
       </c>
       <c r="H119">
-        <v>13.12088</v>
+        <v>14.745939999999999</v>
       </c>
       <c r="I119">
-        <v>-3.920156</v>
+        <v>1.058072E-2</v>
       </c>
     </row>
     <row r="120" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G120">
-        <v>5985</v>
+        <v>5085</v>
       </c>
       <c r="H120">
-        <v>13.23761</v>
+        <v>14.745939999999999</v>
       </c>
       <c r="I120">
-        <v>-3.650347</v>
+        <v>1.058072E-2</v>
       </c>
     </row>
     <row r="121" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G121">
-        <v>6035</v>
+        <v>5086</v>
       </c>
       <c r="H121">
-        <v>13.354340000000001</v>
+        <v>14.745939999999999</v>
       </c>
       <c r="I121">
-        <v>-3.3805390000000002</v>
+        <v>1.058072E-2</v>
       </c>
     </row>
     <row r="122" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G122">
-        <v>6085</v>
+        <v>5135</v>
       </c>
       <c r="H122">
-        <v>13.47336</v>
+        <v>14.75281</v>
       </c>
       <c r="I122">
-        <v>-3.1054400000000002</v>
+        <v>2.6451789999999999E-2</v>
       </c>
     </row>
     <row r="123" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G123">
-        <v>6135</v>
+        <v>5136</v>
       </c>
       <c r="H123">
-        <v>13.596959999999999</v>
+        <v>14.75281</v>
       </c>
       <c r="I123">
-        <v>-2.8197610000000002</v>
-      </c>
-    </row>
-    <row r="124" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G124">
-        <v>6185</v>
-      </c>
-      <c r="H124">
-        <v>13.697660000000001</v>
-      </c>
-      <c r="I124">
-        <v>-2.5869849999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G125">
-        <v>6238</v>
-      </c>
-      <c r="H125">
-        <v>13.81439</v>
-      </c>
-      <c r="I125">
-        <v>-2.317177</v>
-      </c>
-    </row>
-    <row r="126" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G126">
-        <v>6285</v>
-      </c>
-      <c r="H126">
-        <v>13.91968</v>
-      </c>
-      <c r="I126">
-        <v>-2.0738210000000001</v>
-      </c>
-    </row>
-    <row r="127" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G127">
-        <v>6335</v>
-      </c>
-      <c r="H127">
-        <v>14.002079999999999</v>
-      </c>
-      <c r="I127">
-        <v>-1.8833679999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G128">
-        <v>6385</v>
-      </c>
-      <c r="H128">
-        <v>14.06616</v>
-      </c>
-      <c r="I128">
-        <v>-1.7352380000000001</v>
-      </c>
-    </row>
-    <row r="129" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G129">
-        <v>6435</v>
-      </c>
-      <c r="H129">
-        <v>14.111940000000001</v>
-      </c>
-      <c r="I129">
-        <v>-1.6294299999999999</v>
-      </c>
-    </row>
-    <row r="130" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G130">
-        <v>6485</v>
-      </c>
-      <c r="H130">
-        <v>14.134829999999999</v>
-      </c>
-      <c r="I130">
-        <v>-1.576527</v>
-      </c>
-    </row>
-    <row r="131" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G131">
-        <v>6538</v>
-      </c>
-      <c r="H131">
-        <v>14.15085</v>
-      </c>
-      <c r="I131">
-        <v>-1.5394939999999999</v>
-      </c>
-    </row>
-    <row r="132" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G132">
-        <v>6585</v>
-      </c>
-      <c r="H132">
-        <v>14.157719999999999</v>
-      </c>
-      <c r="I132">
-        <v>-1.5236229999999999</v>
-      </c>
-    </row>
-    <row r="133" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G133">
-        <v>6635</v>
-      </c>
-      <c r="H133">
-        <v>14.157719999999999</v>
-      </c>
-      <c r="I133">
-        <v>-1.5236229999999999</v>
-      </c>
-    </row>
-    <row r="134" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G134">
-        <v>6685</v>
-      </c>
-      <c r="H134">
-        <v>14.157719999999999</v>
-      </c>
-      <c r="I134">
-        <v>-1.5236229999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G135">
-        <v>6735</v>
-      </c>
-      <c r="H135">
-        <v>14.157719999999999</v>
-      </c>
-      <c r="I135">
-        <v>-1.5236229999999999</v>
-      </c>
-    </row>
-    <row r="136" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G136">
-        <v>6785</v>
-      </c>
-      <c r="H136">
-        <v>14.16229</v>
-      </c>
-      <c r="I136">
-        <v>-1.5130429999999999</v>
-      </c>
-    </row>
-    <row r="137" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G137">
-        <v>6838</v>
-      </c>
-      <c r="H137">
-        <v>14.16229</v>
-      </c>
-      <c r="I137">
-        <v>-1.5130429999999999</v>
-      </c>
-    </row>
-    <row r="138" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G138">
-        <v>6885</v>
-      </c>
-      <c r="H138">
-        <v>14.16229</v>
-      </c>
-      <c r="I138">
-        <v>-1.5130429999999999</v>
-      </c>
-    </row>
-    <row r="139" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G139">
-        <v>6935</v>
-      </c>
-      <c r="H139">
-        <v>14.16229</v>
-      </c>
-      <c r="I139">
-        <v>-1.5130429999999999</v>
-      </c>
-    </row>
-    <row r="140" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G140">
-        <v>6985</v>
-      </c>
-      <c r="H140">
-        <v>14.16229</v>
-      </c>
-      <c r="I140">
-        <v>-1.5130429999999999</v>
-      </c>
-    </row>
-    <row r="141" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G141">
-        <v>7035</v>
-      </c>
-      <c r="H141">
-        <v>14.16916</v>
-      </c>
-      <c r="I141">
-        <v>-1.497171</v>
-      </c>
-    </row>
-    <row r="142" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G142">
-        <v>7085</v>
-      </c>
-      <c r="H142">
-        <v>14.2012</v>
-      </c>
-      <c r="I142">
-        <v>-1.423106</v>
-      </c>
-    </row>
-    <row r="143" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G143">
-        <v>7138</v>
-      </c>
-      <c r="H143">
-        <v>14.2836</v>
-      </c>
-      <c r="I143">
-        <v>-1.2326539999999999</v>
-      </c>
-    </row>
-    <row r="144" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G144">
-        <v>7185</v>
-      </c>
-      <c r="H144">
-        <v>14.38889</v>
-      </c>
-      <c r="I144">
-        <v>-0.98929699999999998</v>
-      </c>
-    </row>
-    <row r="145" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G145">
-        <v>7235</v>
-      </c>
-      <c r="H145">
-        <v>14.51248</v>
-      </c>
-      <c r="I145">
-        <v>-0.70361770000000001</v>
-      </c>
-    </row>
-    <row r="146" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G146">
-        <v>7285</v>
-      </c>
-      <c r="H146">
-        <v>14.57199</v>
-      </c>
-      <c r="I146">
-        <v>-0.56606840000000003</v>
-      </c>
-    </row>
-    <row r="147" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G147">
-        <v>7335</v>
-      </c>
-      <c r="H147">
-        <v>14.57199</v>
-      </c>
-      <c r="I147">
-        <v>-0.56606840000000003</v>
-      </c>
-    </row>
-    <row r="148" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G148">
-        <v>7385</v>
-      </c>
-      <c r="H148">
-        <v>14.560549999999999</v>
-      </c>
-      <c r="I148">
-        <v>-0.59252020000000005</v>
-      </c>
-    </row>
-    <row r="149" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G149">
-        <v>7438</v>
-      </c>
-      <c r="H149">
-        <v>14.546810000000001</v>
-      </c>
-      <c r="I149">
-        <v>-0.62426230000000005</v>
-      </c>
-    </row>
-    <row r="150" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G150">
-        <v>7485</v>
-      </c>
-      <c r="H150">
-        <v>14.546810000000001</v>
-      </c>
-      <c r="I150">
-        <v>-0.62426230000000005</v>
-      </c>
-    </row>
-    <row r="151" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G151">
-        <v>7535</v>
-      </c>
-      <c r="H151">
-        <v>14.56513</v>
-      </c>
-      <c r="I151">
-        <v>-0.58193950000000005</v>
-      </c>
-    </row>
-    <row r="152" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G152">
-        <v>7585</v>
-      </c>
-      <c r="H152">
-        <v>14.61777</v>
-      </c>
-      <c r="I152">
-        <v>-0.46026119999999998</v>
-      </c>
-    </row>
-    <row r="153" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G153">
-        <v>7635</v>
-      </c>
-      <c r="H153">
-        <v>14.70703</v>
-      </c>
-      <c r="I153">
-        <v>-0.25393719999999997</v>
-      </c>
-    </row>
-    <row r="154" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G154">
-        <v>7685</v>
-      </c>
-      <c r="H154">
-        <v>14.79401</v>
-      </c>
-      <c r="I154">
-        <v>-5.290359E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G155">
-        <v>7738</v>
-      </c>
-      <c r="H155">
-        <v>14.8764</v>
-      </c>
-      <c r="I155">
-        <v>0.13754930000000001</v>
-      </c>
-    </row>
-    <row r="156" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G156">
-        <v>7785</v>
-      </c>
-      <c r="H156">
-        <v>14.880979999999999</v>
-      </c>
-      <c r="I156">
-        <v>0.14813000000000001</v>
-      </c>
-    </row>
-    <row r="158" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G158">
-        <v>6935</v>
-      </c>
-      <c r="H158">
-        <v>14.72992</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G159">
-        <v>6985</v>
-      </c>
-      <c r="H159">
-        <v>14.71848</v>
-      </c>
-      <c r="I159">
-        <v>-2.6451789999999999E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G160">
-        <v>6985</v>
-      </c>
-      <c r="H160">
-        <v>14.71848</v>
-      </c>
-      <c r="I160">
-        <v>-2.6451789999999999E-2</v>
+        <v>2.6451789999999999E-2</v>
       </c>
     </row>
   </sheetData>
